--- a/txsb_top_timing_bdlmax_tran_channel_s_tsmc2ff_meas.xlsx
+++ b/txsb_top_timing_bdlmax_tran_channel_s_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="133">
   <si>
     <t>Process</t>
   </si>
@@ -343,52 +343,52 @@
     <t>tsmc2ff (4)</t>
   </si>
   <si>
+    <t>tsmc2ff (5)</t>
+  </si>
+  <si>
+    <t>mosulvt_ff</t>
+  </si>
+  <si>
+    <t>moselvt_ff</t>
+  </si>
+  <si>
+    <t>moshselvt_ff</t>
+  </si>
+  <si>
+    <t>moslvt_ff</t>
+  </si>
+  <si>
+    <t>nmoscap_f</t>
+  </si>
+  <si>
+    <t>bip_f</t>
+  </si>
+  <si>
+    <t>dio_f</t>
+  </si>
+  <si>
+    <t>res_l</t>
+  </si>
+  <si>
+    <t>cap_l</t>
+  </si>
+  <si>
+    <t>rcbest_ccbest_t</t>
+  </si>
+  <si>
+    <t>tsmc2ff (6)</t>
+  </si>
+  <si>
+    <t>tsmc2ff (7)</t>
+  </si>
+  <si>
+    <t>tsmc2ff (8)</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>tsmc2ff (5)</t>
-  </si>
-  <si>
-    <t>mosulvt_ff</t>
-  </si>
-  <si>
-    <t>moselvt_ff</t>
-  </si>
-  <si>
-    <t>moshselvt_ff</t>
-  </si>
-  <si>
-    <t>moslvt_ff</t>
-  </si>
-  <si>
-    <t>nmoscap_f</t>
-  </si>
-  <si>
-    <t>bip_f</t>
-  </si>
-  <si>
-    <t>dio_f</t>
-  </si>
-  <si>
-    <t>res_l</t>
-  </si>
-  <si>
-    <t>cap_l</t>
-  </si>
-  <si>
-    <t>rcbest_ccbest_t</t>
-  </si>
-  <si>
-    <t>tsmc2ff (6)</t>
-  </si>
-  <si>
-    <t>tsmc2ff (7)</t>
-  </si>
-  <si>
-    <t>tsmc2ff (8)</t>
-  </si>
-  <si>
-    <t>Min</t>
   </si>
   <si>
     <t>Max</t>
@@ -2006,214 +2006,214 @@
       <c r="Q6" t="s">
         <v>103</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BF6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BK6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BL6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BN6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BO6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BP6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BQ6" s="4" t="s">
-        <v>109</v>
+      <c r="R6">
+        <v>317.6850000000001</v>
+      </c>
+      <c r="S6">
+        <v>319.19</v>
+      </c>
+      <c r="T6">
+        <v>318.438</v>
+      </c>
+      <c r="U6" s="2">
+        <v>66.7111</v>
+      </c>
+      <c r="V6" s="3">
+        <v>27.3979</v>
+      </c>
+      <c r="W6" s="3">
+        <v>24.3679</v>
+      </c>
+      <c r="X6">
+        <v>15.1107</v>
+      </c>
+      <c r="Y6">
+        <v>16.9895</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>3115.89</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>3115.66</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>3115.78</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>38.0012</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>27.2718</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>25.0997</v>
+      </c>
+      <c r="AF6">
+        <v>20.2407</v>
+      </c>
+      <c r="AG6">
+        <v>21.9923</v>
+      </c>
+      <c r="AH6">
+        <v>115.894</v>
+      </c>
+      <c r="AI6">
+        <v>115.664</v>
+      </c>
+      <c r="AJ6">
+        <v>115.779</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>24.9791</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>27.2718</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>25.0997</v>
+      </c>
+      <c r="AN6">
+        <v>20.2407</v>
+      </c>
+      <c r="AO6">
+        <v>21.9923</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>372.498</v>
+      </c>
+      <c r="AQ6">
+        <v>239.313</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>62.2848</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>237.07</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>234.316</v>
+      </c>
+      <c r="AU6">
+        <v>1.74632</v>
+      </c>
+      <c r="AV6">
+        <v>1.76684</v>
+      </c>
+      <c r="AW6">
+        <v>70.6576</v>
+      </c>
+      <c r="AX6">
+        <v>71.0068</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>66.68040000000001</v>
+      </c>
+      <c r="AZ6" s="3">
+        <v>6.26646</v>
+      </c>
+      <c r="BA6" s="3">
+        <v>6.11364</v>
+      </c>
+      <c r="BB6">
+        <v>66.066</v>
+      </c>
+      <c r="BC6">
+        <v>67.7175</v>
+      </c>
+      <c r="BD6">
+        <v>95.6754</v>
+      </c>
+      <c r="BE6">
+        <v>91.3459</v>
+      </c>
+      <c r="BF6" s="2">
+        <v>66.5183</v>
+      </c>
+      <c r="BG6" s="3">
+        <v>11.8609</v>
+      </c>
+      <c r="BH6" s="3">
+        <v>10.8457</v>
+      </c>
+      <c r="BI6">
+        <v>34.9047</v>
+      </c>
+      <c r="BJ6">
+        <v>38.1719</v>
+      </c>
+      <c r="BK6">
+        <v>126.374</v>
+      </c>
+      <c r="BL6">
+        <v>128.642</v>
+      </c>
+      <c r="BM6" s="2">
+        <v>66.7372</v>
+      </c>
+      <c r="BN6" s="3">
+        <v>7.42451</v>
+      </c>
+      <c r="BO6" s="3">
+        <v>3.15451</v>
+      </c>
+      <c r="BP6">
+        <v>55.7612</v>
+      </c>
+      <c r="BQ6">
+        <v>131.241</v>
       </c>
       <c r="BR6" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BS6" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BT6" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BU6" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BV6" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BW6" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BX6" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:76">
       <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
         <v>110</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>111</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>112</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>113</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>114</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>115</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>116</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>117</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>118</v>
-      </c>
-      <c r="J7" t="s">
-        <v>119</v>
       </c>
       <c r="K7" t="s">
         <v>100</v>
@@ -2234,216 +2234,216 @@
         <v>102</v>
       </c>
       <c r="Q7" t="s">
-        <v>120</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BA7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BF7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BG7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BH7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BI7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BK7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BL7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BN7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BO7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BP7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BQ7" s="4" t="s">
-        <v>109</v>
+        <v>119</v>
+      </c>
+      <c r="R7">
+        <v>240.957</v>
+      </c>
+      <c r="S7">
+        <v>239.302</v>
+      </c>
+      <c r="T7">
+        <v>240.129</v>
+      </c>
+      <c r="U7" s="2">
+        <v>66.6386</v>
+      </c>
+      <c r="V7" s="3">
+        <v>19.567</v>
+      </c>
+      <c r="W7" s="3">
+        <v>19.1421</v>
+      </c>
+      <c r="X7">
+        <v>23.6112</v>
+      </c>
+      <c r="Y7">
+        <v>24.1353</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>3080.54</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>3080.27</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>3080.41</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>2.76287</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>16.5329</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>16.7676</v>
+      </c>
+      <c r="AF7">
+        <v>37.4043</v>
+      </c>
+      <c r="AG7">
+        <v>36.8806</v>
+      </c>
+      <c r="AH7">
+        <v>80.5398</v>
+      </c>
+      <c r="AI7">
+        <v>80.2719</v>
+      </c>
+      <c r="AJ7">
+        <v>80.4058</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>24.9923</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>16.5329</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>16.7676</v>
+      </c>
+      <c r="AN7">
+        <v>37.4043</v>
+      </c>
+      <c r="AO7">
+        <v>36.8806</v>
+      </c>
+      <c r="AP7">
+        <v>137.991</v>
+      </c>
+      <c r="AQ7">
+        <v>135.929</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>66.61579999999999</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>228.461</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>227.17</v>
+      </c>
+      <c r="AU7">
+        <v>2.02223</v>
+      </c>
+      <c r="AV7">
+        <v>2.03372</v>
+      </c>
+      <c r="AW7">
+        <v>55.9526</v>
+      </c>
+      <c r="AX7">
+        <v>55.6603</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>66.6568</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>6.81385</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>6.23648</v>
+      </c>
+      <c r="BB7">
+        <v>68.0672</v>
+      </c>
+      <c r="BC7">
+        <v>74.3689</v>
+      </c>
+      <c r="BD7">
+        <v>69.6409</v>
+      </c>
+      <c r="BE7">
+        <v>67.0827</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>66.5787</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>8.233269999999999</v>
+      </c>
+      <c r="BH7" s="3">
+        <v>7.0769</v>
+      </c>
+      <c r="BI7">
+        <v>56.3324</v>
+      </c>
+      <c r="BJ7">
+        <v>65.5372</v>
+      </c>
+      <c r="BK7">
+        <v>84.6666</v>
+      </c>
+      <c r="BL7">
+        <v>83.4657</v>
+      </c>
+      <c r="BM7" s="2">
+        <v>66.62609999999999</v>
+      </c>
+      <c r="BN7" s="3">
+        <v>4.99026</v>
+      </c>
+      <c r="BO7" s="3">
+        <v>2.25565</v>
+      </c>
+      <c r="BP7">
+        <v>92.58029999999999</v>
+      </c>
+      <c r="BQ7">
+        <v>204.819</v>
       </c>
       <c r="BR7" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BS7" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BT7" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BU7" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BV7" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BW7" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BX7" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:76">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
         <v>111</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>112</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>113</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>114</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>115</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>116</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>117</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>118</v>
-      </c>
-      <c r="J8" t="s">
-        <v>119</v>
       </c>
       <c r="K8" t="s">
         <v>105</v>
@@ -2464,216 +2464,216 @@
         <v>102</v>
       </c>
       <c r="Q8" t="s">
-        <v>120</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BA8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BF8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BG8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BH8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BI8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BK8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BL8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BN8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BO8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BP8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BQ8" s="4" t="s">
-        <v>109</v>
+        <v>119</v>
+      </c>
+      <c r="R8">
+        <v>227.55</v>
+      </c>
+      <c r="S8">
+        <v>227.689</v>
+      </c>
+      <c r="T8">
+        <v>227.619</v>
+      </c>
+      <c r="U8" s="2">
+        <v>66.6747</v>
+      </c>
+      <c r="V8" s="3">
+        <v>17.3029</v>
+      </c>
+      <c r="W8" s="3">
+        <v>15.955</v>
+      </c>
+      <c r="X8">
+        <v>26.7008</v>
+      </c>
+      <c r="Y8">
+        <v>28.9564</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>3071.79</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>3072.13</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>3071.96</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0.159318</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>15.415</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>14.4765</v>
+      </c>
+      <c r="AF8">
+        <v>40.1169</v>
+      </c>
+      <c r="AG8">
+        <v>42.7176</v>
+      </c>
+      <c r="AH8">
+        <v>71.7864</v>
+      </c>
+      <c r="AI8">
+        <v>72.12580000000001</v>
+      </c>
+      <c r="AJ8">
+        <v>71.95610000000001</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>25.0021</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>15.415</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>14.4765</v>
+      </c>
+      <c r="AN8">
+        <v>40.1169</v>
+      </c>
+      <c r="AO8">
+        <v>42.7176</v>
+      </c>
+      <c r="AP8">
+        <v>123.513</v>
+      </c>
+      <c r="AQ8">
+        <v>123.698</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>66.65989999999999</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>224.791</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>223.574</v>
+      </c>
+      <c r="AU8">
+        <v>2.05524</v>
+      </c>
+      <c r="AV8">
+        <v>2.06643</v>
+      </c>
+      <c r="AW8">
+        <v>48.8198</v>
+      </c>
+      <c r="AX8">
+        <v>49.2761</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>66.6797</v>
+      </c>
+      <c r="AZ8" s="3">
+        <v>4.800920000000001</v>
+      </c>
+      <c r="BA8" s="3">
+        <v>4.6453</v>
+      </c>
+      <c r="BB8">
+        <v>96.60639999999999</v>
+      </c>
+      <c r="BC8">
+        <v>99.8429</v>
+      </c>
+      <c r="BD8">
+        <v>61.39470000000001</v>
+      </c>
+      <c r="BE8">
+        <v>59.8975</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>66.613</v>
+      </c>
+      <c r="BG8" s="3">
+        <v>7.03202</v>
+      </c>
+      <c r="BH8" s="3">
+        <v>6.27486</v>
+      </c>
+      <c r="BI8">
+        <v>65.9554</v>
+      </c>
+      <c r="BJ8">
+        <v>73.914</v>
+      </c>
+      <c r="BK8">
+        <v>76.13</v>
+      </c>
+      <c r="BL8">
+        <v>77.21599999999999</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>66.6904</v>
+      </c>
+      <c r="BN8" s="3">
+        <v>4.60847</v>
+      </c>
+      <c r="BO8" s="3">
+        <v>2.0399</v>
+      </c>
+      <c r="BP8">
+        <v>100.25</v>
+      </c>
+      <c r="BQ8">
+        <v>226.481</v>
       </c>
       <c r="BR8" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BS8" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BT8" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BU8" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BV8" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BW8" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BX8" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:76">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
         <v>111</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>112</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>113</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>114</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>115</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>116</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>117</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>118</v>
-      </c>
-      <c r="J9" t="s">
-        <v>119</v>
       </c>
       <c r="K9" t="s">
         <v>100</v>
@@ -2694,216 +2694,216 @@
         <v>107</v>
       </c>
       <c r="Q9" t="s">
-        <v>120</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BA9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BF9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BG9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BH9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BI9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BK9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BL9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BN9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BO9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BP9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BQ9" s="4" t="s">
-        <v>109</v>
+        <v>119</v>
+      </c>
+      <c r="R9">
+        <v>250.142</v>
+      </c>
+      <c r="S9">
+        <v>248.855</v>
+      </c>
+      <c r="T9">
+        <v>249.499</v>
+      </c>
+      <c r="U9" s="2">
+        <v>66.6438</v>
+      </c>
+      <c r="V9" s="3">
+        <v>21.0538</v>
+      </c>
+      <c r="W9" s="3">
+        <v>20.6111</v>
+      </c>
+      <c r="X9">
+        <v>19.6639</v>
+      </c>
+      <c r="Y9">
+        <v>20.0863</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>3084.61</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>3085.17</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>3084.89</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0.176643</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>18.738</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>18.5361</v>
+      </c>
+      <c r="AF9">
+        <v>29.4588</v>
+      </c>
+      <c r="AG9">
+        <v>29.7798</v>
+      </c>
+      <c r="AH9">
+        <v>84.61190000000001</v>
+      </c>
+      <c r="AI9">
+        <v>85.16579999999999</v>
+      </c>
+      <c r="AJ9">
+        <v>84.8888</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>24.9977</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>18.738</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>18.5361</v>
+      </c>
+      <c r="AN9">
+        <v>29.4588</v>
+      </c>
+      <c r="AO9">
+        <v>29.7798</v>
+      </c>
+      <c r="AP9">
+        <v>148.037</v>
+      </c>
+      <c r="AQ9">
+        <v>146.255</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>66.6352</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>229.995</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>229.146</v>
+      </c>
+      <c r="AU9">
+        <v>1.80004</v>
+      </c>
+      <c r="AV9">
+        <v>1.80671</v>
+      </c>
+      <c r="AW9">
+        <v>58.0694</v>
+      </c>
+      <c r="AX9">
+        <v>58.1874</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>66.6718</v>
+      </c>
+      <c r="AZ9" s="3">
+        <v>6.53034</v>
+      </c>
+      <c r="BA9" s="3">
+        <v>6.39444</v>
+      </c>
+      <c r="BB9">
+        <v>63.3964</v>
+      </c>
+      <c r="BC9">
+        <v>64.7437</v>
+      </c>
+      <c r="BD9">
+        <v>73.06920000000001</v>
+      </c>
+      <c r="BE9">
+        <v>70.51939999999999</v>
+      </c>
+      <c r="BF9" s="2">
+        <v>66.5812</v>
+      </c>
+      <c r="BG9" s="3">
+        <v>9.4879</v>
+      </c>
+      <c r="BH9" s="3">
+        <v>7.76243</v>
+      </c>
+      <c r="BI9">
+        <v>43.6345</v>
+      </c>
+      <c r="BJ9">
+        <v>53.3338</v>
+      </c>
+      <c r="BK9">
+        <v>89.9105</v>
+      </c>
+      <c r="BL9">
+        <v>89.5986</v>
+      </c>
+      <c r="BM9" s="2">
+        <v>66.6549</v>
+      </c>
+      <c r="BN9" s="3">
+        <v>5.3939</v>
+      </c>
+      <c r="BO9" s="3">
+        <v>2.47066</v>
+      </c>
+      <c r="BP9">
+        <v>76.7533</v>
+      </c>
+      <c r="BQ9">
+        <v>167.567</v>
       </c>
       <c r="BR9" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BS9" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BT9" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BU9" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BV9" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BW9" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BX9" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:76">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
         <v>111</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>112</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>113</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>114</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>115</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>116</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>117</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>118</v>
-      </c>
-      <c r="J10" t="s">
-        <v>119</v>
       </c>
       <c r="K10" t="s">
         <v>105</v>
@@ -2924,184 +2924,184 @@
         <v>107</v>
       </c>
       <c r="Q10" t="s">
-        <v>120</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BA10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BC10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BF10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BG10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BH10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BI10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BK10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BL10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BN10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BO10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BP10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BQ10" s="4" t="s">
-        <v>109</v>
+        <v>119</v>
+      </c>
+      <c r="R10">
+        <v>240.192</v>
+      </c>
+      <c r="S10">
+        <v>240.093</v>
+      </c>
+      <c r="T10">
+        <v>240.142</v>
+      </c>
+      <c r="U10" s="2">
+        <v>66.7076</v>
+      </c>
+      <c r="V10" s="3">
+        <v>18.8024</v>
+      </c>
+      <c r="W10" s="3">
+        <v>18.0159</v>
+      </c>
+      <c r="X10">
+        <v>22.0184</v>
+      </c>
+      <c r="Y10">
+        <v>22.9797</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>3078.4</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>3078.43</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>3078.41</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0.20991</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>16.7826</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>15.8709</v>
+      </c>
+      <c r="AF10">
+        <v>32.8913</v>
+      </c>
+      <c r="AG10">
+        <v>34.7806</v>
+      </c>
+      <c r="AH10">
+        <v>78.4038</v>
+      </c>
+      <c r="AI10">
+        <v>78.4252</v>
+      </c>
+      <c r="AJ10">
+        <v>78.4145</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>24.9811</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>16.7826</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>15.8709</v>
+      </c>
+      <c r="AN10">
+        <v>32.8913</v>
+      </c>
+      <c r="AO10">
+        <v>34.7806</v>
+      </c>
+      <c r="AP10">
+        <v>136.541</v>
+      </c>
+      <c r="AQ10">
+        <v>135.923</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>66.6698</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>226.814</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>225.06</v>
+      </c>
+      <c r="AU10">
+        <v>1.82528</v>
+      </c>
+      <c r="AV10">
+        <v>1.83951</v>
+      </c>
+      <c r="AW10">
+        <v>52.82</v>
+      </c>
+      <c r="AX10">
+        <v>51.631</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>66.63639999999999</v>
+      </c>
+      <c r="AZ10" s="3">
+        <v>4.92627</v>
+      </c>
+      <c r="BA10" s="3">
+        <v>4.38453</v>
+      </c>
+      <c r="BB10">
+        <v>84.03919999999999</v>
+      </c>
+      <c r="BC10">
+        <v>94.4229</v>
+      </c>
+      <c r="BD10">
+        <v>66.7433</v>
+      </c>
+      <c r="BE10">
+        <v>63.2889</v>
+      </c>
+      <c r="BF10" s="2">
+        <v>66.5639</v>
+      </c>
+      <c r="BG10" s="3">
+        <v>7.648849999999999</v>
+      </c>
+      <c r="BH10" s="3">
+        <v>6.55703</v>
+      </c>
+      <c r="BI10">
+        <v>54.1258</v>
+      </c>
+      <c r="BJ10">
+        <v>63.1383</v>
+      </c>
+      <c r="BK10">
+        <v>83.7701</v>
+      </c>
+      <c r="BL10">
+        <v>84.35910000000001</v>
+      </c>
+      <c r="BM10" s="2">
+        <v>66.6866</v>
+      </c>
+      <c r="BN10" s="3">
+        <v>5.013409999999999</v>
+      </c>
+      <c r="BO10" s="3">
+        <v>2.19889</v>
+      </c>
+      <c r="BP10">
+        <v>82.57859999999999</v>
+      </c>
+      <c r="BQ10">
+        <v>188.277</v>
       </c>
       <c r="BR10" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BS10" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BT10" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BU10" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BV10" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BW10" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="BX10" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:76" s="1" customFormat="1">
@@ -3336,25 +3336,25 @@
     </row>
     <row r="12" spans="1:76" s="1" customFormat="1">
       <c r="Q12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R12" s="1">
-        <v>257.723</v>
+        <v>227.55</v>
       </c>
       <c r="S12" s="1">
-        <v>258.696</v>
+        <v>227.689</v>
       </c>
       <c r="T12" s="1">
-        <v>258.21</v>
+        <v>227.619</v>
       </c>
       <c r="U12" s="2">
-        <v>66.639</v>
+        <v>66.6386</v>
       </c>
       <c r="V12" s="3">
-        <v>20.8861</v>
+        <v>17.3029</v>
       </c>
       <c r="W12" s="3">
-        <v>20.1959</v>
+        <v>15.955</v>
       </c>
       <c r="X12" s="1">
         <v>13.9055</v>
@@ -3363,67 +3363,67 @@
         <v>15.135</v>
       </c>
       <c r="Z12" s="2">
-        <v>3089.35</v>
+        <v>3071.79</v>
       </c>
       <c r="AA12" s="2">
-        <v>3089.2</v>
+        <v>3072.13</v>
       </c>
       <c r="AB12" s="2">
-        <v>3089.28</v>
+        <v>3071.96</v>
       </c>
       <c r="AC12" s="3">
-        <v>0.24642</v>
+        <v>0.159318</v>
       </c>
       <c r="AD12" s="3">
-        <v>19.8025</v>
+        <v>15.415</v>
       </c>
       <c r="AE12" s="3">
-        <v>19.0426</v>
+        <v>14.4765</v>
       </c>
       <c r="AF12" s="1">
-        <v>20.3906</v>
+        <v>20.2407</v>
       </c>
       <c r="AG12" s="1">
         <v>20.0019</v>
       </c>
       <c r="AH12" s="1">
-        <v>89.3528</v>
+        <v>71.7864</v>
       </c>
       <c r="AI12" s="1">
-        <v>89.20269999999999</v>
+        <v>72.12580000000001</v>
       </c>
       <c r="AJ12" s="1">
-        <v>89.27770000000001</v>
+        <v>71.95610000000001</v>
       </c>
       <c r="AK12" s="3">
-        <v>24.9951</v>
+        <v>24.9791</v>
       </c>
       <c r="AL12" s="3">
-        <v>19.8025</v>
+        <v>15.415</v>
       </c>
       <c r="AM12" s="3">
-        <v>19.0426</v>
+        <v>14.4765</v>
       </c>
       <c r="AN12" s="1">
-        <v>20.3906</v>
+        <v>20.2407</v>
       </c>
       <c r="AO12" s="1">
         <v>20.0019</v>
       </c>
       <c r="AP12" s="1">
-        <v>157.087</v>
+        <v>123.513</v>
       </c>
       <c r="AQ12" s="1">
-        <v>156.216</v>
+        <v>123.698</v>
       </c>
       <c r="AR12" s="2">
-        <v>62.7665</v>
+        <v>62.2848</v>
       </c>
       <c r="AS12" s="2">
-        <v>230.659</v>
+        <v>224.791</v>
       </c>
       <c r="AT12" s="2">
-        <v>228.827</v>
+        <v>223.574</v>
       </c>
       <c r="AU12" s="1">
         <v>1.7099</v>
@@ -3432,19 +3432,19 @@
         <v>1.74118</v>
       </c>
       <c r="AW12" s="1">
-        <v>59.2624</v>
+        <v>48.8198</v>
       </c>
       <c r="AX12" s="1">
-        <v>59.2759</v>
+        <v>49.2761</v>
       </c>
       <c r="AY12" s="2">
-        <v>66.6675</v>
+        <v>66.63639999999999</v>
       </c>
       <c r="AZ12" s="3">
-        <v>4.901000000000001</v>
+        <v>4.800920000000001</v>
       </c>
       <c r="BA12" s="3">
-        <v>4.74489</v>
+        <v>4.38453</v>
       </c>
       <c r="BB12" s="1">
         <v>55.0406</v>
@@ -3453,19 +3453,19 @@
         <v>57.6907</v>
       </c>
       <c r="BD12" s="1">
-        <v>75.60250000000001</v>
+        <v>61.39470000000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>73.01309999999999</v>
+        <v>59.8975</v>
       </c>
       <c r="BF12" s="2">
-        <v>66.5424</v>
+        <v>66.5183</v>
       </c>
       <c r="BG12" s="3">
-        <v>8.880640000000001</v>
+        <v>7.03202</v>
       </c>
       <c r="BH12" s="3">
-        <v>7.915710000000001</v>
+        <v>6.27486</v>
       </c>
       <c r="BI12" s="1">
         <v>32.635</v>
@@ -3474,19 +3474,19 @@
         <v>36.028</v>
       </c>
       <c r="BK12" s="1">
-        <v>93.74720000000001</v>
+        <v>76.13</v>
       </c>
       <c r="BL12" s="1">
-        <v>95.2985</v>
+        <v>77.21599999999999</v>
       </c>
       <c r="BM12" s="2">
-        <v>66.6944</v>
+        <v>66.62609999999999</v>
       </c>
       <c r="BN12" s="3">
-        <v>5.3648</v>
+        <v>4.60847</v>
       </c>
       <c r="BO12" s="3">
-        <v>2.25751</v>
+        <v>2.0399</v>
       </c>
       <c r="BP12" s="1">
         <v>55.3247</v>
@@ -3495,25 +3495,25 @@
         <v>122.778</v>
       </c>
       <c r="BR12" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BS12" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BT12" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BV12" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BW12" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:76" s="1" customFormat="1">
@@ -3521,13 +3521,13 @@
         <v>125</v>
       </c>
       <c r="R13" s="1">
-        <v>313.229</v>
+        <v>317.6850000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>313.141</v>
+        <v>319.19</v>
       </c>
       <c r="T13" s="1">
-        <v>313.185</v>
+        <v>318.438</v>
       </c>
       <c r="U13" s="2">
         <v>66.7321</v>
@@ -3539,10 +3539,10 @@
         <v>27.3538</v>
       </c>
       <c r="X13" s="1">
-        <v>21.5454</v>
+        <v>26.7008</v>
       </c>
       <c r="Y13" s="1">
-        <v>22.2818</v>
+        <v>28.9564</v>
       </c>
       <c r="Z13" s="2">
         <v>3116.11</v>
@@ -3554,19 +3554,19 @@
         <v>3116.41</v>
       </c>
       <c r="AC13" s="3">
-        <v>0.361313</v>
+        <v>38.0012</v>
       </c>
       <c r="AD13" s="3">
-        <v>27.0713</v>
+        <v>27.2718</v>
       </c>
       <c r="AE13" s="3">
         <v>27.5974</v>
       </c>
       <c r="AF13" s="1">
-        <v>30.2992</v>
+        <v>40.1169</v>
       </c>
       <c r="AG13" s="1">
-        <v>31.5084</v>
+        <v>42.7176</v>
       </c>
       <c r="AH13" s="1">
         <v>116.109</v>
@@ -3581,16 +3581,16 @@
         <v>25.0038</v>
       </c>
       <c r="AL13" s="3">
-        <v>27.0713</v>
+        <v>27.2718</v>
       </c>
       <c r="AM13" s="3">
         <v>27.5974</v>
       </c>
       <c r="AN13" s="1">
-        <v>30.2992</v>
+        <v>40.1169</v>
       </c>
       <c r="AO13" s="1">
-        <v>31.5084</v>
+        <v>42.7176</v>
       </c>
       <c r="AP13" s="2">
         <v>386.937</v>
@@ -3608,10 +3608,10 @@
         <v>237.77</v>
       </c>
       <c r="AU13" s="1">
-        <v>1.97554</v>
+        <v>2.05524</v>
       </c>
       <c r="AV13" s="1">
-        <v>2.00214</v>
+        <v>2.06643</v>
       </c>
       <c r="AW13" s="1">
         <v>72.7778</v>
@@ -3629,10 +3629,10 @@
         <v>7.176200000000001</v>
       </c>
       <c r="BB13" s="1">
-        <v>94.6337</v>
+        <v>96.60639999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>97.74720000000001</v>
+        <v>99.8429</v>
       </c>
       <c r="BD13" s="1">
         <v>96.9623</v>
@@ -3641,7 +3641,7 @@
         <v>93.36240000000001</v>
       </c>
       <c r="BF13" s="2">
-        <v>66.577</v>
+        <v>66.613</v>
       </c>
       <c r="BG13" s="3">
         <v>12.6858</v>
@@ -3650,19 +3650,19 @@
         <v>11.491</v>
       </c>
       <c r="BI13" s="1">
-        <v>50.672</v>
+        <v>65.9554</v>
       </c>
       <c r="BJ13" s="1">
-        <v>56.849</v>
+        <v>73.914</v>
       </c>
       <c r="BK13" s="1">
-        <v>123.647</v>
+        <v>126.374</v>
       </c>
       <c r="BL13" s="1">
-        <v>124.922</v>
+        <v>128.642</v>
       </c>
       <c r="BM13" s="2">
-        <v>66.7184</v>
+        <v>66.7372</v>
       </c>
       <c r="BN13" s="3">
         <v>7.48309</v>
@@ -3671,31 +3671,31 @@
         <v>3.37193</v>
       </c>
       <c r="BP13" s="1">
-        <v>83.8802</v>
+        <v>100.25</v>
       </c>
       <c r="BQ13" s="1">
-        <v>199.334</v>
+        <v>226.481</v>
       </c>
       <c r="BR13" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BS13" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BV13" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:76" s="1" customFormat="1">
@@ -3987,181 +3987,181 @@
         <v>130</v>
       </c>
       <c r="R18" s="1">
-        <v>286.08425</v>
+        <v>268.9847777777778</v>
       </c>
       <c r="S18" s="1">
-        <v>285.87</v>
+        <v>268.7343333333334</v>
       </c>
       <c r="T18" s="1">
-        <v>285.97725</v>
+        <v>268.8595555555555</v>
       </c>
       <c r="U18" s="1">
-        <v>66.6703</v>
+        <v>66.673</v>
       </c>
       <c r="V18" s="1">
-        <v>25.065125</v>
+        <v>22.70938888888889</v>
       </c>
       <c r="W18" s="1">
-        <v>23.3417</v>
+        <v>21.2732</v>
       </c>
       <c r="X18" s="1">
-        <v>18.1969</v>
+        <v>19.98806666666667</v>
       </c>
       <c r="Y18" s="1">
-        <v>19.4781</v>
+        <v>21.22884444444445</v>
       </c>
       <c r="Z18" s="1">
-        <v>3102.3375</v>
+        <v>3093.397777777778</v>
       </c>
       <c r="AA18" s="1">
-        <v>3102.63</v>
+        <v>3093.575555555556</v>
       </c>
       <c r="AB18" s="1">
-        <v>3102.485</v>
+        <v>3093.487777777778</v>
       </c>
       <c r="AC18" s="1">
-        <v>0.320041</v>
+        <v>4.732233888888889</v>
       </c>
       <c r="AD18" s="1">
-        <v>23.5672</v>
+        <v>21.00101111111111</v>
       </c>
       <c r="AE18" s="1">
-        <v>23.145625</v>
+        <v>20.37036666666667</v>
       </c>
       <c r="AF18" s="1">
-        <v>25.7432</v>
+        <v>29.23164444444445</v>
       </c>
       <c r="AG18" s="1">
-        <v>26.359425</v>
+        <v>30.17651111111111</v>
       </c>
       <c r="AH18" s="1">
-        <v>102.33895</v>
+        <v>93.39907777777779</v>
       </c>
       <c r="AI18" s="1">
-        <v>102.630925</v>
+        <v>93.57515555555557</v>
       </c>
       <c r="AJ18" s="1">
-        <v>102.484925</v>
+        <v>93.4871</v>
       </c>
       <c r="AK18" s="1">
-        <v>24.999275</v>
+        <v>24.99437777777778</v>
       </c>
       <c r="AL18" s="1">
-        <v>23.5672</v>
+        <v>21.00101111111111</v>
       </c>
       <c r="AM18" s="1">
-        <v>23.145625</v>
+        <v>20.37036666666667</v>
       </c>
       <c r="AN18" s="1">
-        <v>25.7432</v>
+        <v>29.23164444444445</v>
       </c>
       <c r="AO18" s="1">
-        <v>26.359425</v>
+        <v>30.17651111111111</v>
       </c>
       <c r="AP18" s="1">
-        <v>268.413</v>
+        <v>221.3591111111111</v>
       </c>
       <c r="AQ18" s="1">
-        <v>236.592</v>
+        <v>191.9428888888889</v>
       </c>
       <c r="AR18" s="1">
-        <v>65.530475</v>
+        <v>65.66526666666667</v>
       </c>
       <c r="AS18" s="1">
-        <v>235.8265</v>
+        <v>232.2707777777778</v>
       </c>
       <c r="AT18" s="1">
-        <v>232.972</v>
+        <v>230.1282222222222</v>
       </c>
       <c r="AU18" s="1">
-        <v>1.8971175</v>
+        <v>1.893064444444444</v>
       </c>
       <c r="AV18" s="1">
-        <v>1.919925</v>
+        <v>1.910323333333333</v>
       </c>
       <c r="AW18" s="1">
-        <v>65.62945000000001</v>
+        <v>60.98191111111112</v>
       </c>
       <c r="AX18" s="1">
-        <v>66.00895</v>
+        <v>61.08860000000001</v>
       </c>
       <c r="AY18" s="1">
-        <v>66.679225</v>
+        <v>66.67133333333334</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.878579999999999</v>
+        <v>5.872462222222222</v>
       </c>
       <c r="BA18" s="1">
-        <v>5.67473</v>
+        <v>5.608145555555556</v>
       </c>
       <c r="BB18" s="1">
-        <v>78.64434999999999</v>
+        <v>76.97251111111109</v>
       </c>
       <c r="BC18" s="1">
-        <v>81.46142500000001</v>
+        <v>80.7712888888889</v>
       </c>
       <c r="BD18" s="1">
-        <v>85.92682500000001</v>
+        <v>78.91453333333334</v>
       </c>
       <c r="BE18" s="1">
-        <v>82.86732499999999</v>
+        <v>75.95596666666667</v>
       </c>
       <c r="BF18" s="1">
-        <v>66.559375</v>
+        <v>66.56584444444445</v>
       </c>
       <c r="BG18" s="1">
-        <v>10.84501</v>
+        <v>9.738108888888888</v>
       </c>
       <c r="BH18" s="1">
-        <v>9.6675825</v>
+        <v>8.57636111111111</v>
       </c>
       <c r="BI18" s="1">
-        <v>42.11385</v>
+        <v>47.04535555555555</v>
       </c>
       <c r="BJ18" s="1">
-        <v>47.321875</v>
+        <v>53.70918888888889</v>
       </c>
       <c r="BK18" s="1">
-        <v>108.35805</v>
+        <v>99.36482222222222</v>
       </c>
       <c r="BL18" s="1">
-        <v>109.781875</v>
+        <v>100.2676555555556</v>
       </c>
       <c r="BM18" s="1">
-        <v>66.7052</v>
+        <v>66.69066666666667</v>
       </c>
       <c r="BN18" s="1">
-        <v>6.301155000000001</v>
+        <v>5.848352222222222</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.8187175</v>
+        <v>2.599386666666666</v>
       </c>
       <c r="BP18" s="1">
-        <v>72.31297499999999</v>
+        <v>77.46392222222221</v>
       </c>
       <c r="BQ18" s="1">
-        <v>163.0925</v>
+        <v>174.5283333333333</v>
       </c>
       <c r="BR18" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BS18" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BT18" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BU18" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BV18" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BW18" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="17:76" s="1" customFormat="1">
@@ -4169,181 +4169,181 @@
         <v>131</v>
       </c>
       <c r="R19" s="1">
-        <v>19.70255754178882</v>
+        <v>31.23479897584949</v>
       </c>
       <c r="S19" s="1">
-        <v>19.32742469911602</v>
+        <v>31.5893643705177</v>
       </c>
       <c r="T19" s="1">
-        <v>19.51199704508742</v>
+        <v>31.40897514020515</v>
       </c>
       <c r="U19" s="1">
-        <v>0.0373634179378737</v>
+        <v>0.03383114935480046</v>
       </c>
       <c r="V19" s="1">
-        <v>3.255941027088022</v>
+        <v>3.99576138772754</v>
       </c>
       <c r="W19" s="1">
-        <v>2.76356682296629</v>
+        <v>3.351854570897198</v>
       </c>
       <c r="X19" s="1">
-        <v>2.809393068796177</v>
+        <v>3.809458940876279</v>
       </c>
       <c r="Y19" s="1">
-        <v>2.791692331722821</v>
+        <v>3.857750521889123</v>
       </c>
       <c r="Z19" s="1">
-        <v>9.644032805315472</v>
+        <v>15.39112643179518</v>
       </c>
       <c r="AA19" s="1">
-        <v>9.896673683617061</v>
+        <v>15.43596817761188</v>
       </c>
       <c r="AB19" s="1">
-        <v>9.768511913285504</v>
+        <v>15.41346148863803</v>
       </c>
       <c r="AC19" s="1">
-        <v>0.04543255025309498</v>
+        <v>11.78839788605942</v>
       </c>
       <c r="AD19" s="1">
-        <v>2.667308301452983</v>
+        <v>4.323141577203227</v>
       </c>
       <c r="AE19" s="1">
-        <v>3.09842818568948</v>
+        <v>4.254451059511413</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.609881890034631</v>
+        <v>6.500981253987074</v>
       </c>
       <c r="AG19" s="1">
-        <v>4.182850805595988</v>
+        <v>6.821742959333037</v>
       </c>
       <c r="AH19" s="1">
-        <v>9.642960598669893</v>
+        <v>15.39189995576878</v>
       </c>
       <c r="AI19" s="1">
-        <v>9.89752689902256</v>
+        <v>15.43833223938325</v>
       </c>
       <c r="AJ19" s="1">
-        <v>9.770264585305506</v>
+        <v>15.41436166242378</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.003236027657483031</v>
+        <v>0.008316753877668715</v>
       </c>
       <c r="AL19" s="1">
-        <v>2.667308301452983</v>
+        <v>4.323141577203227</v>
       </c>
       <c r="AM19" s="1">
-        <v>3.09842818568948</v>
+        <v>4.254451059511413</v>
       </c>
       <c r="AN19" s="1">
-        <v>3.609881890034631</v>
+        <v>6.500981253987074</v>
       </c>
       <c r="AO19" s="1">
-        <v>4.182850805595988</v>
+        <v>6.821742959333037</v>
       </c>
       <c r="AP19" s="1">
-        <v>94.52560946907458</v>
+        <v>103.566376093836</v>
       </c>
       <c r="AQ19" s="1">
-        <v>85.59133627885477</v>
+        <v>76.40690708516468</v>
       </c>
       <c r="AR19" s="1">
-        <v>1.604978107911444</v>
+        <v>1.688086225417541</v>
       </c>
       <c r="AS19" s="1">
-        <v>4.209330617806105</v>
+        <v>5.269367488455805</v>
       </c>
       <c r="AT19" s="1">
-        <v>3.448845676454659</v>
+        <v>4.419960552307071</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.1085349497569792</v>
+        <v>0.1178284591270161</v>
       </c>
       <c r="AV19" s="1">
-        <v>0.1041315044787119</v>
+        <v>0.1153140617810527</v>
       </c>
       <c r="AW19" s="1">
-        <v>5.022113962018385</v>
+        <v>7.668219928516576</v>
       </c>
       <c r="AX19" s="1">
-        <v>5.254055081791585</v>
+        <v>7.97562399704388</v>
       </c>
       <c r="AY19" s="1">
-        <v>0.008414682109265614</v>
+        <v>0.01533449270979368</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.9949194105051922</v>
+        <v>0.9114907853106209</v>
       </c>
       <c r="BA19" s="1">
-        <v>0.9534140582926184</v>
+        <v>0.9034884105277861</v>
       </c>
       <c r="BB19" s="1">
-        <v>14.56088544534638</v>
+        <v>13.65142544103358</v>
       </c>
       <c r="BC19" s="1">
-        <v>15.13200646979359</v>
+        <v>14.66736384838761</v>
       </c>
       <c r="BD19" s="1">
-        <v>7.721283134743535</v>
+        <v>11.97840705389864</v>
       </c>
       <c r="BE19" s="1">
-        <v>7.421851293098983</v>
+        <v>11.42547396828683</v>
       </c>
       <c r="BF19" s="1">
-        <v>0.0152840398782529</v>
+        <v>0.02580004785142514</v>
       </c>
       <c r="BG19" s="1">
-        <v>1.372533590590773</v>
+        <v>1.854652425019874</v>
       </c>
       <c r="BH19" s="1">
-        <v>1.284290743258219</v>
+        <v>1.788731372350834</v>
       </c>
       <c r="BI19" s="1">
-        <v>6.476674706012338</v>
+        <v>10.09988652874775</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.498608476035736</v>
+        <v>11.86357763740624</v>
       </c>
       <c r="BK19" s="1">
-        <v>10.63397902515799</v>
+        <v>16.97648235182214</v>
       </c>
       <c r="BL19" s="1">
-        <v>10.53386563882771</v>
+        <v>17.61195815676958</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.008736131867137247</v>
+        <v>0.03123427604411768</v>
       </c>
       <c r="BN19" s="1">
-        <v>0.7991684216890705</v>
+        <v>1.002018016646383</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.4363641949894033</v>
+        <v>0.4558739075909284</v>
       </c>
       <c r="BP19" s="1">
-        <v>10.88664403325814</v>
+        <v>14.24230156398558</v>
       </c>
       <c r="BQ19" s="1">
-        <v>29.27560496813003</v>
+        <v>32.79437723824687</v>
       </c>
       <c r="BR19" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BS19" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BT19" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BU19" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BV19" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BW19" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="17:76" s="1" customFormat="1">
@@ -4351,181 +4351,181 @@
         <v>132</v>
       </c>
       <c r="R20" s="1">
-        <v>6.886977364810829</v>
+        <v>11.61210654145424</v>
       </c>
       <c r="S20" s="1">
-        <v>6.760913946589715</v>
+        <v>11.75486733633503</v>
       </c>
       <c r="T20" s="1">
-        <v>6.822919321410156</v>
+        <v>11.68229824500881</v>
       </c>
       <c r="U20" s="1">
-        <v>0.0560420726138531</v>
+        <v>0.05074190355136331</v>
       </c>
       <c r="V20" s="1">
-        <v>12.98992535280802</v>
+        <v>17.59519556989295</v>
       </c>
       <c r="W20" s="1">
-        <v>11.83961246595702</v>
+        <v>15.7562311777128</v>
       </c>
       <c r="X20" s="1">
-        <v>15.43885534786792</v>
+        <v>19.05866637531867</v>
       </c>
       <c r="Y20" s="1">
-        <v>14.33246739529431</v>
+        <v>18.17221154917214</v>
       </c>
       <c r="Z20" s="1">
-        <v>0.3108634313744224</v>
+        <v>0.4975476009700826</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.3189769222761677</v>
+        <v>0.4989685204194029</v>
       </c>
       <c r="AB20" s="1">
-        <v>0.3148608909724142</v>
+        <v>0.4982551280584133</v>
       </c>
       <c r="AC20" s="1">
-        <v>14.19585311041241</v>
+        <v>249.1085217435711</v>
       </c>
       <c r="AD20" s="1">
-        <v>11.31788375985685</v>
+        <v>20.58539731411294</v>
       </c>
       <c r="AE20" s="1">
-        <v>13.38666890908964</v>
+        <v>20.88549081678163</v>
       </c>
       <c r="AF20" s="1">
-        <v>14.02266186812296</v>
+        <v>22.23953314136114</v>
       </c>
       <c r="AG20" s="1">
-        <v>15.86852067370964</v>
+        <v>22.60613539522547</v>
       </c>
       <c r="AH20" s="1">
-        <v>9.42257136571158</v>
+        <v>16.47971299287383</v>
       </c>
       <c r="AI20" s="1">
-        <v>9.643805606373089</v>
+        <v>16.49832388493067</v>
       </c>
       <c r="AJ20" s="1">
-        <v>9.533367551672118</v>
+        <v>16.48822314781802</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.0129444860200267</v>
+        <v>0.03327449857568789</v>
       </c>
       <c r="AL20" s="1">
-        <v>11.31788375985685</v>
+        <v>20.58539731411294</v>
       </c>
       <c r="AM20" s="1">
-        <v>13.38666890908964</v>
+        <v>20.88549081678163</v>
       </c>
       <c r="AN20" s="1">
-        <v>14.02266186812296</v>
+        <v>22.23953314136114</v>
       </c>
       <c r="AO20" s="1">
-        <v>15.86852067370964</v>
+        <v>22.60613539522547</v>
       </c>
       <c r="AP20" s="1">
-        <v>35.21647962992649</v>
+        <v>46.78658835138295</v>
       </c>
       <c r="AQ20" s="1">
-        <v>36.17676687244487</v>
+        <v>39.80710487763618</v>
       </c>
       <c r="AR20" s="1">
-        <v>2.449208719929841</v>
+        <v>2.570744491127539</v>
       </c>
       <c r="AS20" s="1">
-        <v>1.784926892357773</v>
+        <v>2.268631266864404</v>
       </c>
       <c r="AT20" s="1">
-        <v>1.480369175890089</v>
+        <v>1.920651239394253</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.721045204473588</v>
+        <v>6.224218064673184</v>
       </c>
       <c r="AV20" s="1">
-        <v>5.423727722630411</v>
+        <v>6.036363570968931</v>
       </c>
       <c r="AW20" s="1">
-        <v>7.65222619116629</v>
+        <v>12.57458119760271</v>
       </c>
       <c r="AX20" s="1">
-        <v>7.959610146490114</v>
+        <v>13.05583037922604</v>
       </c>
       <c r="AY20" s="1">
-        <v>0.01261964593809483</v>
+        <v>0.02300012905565662</v>
       </c>
       <c r="AZ20" s="1">
-        <v>16.92448534348758</v>
+        <v>15.52144144685021</v>
       </c>
       <c r="BA20" s="1">
-        <v>16.80104706818859</v>
+        <v>16.11028817953504</v>
       </c>
       <c r="BB20" s="1">
-        <v>18.51485255501048</v>
+        <v>17.73545548140883</v>
       </c>
       <c r="BC20" s="1">
-        <v>18.57567120854268</v>
+        <v>18.15913061454846</v>
       </c>
       <c r="BD20" s="1">
-        <v>8.985882039448722</v>
+        <v>15.17896203390332</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.956306111122789</v>
+        <v>15.04223363837579</v>
       </c>
       <c r="BF20" s="1">
-        <v>0.02296301592112741</v>
+        <v>0.03875868783270337</v>
       </c>
       <c r="BG20" s="1">
-        <v>12.65589972338221</v>
+        <v>19.04530382830304</v>
       </c>
       <c r="BH20" s="1">
-        <v>13.28450771698322</v>
+        <v>20.8565305165782</v>
       </c>
       <c r="BI20" s="1">
-        <v>15.37896607888459</v>
+        <v>21.46840301126188</v>
       </c>
       <c r="BJ20" s="1">
-        <v>15.84596653457991</v>
+        <v>22.08854366046947</v>
       </c>
       <c r="BK20" s="1">
-        <v>9.813741595717149</v>
+        <v>17.08500249097761</v>
       </c>
       <c r="BL20" s="1">
-        <v>9.595268471072941</v>
+        <v>17.56494460669949</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.01309662794975091</v>
+        <v>0.04683455362687085</v>
       </c>
       <c r="BN20" s="1">
-        <v>12.68288784657845</v>
+        <v>17.13333907692793</v>
       </c>
       <c r="BO20" s="1">
-        <v>15.48094816133236</v>
+        <v>17.53774894042678</v>
       </c>
       <c r="BP20" s="1">
-        <v>15.05489717890619</v>
+        <v>18.38572222450656</v>
       </c>
       <c r="BQ20" s="1">
-        <v>17.95030732138513</v>
+        <v>18.79028843735794</v>
       </c>
       <c r="BR20" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BS20" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BT20" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BU20" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BV20" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BW20" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="17:76" s="1" customFormat="1"/>

--- a/txsb_top_timing_bdlmax_tran_channel_s_tsmc2ff_meas.xlsx
+++ b/txsb_top_timing_bdlmax_tran_channel_s_tsmc2ff_meas.xlsx
@@ -450,12 +450,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0094D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -465,19 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0094D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE8B8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,13 +488,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,160 +1080,160 @@
         <v>88</v>
       </c>
       <c r="R2">
-        <v>257.723</v>
+        <v>257.646</v>
       </c>
       <c r="S2">
-        <v>258.696</v>
+        <v>258.177</v>
       </c>
       <c r="T2">
-        <v>258.21</v>
+        <v>257.911</v>
       </c>
       <c r="U2" s="2">
-        <v>66.7321</v>
-      </c>
-      <c r="V2" s="3">
-        <v>20.8861</v>
-      </c>
-      <c r="W2" s="3">
-        <v>20.1959</v>
+        <v>-49.8468</v>
+      </c>
+      <c r="V2" s="2">
+        <v>21.097</v>
+      </c>
+      <c r="W2" s="2">
+        <v>19.8487</v>
       </c>
       <c r="X2">
-        <v>21.5454</v>
+        <v>21.3301</v>
       </c>
       <c r="Y2">
-        <v>22.2818</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>3089.35</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>3089.2</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>3089.28</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>0.24642</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>19.8025</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>19.0426</v>
+        <v>22.6716</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>8088.740000000001</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>9089.630000000001</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>8589.18</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.95331</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>19.8423</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>18.8548</v>
       </c>
       <c r="AF2">
-        <v>30.2992</v>
+        <v>30.2384</v>
       </c>
       <c r="AG2">
-        <v>31.5084</v>
+        <v>31.8221</v>
       </c>
       <c r="AH2">
-        <v>89.3528</v>
+        <v>-911.2610000000001</v>
       </c>
       <c r="AI2">
-        <v>89.20269999999999</v>
+        <v>89.6259</v>
       </c>
       <c r="AJ2">
-        <v>89.27770000000001</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>24.9951</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>19.8025</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>19.0426</v>
+        <v>-410.817</v>
+      </c>
+      <c r="AK2">
+        <v>50.0719</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>19.8423</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>18.8548</v>
       </c>
       <c r="AN2">
-        <v>30.2992</v>
+        <v>30.2384</v>
       </c>
       <c r="AO2">
-        <v>31.5084</v>
+        <v>31.8221</v>
       </c>
       <c r="AP2">
-        <v>157.087</v>
+        <v>156.394</v>
       </c>
       <c r="AQ2">
-        <v>156.216</v>
-      </c>
-      <c r="AR2" s="2">
-        <v>66.682</v>
-      </c>
-      <c r="AS2" s="2">
-        <v>230.659</v>
-      </c>
-      <c r="AT2" s="2">
-        <v>228.827</v>
+        <v>155.269</v>
+      </c>
+      <c r="AR2">
+        <v>49.9922</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>230.495</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>228.853</v>
       </c>
       <c r="AU2">
-        <v>1.95093</v>
+        <v>1.95232</v>
       </c>
       <c r="AV2">
-        <v>1.96655</v>
+        <v>1.96633</v>
       </c>
       <c r="AW2">
-        <v>59.2624</v>
+        <v>58.75390000000001</v>
       </c>
       <c r="AX2">
-        <v>59.2759</v>
+        <v>59.4716</v>
       </c>
       <c r="AY2" s="2">
-        <v>66.6675</v>
-      </c>
-      <c r="AZ2" s="3">
-        <v>5.34282</v>
-      </c>
-      <c r="BA2" s="3">
-        <v>4.96844</v>
+        <v>-49.9287</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>5.19487</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>5.47642</v>
       </c>
       <c r="BB2">
-        <v>84.2252</v>
+        <v>86.62390000000001</v>
       </c>
       <c r="BC2">
-        <v>90.5716</v>
+        <v>82.1705</v>
       </c>
       <c r="BD2">
-        <v>75.60250000000001</v>
+        <v>74.88210000000001</v>
       </c>
       <c r="BE2">
-        <v>73.01309999999999</v>
+        <v>73.2864</v>
       </c>
       <c r="BF2" s="2">
-        <v>66.577</v>
-      </c>
-      <c r="BG2" s="3">
-        <v>8.880640000000001</v>
-      </c>
-      <c r="BH2" s="3">
-        <v>7.915710000000001</v>
+        <v>-50.1672</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>8.702489999999999</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>7.765059999999999</v>
       </c>
       <c r="BI2">
-        <v>50.672</v>
+        <v>51.7093</v>
       </c>
       <c r="BJ2">
-        <v>56.849</v>
+        <v>57.9519</v>
       </c>
       <c r="BK2">
-        <v>93.74720000000001</v>
+        <v>92.92500000000001</v>
       </c>
       <c r="BL2">
-        <v>95.2985</v>
+        <v>95.134</v>
       </c>
       <c r="BM2" s="2">
-        <v>66.7184</v>
-      </c>
-      <c r="BN2" s="3">
-        <v>5.3648</v>
-      </c>
-      <c r="BO2" s="3">
-        <v>2.25751</v>
+        <v>-49.7986</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>5.10052</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>2.30584</v>
       </c>
       <c r="BP2">
-        <v>83.8802</v>
+        <v>88.22629999999999</v>
       </c>
       <c r="BQ2">
-        <v>199.334</v>
+        <v>195.157</v>
       </c>
       <c r="BR2" s="4" t="s">
         <v>89</v>
@@ -1317,160 +1310,160 @@
         <v>103</v>
       </c>
       <c r="R3">
-        <v>289.019</v>
+        <v>289.578</v>
       </c>
       <c r="S3">
-        <v>288.277</v>
+        <v>287.487</v>
       </c>
       <c r="T3">
-        <v>288.648</v>
+        <v>288.532</v>
       </c>
       <c r="U3" s="2">
-        <v>66.64239999999999</v>
-      </c>
-      <c r="V3" s="3">
-        <v>25.9507</v>
-      </c>
-      <c r="W3" s="3">
-        <v>24.3544</v>
+        <v>-50.1398</v>
+      </c>
+      <c r="V3" s="2">
+        <v>25.9107</v>
+      </c>
+      <c r="W3" s="2">
+        <v>23.6313</v>
       </c>
       <c r="X3">
-        <v>17.803</v>
+        <v>17.8305</v>
       </c>
       <c r="Y3">
-        <v>18.9699</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>3104.53</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>3104.85</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>3104.69</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>0.318754</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>24.6906</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>23.8897</v>
+        <v>19.5503</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>8104.990000000001</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>9105.019999999999</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>8605</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>1.03244</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>23.5086</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>23.8164</v>
       </c>
       <c r="AF3">
-        <v>25.046</v>
+        <v>26.3052</v>
       </c>
       <c r="AG3">
-        <v>25.8856</v>
+        <v>25.9653</v>
       </c>
       <c r="AH3">
-        <v>104.534</v>
+        <v>-895.0120000000001</v>
       </c>
       <c r="AI3">
-        <v>104.851</v>
+        <v>105.021</v>
       </c>
       <c r="AJ3">
-        <v>104.692</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>25.0038</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>24.6906</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>23.8897</v>
+        <v>-394.996</v>
+      </c>
+      <c r="AK3">
+        <v>49.9438</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>23.5086</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>23.8164</v>
       </c>
       <c r="AN3">
-        <v>25.046</v>
+        <v>26.3052</v>
       </c>
       <c r="AO3">
-        <v>25.8856</v>
-      </c>
-      <c r="AP3" s="5">
-        <v>332.906</v>
+        <v>25.9653</v>
+      </c>
+      <c r="AP3">
+        <v>-659.9</v>
       </c>
       <c r="AQ3">
-        <v>227.822</v>
-      </c>
-      <c r="AR3" s="2">
-        <v>62.7665</v>
-      </c>
-      <c r="AS3" s="2">
-        <v>236.668</v>
-      </c>
-      <c r="AT3" s="2">
-        <v>234.538</v>
+        <v>-803.5540000000001</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>66.09220000000001</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>237.585</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>234.863</v>
       </c>
       <c r="AU3">
-        <v>1.9521</v>
+        <v>1.94457</v>
       </c>
       <c r="AV3">
-        <v>1.96983</v>
+        <v>1.96711</v>
       </c>
       <c r="AW3">
-        <v>67.35340000000001</v>
+        <v>68.16249999999999</v>
       </c>
       <c r="AX3">
-        <v>68.0532</v>
+        <v>68.00539999999999</v>
       </c>
       <c r="AY3" s="2">
-        <v>66.6884</v>
-      </c>
-      <c r="AZ3" s="3">
-        <v>5.74878</v>
-      </c>
-      <c r="BA3" s="3">
-        <v>5.80939</v>
+        <v>-50.005</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>6.68315</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>5.72219</v>
       </c>
       <c r="BB3">
-        <v>80.67789999999999</v>
+        <v>69.3984</v>
       </c>
       <c r="BC3">
-        <v>79.83620000000001</v>
+        <v>81.05289999999999</v>
       </c>
       <c r="BD3">
-        <v>87.7901</v>
+        <v>88.5359</v>
       </c>
       <c r="BE3">
-        <v>85.0844</v>
+        <v>84.9465</v>
       </c>
       <c r="BF3" s="2">
-        <v>66.572</v>
-      </c>
-      <c r="BG3" s="3">
-        <v>11.2813</v>
-      </c>
-      <c r="BH3" s="3">
-        <v>9.94894</v>
+        <v>-50.3537</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>11.2632</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>9.989140000000001</v>
       </c>
       <c r="BI3">
-        <v>41.1122</v>
+        <v>41.1784</v>
       </c>
       <c r="BJ3">
-        <v>46.6181</v>
+        <v>46.4304</v>
       </c>
       <c r="BK3">
-        <v>109.579</v>
+        <v>110.653</v>
       </c>
       <c r="BL3">
-        <v>110.977</v>
+        <v>110.522</v>
       </c>
       <c r="BM3" s="2">
-        <v>66.7064</v>
-      </c>
-      <c r="BN3" s="3">
-        <v>6.532480000000001</v>
-      </c>
-      <c r="BO3" s="3">
-        <v>3.08788</v>
+        <v>-50.0129</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>6.13795</v>
+      </c>
+      <c r="BO3" s="2">
+        <v>2.96246</v>
       </c>
       <c r="BP3">
-        <v>70.7235</v>
+        <v>75.26949999999999</v>
       </c>
       <c r="BQ3">
-        <v>149.617</v>
+        <v>155.951</v>
       </c>
       <c r="BR3" s="4" t="s">
         <v>89</v>
@@ -1547,160 +1540,160 @@
         <v>103</v>
       </c>
       <c r="R4">
-        <v>284.366</v>
+        <v>284.062</v>
       </c>
       <c r="S4">
-        <v>283.366</v>
+        <v>282.546</v>
       </c>
       <c r="T4">
-        <v>283.866</v>
+        <v>283.304</v>
       </c>
       <c r="U4" s="2">
-        <v>66.6677</v>
-      </c>
-      <c r="V4" s="3">
-        <v>23.6514</v>
-      </c>
-      <c r="W4" s="3">
-        <v>21.4627</v>
+        <v>-50.0394</v>
+      </c>
+      <c r="V4" s="2">
+        <v>23.5351</v>
+      </c>
+      <c r="W4" s="2">
+        <v>21.4221</v>
       </c>
       <c r="X4">
-        <v>19.5337</v>
+        <v>19.6302</v>
       </c>
       <c r="Y4">
-        <v>21.5257</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>3099.36</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>3099.76</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>3099.56</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>0.353677</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>22.7044</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>22.0528</v>
+        <v>21.5665</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>8099.930000000001</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>9099.040000000001</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>8599.49</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.8577900000000001</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>23.4535</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>22.1827</v>
       </c>
       <c r="AF4">
-        <v>27.237</v>
+        <v>26.3671</v>
       </c>
       <c r="AG4">
-        <v>28.0418</v>
+        <v>27.8775</v>
       </c>
       <c r="AH4">
-        <v>99.36000000000001</v>
+        <v>-900.067</v>
       </c>
       <c r="AI4">
-        <v>99.756</v>
+        <v>99.0423</v>
       </c>
       <c r="AJ4">
-        <v>99.55800000000001</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>24.9977</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>22.7044</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>22.0528</v>
+        <v>-400.512</v>
+      </c>
+      <c r="AK4">
+        <v>49.9044</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>23.4535</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>22.1827</v>
       </c>
       <c r="AN4">
-        <v>27.237</v>
+        <v>26.3671</v>
       </c>
       <c r="AO4">
-        <v>28.0418</v>
+        <v>27.8775</v>
       </c>
       <c r="AP4">
-        <v>196.722</v>
+        <v>191.846</v>
       </c>
       <c r="AQ4">
-        <v>184.23</v>
-      </c>
-      <c r="AR4" s="2">
-        <v>66.47499999999999</v>
-      </c>
-      <c r="AS4" s="2">
-        <v>233.86</v>
-      </c>
-      <c r="AT4" s="2">
-        <v>230.753</v>
+        <v>182.2</v>
+      </c>
+      <c r="AR4">
+        <v>50.5516</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>233.776</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>231.105</v>
       </c>
       <c r="AU4">
-        <v>1.97554</v>
+        <v>1.97625</v>
       </c>
       <c r="AV4">
-        <v>2.00214</v>
+        <v>1.99909</v>
       </c>
       <c r="AW4">
-        <v>63.12420000000001</v>
+        <v>63.10270000000001</v>
       </c>
       <c r="AX4">
-        <v>63.3576</v>
+        <v>62.626</v>
       </c>
       <c r="AY4" s="2">
-        <v>66.6751</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>4.901000000000001</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>4.74489</v>
+        <v>-50.0466</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>5.21306</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>4.64664</v>
       </c>
       <c r="BB4">
-        <v>94.6337</v>
+        <v>88.9689</v>
       </c>
       <c r="BC4">
-        <v>97.74720000000001</v>
+        <v>99.8141</v>
       </c>
       <c r="BD4">
-        <v>83.3524</v>
+        <v>83.1195</v>
       </c>
       <c r="BE4">
-        <v>80.00940000000001</v>
+        <v>79.1643</v>
       </c>
       <c r="BF4" s="2">
-        <v>66.5461</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>10.5323</v>
-      </c>
-      <c r="BH4" s="3">
-        <v>9.314680000000001</v>
+        <v>-50.4131</v>
+      </c>
+      <c r="BG4" s="2">
+        <v>10.4457</v>
+      </c>
+      <c r="BH4" s="2">
+        <v>9.030189999999999</v>
       </c>
       <c r="BI4">
-        <v>44.0362</v>
+        <v>44.4011</v>
       </c>
       <c r="BJ4">
-        <v>49.7924</v>
+        <v>51.361</v>
       </c>
       <c r="BK4">
-        <v>106.459</v>
+        <v>106.72</v>
       </c>
       <c r="BL4">
-        <v>107.93</v>
+        <v>107.271</v>
       </c>
       <c r="BM4" s="2">
-        <v>66.6944</v>
-      </c>
-      <c r="BN4" s="3">
-        <v>5.82425</v>
-      </c>
-      <c r="BO4" s="3">
-        <v>2.55755</v>
+        <v>-49.9785</v>
+      </c>
+      <c r="BN4" s="2">
+        <v>5.775440000000001</v>
+      </c>
+      <c r="BO4" s="2">
+        <v>2.46379</v>
       </c>
       <c r="BP4">
-        <v>79.3235</v>
+        <v>79.9939</v>
       </c>
       <c r="BQ4">
-        <v>180.641</v>
+        <v>187.516</v>
       </c>
       <c r="BR4" s="4" t="s">
         <v>89</v>
@@ -1777,160 +1770,160 @@
         <v>103</v>
       </c>
       <c r="R5">
-        <v>313.229</v>
+        <v>312.797</v>
       </c>
       <c r="S5">
-        <v>313.141</v>
+        <v>313.419</v>
       </c>
       <c r="T5">
-        <v>313.185</v>
+        <v>313.108</v>
       </c>
       <c r="U5" s="2">
-        <v>66.639</v>
-      </c>
-      <c r="V5" s="3">
-        <v>29.7723</v>
-      </c>
-      <c r="W5" s="3">
-        <v>27.3538</v>
+        <v>-49.9452</v>
+      </c>
+      <c r="V5" s="2">
+        <v>29.9367</v>
+      </c>
+      <c r="W5" s="2">
+        <v>27.577</v>
       </c>
       <c r="X5">
-        <v>13.9055</v>
+        <v>13.8292</v>
       </c>
       <c r="Y5">
-        <v>15.135</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>3116.11</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>3116.71</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>3116.41</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>0.361313</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>27.0713</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>27.5974</v>
+        <v>15.0125</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>8116.57</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>9116.280000000001</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>8616.42</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>1.19831</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>27.5721</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>26.3387</v>
       </c>
       <c r="AF5">
-        <v>20.3906</v>
+        <v>20.0203</v>
       </c>
       <c r="AG5">
-        <v>20.0019</v>
+        <v>20.9578</v>
       </c>
       <c r="AH5">
-        <v>116.109</v>
+        <v>-883.4330000000001</v>
       </c>
       <c r="AI5">
-        <v>116.714</v>
+        <v>116.276</v>
       </c>
       <c r="AJ5">
-        <v>116.412</v>
-      </c>
-      <c r="AK5" s="3">
-        <v>25.0005</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>27.0713</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>27.5974</v>
+        <v>-383.579</v>
+      </c>
+      <c r="AK5">
+        <v>50.0371</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>27.5721</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>26.3387</v>
       </c>
       <c r="AN5">
-        <v>20.3906</v>
+        <v>20.0203</v>
       </c>
       <c r="AO5">
-        <v>20.0019</v>
-      </c>
-      <c r="AP5" s="2">
-        <v>386.937</v>
-      </c>
-      <c r="AQ5" s="2">
-        <v>378.1</v>
-      </c>
-      <c r="AR5" s="2">
-        <v>66.19840000000001</v>
-      </c>
-      <c r="AS5" s="2">
-        <v>242.119</v>
-      </c>
-      <c r="AT5" s="2">
-        <v>237.77</v>
+        <v>20.9578</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>386.338</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>374.535</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>53.4295</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>242.282</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>238.962</v>
       </c>
       <c r="AU5">
-        <v>1.7099</v>
+        <v>1.70876</v>
       </c>
       <c r="AV5">
-        <v>1.74118</v>
+        <v>1.7325</v>
       </c>
       <c r="AW5">
-        <v>72.7778</v>
+        <v>72.8493</v>
       </c>
       <c r="AX5">
-        <v>73.34909999999999</v>
+        <v>73.00150000000001</v>
       </c>
       <c r="AY5" s="2">
-        <v>66.6859</v>
-      </c>
-      <c r="AZ5" s="3">
-        <v>7.521719999999999</v>
-      </c>
-      <c r="BA5" s="3">
-        <v>7.176200000000001</v>
+        <v>-49.9823</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>6.30602</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>7.189550000000001</v>
       </c>
       <c r="BB5">
-        <v>55.0406</v>
+        <v>65.6516</v>
       </c>
       <c r="BC5">
-        <v>57.6907</v>
+        <v>57.5835</v>
       </c>
       <c r="BD5">
-        <v>96.9623</v>
+        <v>96.4967</v>
       </c>
       <c r="BE5">
-        <v>93.36240000000001</v>
+        <v>93.04299999999999</v>
       </c>
       <c r="BF5" s="2">
-        <v>66.5424</v>
-      </c>
-      <c r="BG5" s="3">
-        <v>12.6858</v>
-      </c>
-      <c r="BH5" s="3">
-        <v>11.491</v>
+        <v>-50.3594</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>12.4679</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>11.4578</v>
       </c>
       <c r="BI5">
-        <v>32.635</v>
+        <v>33.2053</v>
       </c>
       <c r="BJ5">
-        <v>36.028</v>
+        <v>36.1327</v>
       </c>
       <c r="BK5">
-        <v>123.647</v>
+        <v>123.106</v>
       </c>
       <c r="BL5">
-        <v>124.922</v>
+        <v>124.792</v>
       </c>
       <c r="BM5" s="2">
-        <v>66.7016</v>
-      </c>
-      <c r="BN5" s="3">
-        <v>7.48309</v>
-      </c>
-      <c r="BO5" s="3">
-        <v>3.37193</v>
+        <v>-49.8448</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>7.445029999999999</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>3.24411</v>
       </c>
       <c r="BP5">
-        <v>55.3247</v>
+        <v>55.6075</v>
       </c>
       <c r="BQ5">
-        <v>122.778</v>
+        <v>127.616</v>
       </c>
       <c r="BR5" s="4" t="s">
         <v>89</v>
@@ -2007,160 +2000,160 @@
         <v>103</v>
       </c>
       <c r="R6">
-        <v>317.6850000000001</v>
+        <v>318.766</v>
       </c>
       <c r="S6">
-        <v>319.19</v>
+        <v>318.251</v>
       </c>
       <c r="T6">
-        <v>318.438</v>
+        <v>318.509</v>
       </c>
       <c r="U6" s="2">
-        <v>66.7111</v>
-      </c>
-      <c r="V6" s="3">
-        <v>27.3979</v>
-      </c>
-      <c r="W6" s="3">
-        <v>24.3679</v>
+        <v>-50.0783</v>
+      </c>
+      <c r="V6" s="2">
+        <v>27.3523</v>
+      </c>
+      <c r="W6" s="2">
+        <v>24.3721</v>
       </c>
       <c r="X6">
-        <v>15.1107</v>
+        <v>15.1358</v>
       </c>
       <c r="Y6">
-        <v>16.9895</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>3115.89</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>3115.66</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>3115.78</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>38.0012</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>27.2718</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>25.0997</v>
+        <v>16.9866</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>8115.73</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>9115.32</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>8615.530000000001</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>3.38549</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>27.655</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>26.0913</v>
       </c>
       <c r="AF6">
-        <v>20.2407</v>
+        <v>19.9603</v>
       </c>
       <c r="AG6">
-        <v>21.9923</v>
+        <v>21.1565</v>
       </c>
       <c r="AH6">
-        <v>115.894</v>
+        <v>-884.2650000000001</v>
       </c>
       <c r="AI6">
-        <v>115.664</v>
+        <v>115.32</v>
       </c>
       <c r="AJ6">
-        <v>115.779</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>24.9791</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>27.2718</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>25.0997</v>
+        <v>-384.473</v>
+      </c>
+      <c r="AK6">
+        <v>49.9052</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>27.655</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>26.0913</v>
       </c>
       <c r="AN6">
-        <v>20.2407</v>
+        <v>19.9603</v>
       </c>
       <c r="AO6">
-        <v>21.9923</v>
-      </c>
-      <c r="AP6" s="2">
-        <v>372.498</v>
+        <v>21.1565</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>379.855</v>
       </c>
       <c r="AQ6">
-        <v>239.313</v>
-      </c>
-      <c r="AR6" s="2">
-        <v>62.2848</v>
-      </c>
-      <c r="AS6" s="2">
-        <v>237.07</v>
-      </c>
-      <c r="AT6" s="2">
-        <v>234.316</v>
+        <v>231.443</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>65.6418</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>237.663</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>234.446</v>
       </c>
       <c r="AU6">
-        <v>1.74632</v>
+        <v>1.74196</v>
       </c>
       <c r="AV6">
-        <v>1.76684</v>
+        <v>1.76587</v>
       </c>
       <c r="AW6">
-        <v>70.6576</v>
+        <v>70.44239999999999</v>
       </c>
       <c r="AX6">
-        <v>71.0068</v>
+        <v>70.4884</v>
       </c>
       <c r="AY6" s="2">
-        <v>66.68040000000001</v>
-      </c>
-      <c r="AZ6" s="3">
-        <v>6.26646</v>
-      </c>
-      <c r="BA6" s="3">
-        <v>6.11364</v>
+        <v>-50.0111</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>6.41485</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>6.232220000000001</v>
       </c>
       <c r="BB6">
-        <v>66.066</v>
+        <v>64.5378</v>
       </c>
       <c r="BC6">
-        <v>67.7175</v>
+        <v>66.429</v>
       </c>
       <c r="BD6">
-        <v>95.6754</v>
+        <v>95.6476</v>
       </c>
       <c r="BE6">
-        <v>91.3459</v>
+        <v>90.98049999999999</v>
       </c>
       <c r="BF6" s="2">
-        <v>66.5183</v>
-      </c>
-      <c r="BG6" s="3">
-        <v>11.8609</v>
-      </c>
-      <c r="BH6" s="3">
-        <v>10.8457</v>
+        <v>-50.5191</v>
+      </c>
+      <c r="BG6" s="2">
+        <v>12.0283</v>
+      </c>
+      <c r="BH6" s="2">
+        <v>10.8488</v>
       </c>
       <c r="BI6">
-        <v>34.9047</v>
+        <v>34.4187</v>
       </c>
       <c r="BJ6">
-        <v>38.1719</v>
+        <v>38.1611</v>
       </c>
       <c r="BK6">
-        <v>126.374</v>
+        <v>125.836</v>
       </c>
       <c r="BL6">
-        <v>128.642</v>
+        <v>127.991</v>
       </c>
       <c r="BM6" s="2">
-        <v>66.7372</v>
-      </c>
-      <c r="BN6" s="3">
-        <v>7.42451</v>
-      </c>
-      <c r="BO6" s="3">
-        <v>3.15451</v>
+        <v>-49.8417</v>
+      </c>
+      <c r="BN6" s="2">
+        <v>7.65402</v>
+      </c>
+      <c r="BO6" s="2">
+        <v>3.23925</v>
       </c>
       <c r="BP6">
-        <v>55.7612</v>
+        <v>54.0892</v>
       </c>
       <c r="BQ6">
-        <v>131.241</v>
+        <v>127.807</v>
       </c>
       <c r="BR6" s="4" t="s">
         <v>89</v>
@@ -2237,160 +2230,160 @@
         <v>119</v>
       </c>
       <c r="R7">
-        <v>240.957</v>
+        <v>239.889</v>
       </c>
       <c r="S7">
-        <v>239.302</v>
+        <v>240.413</v>
       </c>
       <c r="T7">
-        <v>240.129</v>
+        <v>240.151</v>
       </c>
       <c r="U7" s="2">
-        <v>66.6386</v>
-      </c>
-      <c r="V7" s="3">
-        <v>19.567</v>
-      </c>
-      <c r="W7" s="3">
-        <v>19.1421</v>
+        <v>-49.8677</v>
+      </c>
+      <c r="V7" s="2">
+        <v>19.7423</v>
+      </c>
+      <c r="W7" s="2">
+        <v>19.1419</v>
       </c>
       <c r="X7">
-        <v>23.6112</v>
+        <v>23.4015</v>
       </c>
       <c r="Y7">
-        <v>24.1353</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>3080.54</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>3080.27</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>3080.41</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>2.76287</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>16.5329</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>16.7676</v>
+        <v>24.1355</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>8080.18</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>9081.43</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>8580.809999999999</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0.654847</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>17.8446</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>16.7625</v>
       </c>
       <c r="AF7">
-        <v>37.4043</v>
+        <v>34.6547</v>
       </c>
       <c r="AG7">
-        <v>36.8806</v>
+        <v>36.8919</v>
       </c>
       <c r="AH7">
-        <v>80.5398</v>
+        <v>-919.8200000000001</v>
       </c>
       <c r="AI7">
-        <v>80.2719</v>
+        <v>81.4308</v>
       </c>
       <c r="AJ7">
-        <v>80.4058</v>
-      </c>
-      <c r="AK7" s="3">
-        <v>24.9923</v>
-      </c>
-      <c r="AL7" s="3">
-        <v>16.5329</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>16.7676</v>
+        <v>-419.1950000000001</v>
+      </c>
+      <c r="AK7">
+        <v>49.9545</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>17.8446</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>16.7625</v>
       </c>
       <c r="AN7">
-        <v>37.4043</v>
+        <v>34.6547</v>
       </c>
       <c r="AO7">
-        <v>36.8806</v>
+        <v>36.8919</v>
       </c>
       <c r="AP7">
-        <v>137.991</v>
+        <v>136.807</v>
       </c>
       <c r="AQ7">
-        <v>135.929</v>
-      </c>
-      <c r="AR7" s="2">
-        <v>66.61579999999999</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>228.461</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>227.17</v>
+        <v>136.625</v>
+      </c>
+      <c r="AR7">
+        <v>49.9621</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>227.938</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>227.273</v>
       </c>
       <c r="AU7">
-        <v>2.02223</v>
+        <v>2.02687</v>
       </c>
       <c r="AV7">
-        <v>2.03372</v>
+        <v>2.03279</v>
       </c>
       <c r="AW7">
-        <v>55.9526</v>
+        <v>55.6729</v>
       </c>
       <c r="AX7">
-        <v>55.6603</v>
+        <v>57.0899</v>
       </c>
       <c r="AY7" s="2">
-        <v>66.6568</v>
-      </c>
-      <c r="AZ7" s="3">
-        <v>6.81385</v>
-      </c>
-      <c r="BA7" s="3">
-        <v>6.23648</v>
+        <v>-49.8587</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>6.78139</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>7.962330000000001</v>
       </c>
       <c r="BB7">
-        <v>68.0672</v>
+        <v>68.3931</v>
       </c>
       <c r="BC7">
-        <v>74.3689</v>
+        <v>58.2493</v>
       </c>
       <c r="BD7">
-        <v>69.6409</v>
+        <v>69.3655</v>
       </c>
       <c r="BE7">
-        <v>67.0827</v>
+        <v>68.17489999999999</v>
       </c>
       <c r="BF7" s="2">
-        <v>66.5787</v>
-      </c>
-      <c r="BG7" s="3">
-        <v>8.233269999999999</v>
-      </c>
-      <c r="BH7" s="3">
-        <v>7.0769</v>
+        <v>-50.1234</v>
+      </c>
+      <c r="BG7" s="2">
+        <v>8.832080000000001</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>7.14233</v>
       </c>
       <c r="BI7">
-        <v>56.3324</v>
+        <v>52.5131</v>
       </c>
       <c r="BJ7">
-        <v>65.5372</v>
+        <v>64.93680000000001</v>
       </c>
       <c r="BK7">
-        <v>84.6666</v>
+        <v>84.65650000000001</v>
       </c>
       <c r="BL7">
-        <v>83.4657</v>
+        <v>84.47640000000001</v>
       </c>
       <c r="BM7" s="2">
-        <v>66.62609999999999</v>
-      </c>
-      <c r="BN7" s="3">
-        <v>4.99026</v>
-      </c>
-      <c r="BO7" s="3">
-        <v>2.25565</v>
+        <v>-50.0279</v>
+      </c>
+      <c r="BN7" s="2">
+        <v>5.09386</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>2.26165</v>
       </c>
       <c r="BP7">
-        <v>92.58029999999999</v>
+        <v>90.69750000000001</v>
       </c>
       <c r="BQ7">
-        <v>204.819</v>
+        <v>204.276</v>
       </c>
       <c r="BR7" s="4" t="s">
         <v>89</v>
@@ -2467,160 +2460,160 @@
         <v>119</v>
       </c>
       <c r="R8">
-        <v>227.55</v>
+        <v>227.987</v>
       </c>
       <c r="S8">
-        <v>227.689</v>
+        <v>227.874</v>
       </c>
       <c r="T8">
-        <v>227.619</v>
+        <v>227.931</v>
       </c>
       <c r="U8" s="2">
-        <v>66.6747</v>
-      </c>
-      <c r="V8" s="3">
-        <v>17.3029</v>
-      </c>
-      <c r="W8" s="3">
-        <v>15.955</v>
+        <v>-49.9677</v>
+      </c>
+      <c r="V8" s="2">
+        <v>17.2994</v>
+      </c>
+      <c r="W8" s="2">
+        <v>15.9806</v>
       </c>
       <c r="X8">
-        <v>26.7008</v>
+        <v>26.7061</v>
       </c>
       <c r="Y8">
-        <v>28.9564</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>3071.79</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>3072.13</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>3071.96</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>0.159318</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>15.415</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>14.4765</v>
+        <v>28.91</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>8072.429999999999</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>9072.43</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>8572.43</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0.473545</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>15.5038</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>14.3208</v>
       </c>
       <c r="AF8">
-        <v>40.1169</v>
+        <v>39.887</v>
       </c>
       <c r="AG8">
-        <v>42.7176</v>
+        <v>43.1819</v>
       </c>
       <c r="AH8">
-        <v>71.7864</v>
+        <v>-927.5720000000001</v>
       </c>
       <c r="AI8">
-        <v>72.12580000000001</v>
+        <v>72.4325</v>
       </c>
       <c r="AJ8">
-        <v>71.95610000000001</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>25.0021</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>15.415</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>14.4765</v>
+        <v>-427.57</v>
+      </c>
+      <c r="AK8">
+        <v>50.0159</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>15.5038</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>14.3208</v>
       </c>
       <c r="AN8">
-        <v>40.1169</v>
+        <v>39.887</v>
       </c>
       <c r="AO8">
-        <v>42.7176</v>
+        <v>43.1819</v>
       </c>
       <c r="AP8">
-        <v>123.513</v>
+        <v>123.472</v>
       </c>
       <c r="AQ8">
-        <v>123.698</v>
-      </c>
-      <c r="AR8" s="2">
-        <v>66.65989999999999</v>
-      </c>
-      <c r="AS8" s="2">
-        <v>224.791</v>
-      </c>
-      <c r="AT8" s="2">
-        <v>223.574</v>
+        <v>123.367</v>
+      </c>
+      <c r="AR8">
+        <v>50.014</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>225.046</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>223.726</v>
       </c>
       <c r="AU8">
-        <v>2.05524</v>
+        <v>2.05291</v>
       </c>
       <c r="AV8">
-        <v>2.06643</v>
+        <v>2.06503</v>
       </c>
       <c r="AW8">
-        <v>48.8198</v>
+        <v>49.6236</v>
       </c>
       <c r="AX8">
-        <v>49.2761</v>
+        <v>49.325</v>
       </c>
       <c r="AY8" s="2">
-        <v>66.6797</v>
-      </c>
-      <c r="AZ8" s="3">
-        <v>4.800920000000001</v>
-      </c>
-      <c r="BA8" s="3">
-        <v>4.6453</v>
+        <v>-50.0281</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>4.79881</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>4.57823</v>
       </c>
       <c r="BB8">
-        <v>96.60639999999999</v>
+        <v>96.649</v>
       </c>
       <c r="BC8">
-        <v>99.8429</v>
+        <v>101.306</v>
       </c>
       <c r="BD8">
-        <v>61.39470000000001</v>
+        <v>61.88400000000001</v>
       </c>
       <c r="BE8">
-        <v>59.8975</v>
+        <v>59.9477</v>
       </c>
       <c r="BF8" s="2">
-        <v>66.613</v>
-      </c>
-      <c r="BG8" s="3">
-        <v>7.03202</v>
-      </c>
-      <c r="BH8" s="3">
-        <v>6.27486</v>
+        <v>-50.1959</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>6.95307</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>6.13656</v>
       </c>
       <c r="BI8">
-        <v>65.9554</v>
+        <v>66.70440000000001</v>
       </c>
       <c r="BJ8">
-        <v>73.914</v>
+        <v>75.57989999999999</v>
       </c>
       <c r="BK8">
-        <v>76.13</v>
+        <v>76.7247</v>
       </c>
       <c r="BL8">
-        <v>77.21599999999999</v>
+        <v>77.3379</v>
       </c>
       <c r="BM8" s="2">
-        <v>66.6904</v>
-      </c>
-      <c r="BN8" s="3">
-        <v>4.60847</v>
-      </c>
-      <c r="BO8" s="3">
-        <v>2.0399</v>
+        <v>-49.9447</v>
+      </c>
+      <c r="BN8" s="2">
+        <v>4.666609999999999</v>
+      </c>
+      <c r="BO8" s="2">
+        <v>1.9994</v>
       </c>
       <c r="BP8">
-        <v>100.25</v>
+        <v>99.0013</v>
       </c>
       <c r="BQ8">
-        <v>226.481</v>
+        <v>231.07</v>
       </c>
       <c r="BR8" s="4" t="s">
         <v>89</v>
@@ -2697,160 +2690,160 @@
         <v>119</v>
       </c>
       <c r="R9">
-        <v>250.142</v>
+        <v>250.533</v>
       </c>
       <c r="S9">
-        <v>248.855</v>
+        <v>248.982</v>
       </c>
       <c r="T9">
-        <v>249.499</v>
+        <v>249.758</v>
       </c>
       <c r="U9" s="2">
-        <v>66.6438</v>
-      </c>
-      <c r="V9" s="3">
-        <v>21.0538</v>
-      </c>
-      <c r="W9" s="3">
-        <v>20.6111</v>
+        <v>-50.0905</v>
+      </c>
+      <c r="V9" s="2">
+        <v>21.1295</v>
+      </c>
+      <c r="W9" s="2">
+        <v>20.1681</v>
       </c>
       <c r="X9">
-        <v>19.6639</v>
+        <v>19.5935</v>
       </c>
       <c r="Y9">
-        <v>20.0863</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>3084.61</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>3085.17</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>3084.89</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>0.176643</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>18.738</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>18.5361</v>
+        <v>20.5274</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>8085.290000000001</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>9085.17</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>8585.23</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0.580936</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>18.0539</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>17.6797</v>
       </c>
       <c r="AF9">
-        <v>29.4588</v>
+        <v>30.5752</v>
       </c>
       <c r="AG9">
-        <v>29.7798</v>
+        <v>31.2222</v>
       </c>
       <c r="AH9">
-        <v>84.61190000000001</v>
+        <v>-914.712</v>
       </c>
       <c r="AI9">
-        <v>85.16579999999999</v>
+        <v>85.1675</v>
       </c>
       <c r="AJ9">
-        <v>84.8888</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>24.9977</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>18.738</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>18.5361</v>
+        <v>-414.772</v>
+      </c>
+      <c r="AK9">
+        <v>50.0378</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>18.0539</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>17.6797</v>
       </c>
       <c r="AN9">
-        <v>29.4588</v>
+        <v>30.5752</v>
       </c>
       <c r="AO9">
-        <v>29.7798</v>
+        <v>31.2222</v>
       </c>
       <c r="AP9">
-        <v>148.037</v>
+        <v>148.107</v>
       </c>
       <c r="AQ9">
-        <v>146.255</v>
-      </c>
-      <c r="AR9" s="2">
-        <v>66.6352</v>
-      </c>
-      <c r="AS9" s="2">
-        <v>229.995</v>
-      </c>
-      <c r="AT9" s="2">
-        <v>229.146</v>
+        <v>145.894</v>
+      </c>
+      <c r="AR9">
+        <v>50.1133</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>229.906</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>228.933</v>
       </c>
       <c r="AU9">
-        <v>1.80004</v>
+        <v>1.80073</v>
       </c>
       <c r="AV9">
-        <v>1.80671</v>
+        <v>1.80839</v>
       </c>
       <c r="AW9">
-        <v>58.0694</v>
+        <v>58.0649</v>
       </c>
       <c r="AX9">
-        <v>58.1874</v>
+        <v>58.2178</v>
       </c>
       <c r="AY9" s="2">
-        <v>66.6718</v>
-      </c>
-      <c r="AZ9" s="3">
-        <v>6.53034</v>
-      </c>
-      <c r="BA9" s="3">
-        <v>6.39444</v>
+        <v>-49.9838</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>7.45276</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>6.27646</v>
       </c>
       <c r="BB9">
-        <v>63.3964</v>
+        <v>55.5499</v>
       </c>
       <c r="BC9">
-        <v>64.7437</v>
+        <v>65.96080000000001</v>
       </c>
       <c r="BD9">
-        <v>73.06920000000001</v>
+        <v>73.15170000000001</v>
       </c>
       <c r="BE9">
-        <v>70.51939999999999</v>
+        <v>70.36190000000001</v>
       </c>
       <c r="BF9" s="2">
-        <v>66.5812</v>
-      </c>
-      <c r="BG9" s="3">
-        <v>9.4879</v>
-      </c>
-      <c r="BH9" s="3">
-        <v>7.76243</v>
+        <v>-50.2835</v>
+      </c>
+      <c r="BG9" s="2">
+        <v>9.582610000000001</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>7.99771</v>
       </c>
       <c r="BI9">
-        <v>43.6345</v>
+        <v>43.2032</v>
       </c>
       <c r="BJ9">
-        <v>53.3338</v>
+        <v>51.7648</v>
       </c>
       <c r="BK9">
-        <v>89.9105</v>
+        <v>90.5842</v>
       </c>
       <c r="BL9">
-        <v>89.5986</v>
+        <v>89.18599999999999</v>
       </c>
       <c r="BM9" s="2">
-        <v>66.6549</v>
-      </c>
-      <c r="BN9" s="3">
-        <v>5.3939</v>
-      </c>
-      <c r="BO9" s="3">
-        <v>2.47066</v>
+        <v>-50.1492</v>
+      </c>
+      <c r="BN9" s="2">
+        <v>5.55532</v>
+      </c>
+      <c r="BO9" s="2">
+        <v>2.35223</v>
       </c>
       <c r="BP9">
-        <v>76.7533</v>
+        <v>74.5231</v>
       </c>
       <c r="BQ9">
-        <v>167.567</v>
+        <v>176.003</v>
       </c>
       <c r="BR9" s="4" t="s">
         <v>89</v>
@@ -2927,160 +2920,160 @@
         <v>119</v>
       </c>
       <c r="R10">
-        <v>240.192</v>
+        <v>239.003</v>
       </c>
       <c r="S10">
-        <v>240.093</v>
+        <v>240.554</v>
       </c>
       <c r="T10">
-        <v>240.142</v>
+        <v>239.779</v>
       </c>
       <c r="U10" s="2">
-        <v>66.7076</v>
-      </c>
-      <c r="V10" s="3">
-        <v>18.8024</v>
-      </c>
-      <c r="W10" s="3">
-        <v>18.0159</v>
+        <v>-49.7425</v>
+      </c>
+      <c r="V10" s="2">
+        <v>19.1228</v>
+      </c>
+      <c r="W10" s="2">
+        <v>17.9541</v>
       </c>
       <c r="X10">
-        <v>22.0184</v>
+        <v>21.6495</v>
       </c>
       <c r="Y10">
-        <v>22.9797</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>3078.4</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>3078.43</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>3078.41</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>0.20991</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>16.7826</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>15.8709</v>
+        <v>23.0588</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>8077.650000000001</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>9077.99</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>8577.82</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0.740666</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>16.4759</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>15.5002</v>
       </c>
       <c r="AF10">
-        <v>32.8913</v>
+        <v>33.5034</v>
       </c>
       <c r="AG10">
-        <v>34.7806</v>
+        <v>35.6123</v>
       </c>
       <c r="AH10">
-        <v>78.4038</v>
+        <v>-922.355</v>
       </c>
       <c r="AI10">
-        <v>78.4252</v>
+        <v>77.99170000000001</v>
       </c>
       <c r="AJ10">
-        <v>78.4145</v>
-      </c>
-      <c r="AK10" s="3">
-        <v>24.9811</v>
-      </c>
-      <c r="AL10" s="3">
-        <v>16.7826</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>15.8709</v>
+        <v>-422.182</v>
+      </c>
+      <c r="AK10">
+        <v>50.0763</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>16.4759</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>15.5002</v>
       </c>
       <c r="AN10">
-        <v>32.8913</v>
+        <v>33.5034</v>
       </c>
       <c r="AO10">
-        <v>34.7806</v>
+        <v>35.6123</v>
       </c>
       <c r="AP10">
-        <v>136.541</v>
+        <v>134.765</v>
       </c>
       <c r="AQ10">
-        <v>135.923</v>
-      </c>
-      <c r="AR10" s="2">
-        <v>66.6698</v>
-      </c>
-      <c r="AS10" s="2">
-        <v>226.814</v>
-      </c>
-      <c r="AT10" s="2">
-        <v>225.06</v>
+        <v>136.038</v>
+      </c>
+      <c r="AR10">
+        <v>49.7968</v>
+      </c>
+      <c r="AS10" s="3">
+        <v>226.94</v>
+      </c>
+      <c r="AT10" s="3">
+        <v>225.104</v>
       </c>
       <c r="AU10">
-        <v>1.82528</v>
+        <v>1.82427</v>
       </c>
       <c r="AV10">
-        <v>1.83951</v>
+        <v>1.83915</v>
       </c>
       <c r="AW10">
-        <v>52.82</v>
+        <v>52.0251</v>
       </c>
       <c r="AX10">
-        <v>51.631</v>
+        <v>52.6402</v>
       </c>
       <c r="AY10" s="2">
-        <v>66.63639999999999</v>
-      </c>
-      <c r="AZ10" s="3">
-        <v>4.92627</v>
-      </c>
-      <c r="BA10" s="3">
-        <v>4.38453</v>
+        <v>-49.9357</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>4.81482</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>4.72819</v>
       </c>
       <c r="BB10">
-        <v>84.03919999999999</v>
+        <v>85.9846</v>
       </c>
       <c r="BC10">
-        <v>94.4229</v>
+        <v>87.5599</v>
       </c>
       <c r="BD10">
-        <v>66.7433</v>
+        <v>65.90600000000001</v>
       </c>
       <c r="BE10">
-        <v>63.2889</v>
+        <v>64.3412</v>
       </c>
       <c r="BF10" s="2">
-        <v>66.5639</v>
-      </c>
-      <c r="BG10" s="3">
-        <v>7.648849999999999</v>
-      </c>
-      <c r="BH10" s="3">
-        <v>6.55703</v>
+        <v>-50.1604</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>7.71233</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>6.49286</v>
       </c>
       <c r="BI10">
-        <v>54.1258</v>
+        <v>53.6803</v>
       </c>
       <c r="BJ10">
-        <v>63.1383</v>
+        <v>63.7624</v>
       </c>
       <c r="BK10">
-        <v>83.7701</v>
+        <v>83.0782</v>
       </c>
       <c r="BL10">
-        <v>84.35910000000001</v>
+        <v>85.30199999999999</v>
       </c>
       <c r="BM10" s="2">
-        <v>66.6866</v>
-      </c>
-      <c r="BN10" s="3">
-        <v>5.013409999999999</v>
-      </c>
-      <c r="BO10" s="3">
-        <v>2.19889</v>
+        <v>-49.7942</v>
+      </c>
+      <c r="BN10" s="2">
+        <v>5.18486</v>
+      </c>
+      <c r="BO10" s="2">
+        <v>2.20331</v>
       </c>
       <c r="BP10">
-        <v>82.57859999999999</v>
+        <v>79.84780000000001</v>
       </c>
       <c r="BQ10">
-        <v>188.277</v>
+        <v>187.899</v>
       </c>
       <c r="BR10" s="4" t="s">
         <v>89</v>
@@ -3339,160 +3332,160 @@
         <v>123</v>
       </c>
       <c r="R12" s="1">
-        <v>227.55</v>
+        <v>227.987</v>
       </c>
       <c r="S12" s="1">
-        <v>227.689</v>
+        <v>227.874</v>
       </c>
       <c r="T12" s="1">
-        <v>227.619</v>
+        <v>227.931</v>
       </c>
       <c r="U12" s="2">
-        <v>66.6386</v>
-      </c>
-      <c r="V12" s="3">
-        <v>17.3029</v>
-      </c>
-      <c r="W12" s="3">
-        <v>15.955</v>
+        <v>-50.1398</v>
+      </c>
+      <c r="V12" s="2">
+        <v>17.2994</v>
+      </c>
+      <c r="W12" s="2">
+        <v>15.9806</v>
       </c>
       <c r="X12" s="1">
-        <v>13.9055</v>
+        <v>13.8292</v>
       </c>
       <c r="Y12" s="1">
-        <v>15.135</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>3071.79</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>3072.13</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>3071.96</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>0.159318</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>15.415</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>14.4765</v>
+        <v>15.0125</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>8072.429999999999</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>9072.43</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>8572.43</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0.473545</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>15.5038</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>14.3208</v>
       </c>
       <c r="AF12" s="1">
-        <v>20.2407</v>
+        <v>19.9603</v>
       </c>
       <c r="AG12" s="1">
-        <v>20.0019</v>
+        <v>20.9578</v>
       </c>
       <c r="AH12" s="1">
-        <v>71.7864</v>
+        <v>-927.5720000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>72.12580000000001</v>
+        <v>72.4325</v>
       </c>
       <c r="AJ12" s="1">
-        <v>71.95610000000001</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>24.9791</v>
-      </c>
-      <c r="AL12" s="3">
-        <v>15.415</v>
-      </c>
-      <c r="AM12" s="3">
-        <v>14.4765</v>
+        <v>-427.57</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>49.9044</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>15.5038</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>14.3208</v>
       </c>
       <c r="AN12" s="1">
-        <v>20.2407</v>
+        <v>19.9603</v>
       </c>
       <c r="AO12" s="1">
-        <v>20.0019</v>
+        <v>20.9578</v>
       </c>
       <c r="AP12" s="1">
-        <v>123.513</v>
+        <v>-659.9</v>
       </c>
       <c r="AQ12" s="1">
-        <v>123.698</v>
-      </c>
-      <c r="AR12" s="2">
-        <v>62.2848</v>
-      </c>
-      <c r="AS12" s="2">
-        <v>224.791</v>
-      </c>
-      <c r="AT12" s="2">
-        <v>223.574</v>
+        <v>-803.5540000000001</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>49.7968</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>225.046</v>
+      </c>
+      <c r="AT12" s="3">
+        <v>223.726</v>
       </c>
       <c r="AU12" s="1">
-        <v>1.7099</v>
+        <v>1.70876</v>
       </c>
       <c r="AV12" s="1">
-        <v>1.74118</v>
+        <v>1.7325</v>
       </c>
       <c r="AW12" s="1">
-        <v>48.8198</v>
+        <v>49.6236</v>
       </c>
       <c r="AX12" s="1">
-        <v>49.2761</v>
+        <v>49.325</v>
       </c>
       <c r="AY12" s="2">
-        <v>66.63639999999999</v>
-      </c>
-      <c r="AZ12" s="3">
-        <v>4.800920000000001</v>
-      </c>
-      <c r="BA12" s="3">
-        <v>4.38453</v>
+        <v>-50.0466</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>4.79881</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>4.57823</v>
       </c>
       <c r="BB12" s="1">
-        <v>55.0406</v>
+        <v>55.5499</v>
       </c>
       <c r="BC12" s="1">
-        <v>57.6907</v>
+        <v>57.5835</v>
       </c>
       <c r="BD12" s="1">
-        <v>61.39470000000001</v>
+        <v>61.88400000000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>59.8975</v>
+        <v>59.9477</v>
       </c>
       <c r="BF12" s="2">
-        <v>66.5183</v>
-      </c>
-      <c r="BG12" s="3">
-        <v>7.03202</v>
-      </c>
-      <c r="BH12" s="3">
-        <v>6.27486</v>
+        <v>-50.5191</v>
+      </c>
+      <c r="BG12" s="2">
+        <v>6.95307</v>
+      </c>
+      <c r="BH12" s="2">
+        <v>6.13656</v>
       </c>
       <c r="BI12" s="1">
-        <v>32.635</v>
+        <v>33.2053</v>
       </c>
       <c r="BJ12" s="1">
-        <v>36.028</v>
+        <v>36.1327</v>
       </c>
       <c r="BK12" s="1">
-        <v>76.13</v>
+        <v>76.7247</v>
       </c>
       <c r="BL12" s="1">
-        <v>77.21599999999999</v>
+        <v>77.3379</v>
       </c>
       <c r="BM12" s="2">
-        <v>66.62609999999999</v>
-      </c>
-      <c r="BN12" s="3">
-        <v>4.60847</v>
-      </c>
-      <c r="BO12" s="3">
-        <v>2.0399</v>
+        <v>-50.1492</v>
+      </c>
+      <c r="BN12" s="2">
+        <v>4.666609999999999</v>
+      </c>
+      <c r="BO12" s="2">
+        <v>1.9994</v>
       </c>
       <c r="BP12" s="1">
-        <v>55.3247</v>
+        <v>54.0892</v>
       </c>
       <c r="BQ12" s="1">
-        <v>122.778</v>
+        <v>127.616</v>
       </c>
       <c r="BR12" s="1" t="s">
         <v>124</v>
@@ -3521,160 +3514,160 @@
         <v>125</v>
       </c>
       <c r="R13" s="1">
-        <v>317.6850000000001</v>
+        <v>318.766</v>
       </c>
       <c r="S13" s="1">
-        <v>319.19</v>
+        <v>318.251</v>
       </c>
       <c r="T13" s="1">
-        <v>318.438</v>
+        <v>318.509</v>
       </c>
       <c r="U13" s="2">
-        <v>66.7321</v>
-      </c>
-      <c r="V13" s="3">
-        <v>29.7723</v>
-      </c>
-      <c r="W13" s="3">
-        <v>27.3538</v>
+        <v>-49.7425</v>
+      </c>
+      <c r="V13" s="2">
+        <v>29.9367</v>
+      </c>
+      <c r="W13" s="2">
+        <v>27.577</v>
       </c>
       <c r="X13" s="1">
-        <v>26.7008</v>
+        <v>26.7061</v>
       </c>
       <c r="Y13" s="1">
-        <v>28.9564</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>3116.11</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>3116.71</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>3116.41</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>38.0012</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>27.2718</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>27.5974</v>
+        <v>28.91</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>8116.57</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>9116.280000000001</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>8616.42</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>3.38549</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>27.655</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>26.3387</v>
       </c>
       <c r="AF13" s="1">
-        <v>40.1169</v>
+        <v>39.887</v>
       </c>
       <c r="AG13" s="1">
-        <v>42.7176</v>
+        <v>43.1819</v>
       </c>
       <c r="AH13" s="1">
-        <v>116.109</v>
+        <v>-883.4330000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>116.714</v>
+        <v>116.276</v>
       </c>
       <c r="AJ13" s="1">
-        <v>116.412</v>
-      </c>
-      <c r="AK13" s="3">
-        <v>25.0038</v>
-      </c>
-      <c r="AL13" s="3">
-        <v>27.2718</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>27.5974</v>
+        <v>-383.579</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>50.0763</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>27.655</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>26.3387</v>
       </c>
       <c r="AN13" s="1">
-        <v>40.1169</v>
+        <v>39.887</v>
       </c>
       <c r="AO13" s="1">
-        <v>42.7176</v>
-      </c>
-      <c r="AP13" s="2">
-        <v>386.937</v>
-      </c>
-      <c r="AQ13" s="2">
-        <v>378.1</v>
-      </c>
-      <c r="AR13" s="2">
-        <v>66.682</v>
-      </c>
-      <c r="AS13" s="2">
-        <v>242.119</v>
-      </c>
-      <c r="AT13" s="2">
-        <v>237.77</v>
+        <v>43.1819</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>386.338</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>374.535</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>66.09220000000001</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>242.282</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>238.962</v>
       </c>
       <c r="AU13" s="1">
-        <v>2.05524</v>
+        <v>2.05291</v>
       </c>
       <c r="AV13" s="1">
-        <v>2.06643</v>
+        <v>2.06503</v>
       </c>
       <c r="AW13" s="1">
-        <v>72.7778</v>
+        <v>72.8493</v>
       </c>
       <c r="AX13" s="1">
-        <v>73.34909999999999</v>
+        <v>73.00150000000001</v>
       </c>
       <c r="AY13" s="2">
-        <v>66.6884</v>
-      </c>
-      <c r="AZ13" s="3">
-        <v>7.521719999999999</v>
-      </c>
-      <c r="BA13" s="3">
-        <v>7.176200000000001</v>
+        <v>-49.8587</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>7.45276</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>7.962330000000001</v>
       </c>
       <c r="BB13" s="1">
-        <v>96.60639999999999</v>
+        <v>96.649</v>
       </c>
       <c r="BC13" s="1">
-        <v>99.8429</v>
+        <v>101.306</v>
       </c>
       <c r="BD13" s="1">
-        <v>96.9623</v>
+        <v>96.4967</v>
       </c>
       <c r="BE13" s="1">
-        <v>93.36240000000001</v>
+        <v>93.04299999999999</v>
       </c>
       <c r="BF13" s="2">
-        <v>66.613</v>
-      </c>
-      <c r="BG13" s="3">
-        <v>12.6858</v>
-      </c>
-      <c r="BH13" s="3">
-        <v>11.491</v>
+        <v>-50.1234</v>
+      </c>
+      <c r="BG13" s="2">
+        <v>12.4679</v>
+      </c>
+      <c r="BH13" s="2">
+        <v>11.4578</v>
       </c>
       <c r="BI13" s="1">
-        <v>65.9554</v>
+        <v>66.70440000000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>73.914</v>
+        <v>75.57989999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>126.374</v>
+        <v>125.836</v>
       </c>
       <c r="BL13" s="1">
-        <v>128.642</v>
+        <v>127.991</v>
       </c>
       <c r="BM13" s="2">
-        <v>66.7372</v>
-      </c>
-      <c r="BN13" s="3">
-        <v>7.48309</v>
-      </c>
-      <c r="BO13" s="3">
-        <v>3.37193</v>
+        <v>-49.7942</v>
+      </c>
+      <c r="BN13" s="2">
+        <v>7.65402</v>
+      </c>
+      <c r="BO13" s="2">
+        <v>3.24411</v>
       </c>
       <c r="BP13" s="1">
-        <v>100.25</v>
+        <v>99.0013</v>
       </c>
       <c r="BQ13" s="1">
-        <v>226.481</v>
+        <v>231.07</v>
       </c>
       <c r="BR13" s="1" t="s">
         <v>124</v>
@@ -3987,160 +3980,160 @@
         <v>130</v>
       </c>
       <c r="R18" s="1">
-        <v>268.9847777777778</v>
+        <v>268.9178888888889</v>
       </c>
       <c r="S18" s="1">
-        <v>268.7343333333334</v>
+        <v>268.6336666666667</v>
       </c>
       <c r="T18" s="1">
-        <v>268.8595555555555</v>
+        <v>268.7758888888889</v>
       </c>
       <c r="U18" s="1">
-        <v>66.673</v>
+        <v>-49.96865555555556</v>
       </c>
       <c r="V18" s="1">
-        <v>22.70938888888889</v>
+        <v>22.79175555555555</v>
       </c>
       <c r="W18" s="1">
-        <v>21.2732</v>
+        <v>21.12176666666667</v>
       </c>
       <c r="X18" s="1">
-        <v>19.98806666666667</v>
+        <v>19.90071111111111</v>
       </c>
       <c r="Y18" s="1">
-        <v>21.22884444444445</v>
+        <v>21.37991111111111</v>
       </c>
       <c r="Z18" s="1">
-        <v>3093.397777777778</v>
+        <v>8093.501111111113</v>
       </c>
       <c r="AA18" s="1">
-        <v>3093.575555555556</v>
+        <v>9093.590000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>3093.487777777778</v>
+        <v>8593.545555555556</v>
       </c>
       <c r="AC18" s="1">
-        <v>4.732233888888889</v>
+        <v>1.097481555555555</v>
       </c>
       <c r="AD18" s="1">
-        <v>21.00101111111111</v>
+        <v>21.10107777777778</v>
       </c>
       <c r="AE18" s="1">
-        <v>20.37036666666667</v>
+        <v>20.1719</v>
       </c>
       <c r="AF18" s="1">
-        <v>29.23164444444445</v>
+        <v>29.05684444444444</v>
       </c>
       <c r="AG18" s="1">
-        <v>30.17651111111111</v>
+        <v>30.52083333333333</v>
       </c>
       <c r="AH18" s="1">
-        <v>93.39907777777779</v>
+        <v>-906.4996666666666</v>
       </c>
       <c r="AI18" s="1">
-        <v>93.57515555555557</v>
+        <v>93.58974444444445</v>
       </c>
       <c r="AJ18" s="1">
-        <v>93.4871</v>
+        <v>-406.4551111111111</v>
       </c>
       <c r="AK18" s="1">
-        <v>24.99437777777778</v>
+        <v>49.9941</v>
       </c>
       <c r="AL18" s="1">
-        <v>21.00101111111111</v>
+        <v>21.10107777777778</v>
       </c>
       <c r="AM18" s="1">
-        <v>20.37036666666667</v>
+        <v>20.1719</v>
       </c>
       <c r="AN18" s="1">
-        <v>29.23164444444445</v>
+        <v>29.05684444444444</v>
       </c>
       <c r="AO18" s="1">
-        <v>30.17651111111111</v>
+        <v>30.52083333333333</v>
       </c>
       <c r="AP18" s="1">
-        <v>221.3591111111111</v>
+        <v>110.8537777777778</v>
       </c>
       <c r="AQ18" s="1">
-        <v>191.9428888888889</v>
+        <v>75.75744444444445</v>
       </c>
       <c r="AR18" s="1">
-        <v>65.66526666666667</v>
+        <v>53.95483333333333</v>
       </c>
       <c r="AS18" s="1">
-        <v>232.2707777777778</v>
+        <v>232.4034444444444</v>
       </c>
       <c r="AT18" s="1">
-        <v>230.1282222222222</v>
+        <v>230.3627777777778</v>
       </c>
       <c r="AU18" s="1">
-        <v>1.893064444444444</v>
+        <v>1.892071111111111</v>
       </c>
       <c r="AV18" s="1">
-        <v>1.910323333333333</v>
+        <v>1.908473333333333</v>
       </c>
       <c r="AW18" s="1">
-        <v>60.98191111111112</v>
+        <v>60.96636666666667</v>
       </c>
       <c r="AX18" s="1">
-        <v>61.08860000000001</v>
+        <v>61.20731111111112</v>
       </c>
       <c r="AY18" s="1">
-        <v>66.67133333333334</v>
+        <v>-49.97555555555555</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.872462222222222</v>
+        <v>5.962192222222222</v>
       </c>
       <c r="BA18" s="1">
-        <v>5.608145555555556</v>
+        <v>5.868025555555556</v>
       </c>
       <c r="BB18" s="1">
-        <v>76.97251111111109</v>
+        <v>75.7508</v>
       </c>
       <c r="BC18" s="1">
-        <v>80.7712888888889</v>
+        <v>77.79177777777778</v>
       </c>
       <c r="BD18" s="1">
-        <v>78.91453333333334</v>
+        <v>78.77655555555556</v>
       </c>
       <c r="BE18" s="1">
-        <v>75.95596666666667</v>
+        <v>76.02737777777777</v>
       </c>
       <c r="BF18" s="1">
-        <v>66.56584444444445</v>
+        <v>-50.28618888888889</v>
       </c>
       <c r="BG18" s="1">
-        <v>9.738108888888888</v>
+        <v>9.776408888888888</v>
       </c>
       <c r="BH18" s="1">
-        <v>8.57636111111111</v>
+        <v>8.540050000000001</v>
       </c>
       <c r="BI18" s="1">
-        <v>47.04535555555555</v>
+        <v>46.77931111111111</v>
       </c>
       <c r="BJ18" s="1">
-        <v>53.70918888888889</v>
+        <v>54.009</v>
       </c>
       <c r="BK18" s="1">
-        <v>99.36482222222222</v>
+        <v>99.36484444444446</v>
       </c>
       <c r="BL18" s="1">
-        <v>100.2676555555556</v>
+        <v>100.2235888888889</v>
       </c>
       <c r="BM18" s="1">
-        <v>66.69066666666667</v>
+        <v>-49.9325</v>
       </c>
       <c r="BN18" s="1">
-        <v>5.848352222222222</v>
+        <v>5.845956666666667</v>
       </c>
       <c r="BO18" s="1">
-        <v>2.599386666666666</v>
+        <v>2.559115555555556</v>
       </c>
       <c r="BP18" s="1">
-        <v>77.46392222222221</v>
+        <v>77.4729</v>
       </c>
       <c r="BQ18" s="1">
-        <v>174.5283333333333</v>
+        <v>177.0327777777778</v>
       </c>
       <c r="BR18" s="1" t="s">
         <v>124</v>
@@ -4169,160 +4162,160 @@
         <v>131</v>
       </c>
       <c r="R19" s="1">
-        <v>31.23479897584949</v>
+        <v>31.52489160592678</v>
       </c>
       <c r="S19" s="1">
-        <v>31.5893643705177</v>
+        <v>31.19537191457875</v>
       </c>
       <c r="T19" s="1">
-        <v>31.40897514020515</v>
+        <v>31.35517508391892</v>
       </c>
       <c r="U19" s="1">
-        <v>0.03383114935480046</v>
+        <v>0.1237835845436264</v>
       </c>
       <c r="V19" s="1">
-        <v>3.99576138772754</v>
+        <v>3.953772399483003</v>
       </c>
       <c r="W19" s="1">
-        <v>3.351854570897198</v>
+        <v>3.358875795725575</v>
       </c>
       <c r="X19" s="1">
-        <v>3.809458940876279</v>
+        <v>3.766684513068177</v>
       </c>
       <c r="Y19" s="1">
-        <v>3.857750521889123</v>
+        <v>3.840382085864908</v>
       </c>
       <c r="Z19" s="1">
-        <v>15.39112643179518</v>
+        <v>15.5005888378792</v>
       </c>
       <c r="AA19" s="1">
-        <v>15.43596817761188</v>
+        <v>15.17646423468469</v>
       </c>
       <c r="AB19" s="1">
-        <v>15.41346148863803</v>
+        <v>15.33571511292174</v>
       </c>
       <c r="AC19" s="1">
-        <v>11.78839788605942</v>
+        <v>0.8371230977463643</v>
       </c>
       <c r="AD19" s="1">
-        <v>4.323141577203227</v>
+        <v>4.35066186632123</v>
       </c>
       <c r="AE19" s="1">
-        <v>4.254451059511413</v>
+        <v>4.295015058827565</v>
       </c>
       <c r="AF19" s="1">
-        <v>6.500981253987074</v>
+        <v>6.247791772229273</v>
       </c>
       <c r="AG19" s="1">
-        <v>6.821742959333037</v>
+        <v>6.959276646159267</v>
       </c>
       <c r="AH19" s="1">
-        <v>15.39189995576878</v>
+        <v>15.50188526169209</v>
       </c>
       <c r="AI19" s="1">
-        <v>15.43833223938325</v>
+        <v>15.17559568862756</v>
       </c>
       <c r="AJ19" s="1">
-        <v>15.41436166242378</v>
+        <v>15.33636389213881</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.008316753877668715</v>
+        <v>0.06419688465961516</v>
       </c>
       <c r="AL19" s="1">
-        <v>4.323141577203227</v>
+        <v>4.35066186632123</v>
       </c>
       <c r="AM19" s="1">
-        <v>4.254451059511413</v>
+        <v>4.295015058827565</v>
       </c>
       <c r="AN19" s="1">
-        <v>6.500981253987074</v>
+        <v>6.247791772229273</v>
       </c>
       <c r="AO19" s="1">
-        <v>6.821742959333037</v>
+        <v>6.959276646159267</v>
       </c>
       <c r="AP19" s="1">
-        <v>103.566376093836</v>
+        <v>289.394116215155</v>
       </c>
       <c r="AQ19" s="1">
-        <v>76.40690708516468</v>
+        <v>319.5258904909346</v>
       </c>
       <c r="AR19" s="1">
-        <v>1.688086225417541</v>
+        <v>6.454800117569699</v>
       </c>
       <c r="AS19" s="1">
-        <v>5.269367488455805</v>
+        <v>5.454682068566026</v>
       </c>
       <c r="AT19" s="1">
-        <v>4.419960552307071</v>
+        <v>4.678487452105233</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.1178284591270161</v>
+        <v>0.1185976083180662</v>
       </c>
       <c r="AV19" s="1">
-        <v>0.1153140617810527</v>
+        <v>0.1159915606125434</v>
       </c>
       <c r="AW19" s="1">
-        <v>7.668219928516576</v>
+        <v>7.726480293840856</v>
       </c>
       <c r="AX19" s="1">
-        <v>7.97562399704388</v>
+        <v>7.578887688462006</v>
       </c>
       <c r="AY19" s="1">
-        <v>0.01533449270979368</v>
+        <v>0.05526823703259792</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.9114907853106209</v>
+        <v>0.9162531013472178</v>
       </c>
       <c r="BA19" s="1">
-        <v>0.9034884105277861</v>
+        <v>1.108612622285782</v>
       </c>
       <c r="BB19" s="1">
-        <v>13.65142544103358</v>
+        <v>13.18542209495859</v>
       </c>
       <c r="BC19" s="1">
-        <v>14.66736384838761</v>
+        <v>15.71444255530404</v>
       </c>
       <c r="BD19" s="1">
-        <v>11.97840705389864</v>
+        <v>12.01445894875662</v>
       </c>
       <c r="BE19" s="1">
-        <v>11.42547396828683</v>
+        <v>11.04995263647745</v>
       </c>
       <c r="BF19" s="1">
-        <v>0.02580004785142514</v>
+        <v>0.1268911908722894</v>
       </c>
       <c r="BG19" s="1">
-        <v>1.854652425019874</v>
+        <v>1.803943746280136</v>
       </c>
       <c r="BH19" s="1">
-        <v>1.788731372350834</v>
+        <v>1.795048904409632</v>
       </c>
       <c r="BI19" s="1">
-        <v>10.09988652874775</v>
+        <v>9.936839923955755</v>
       </c>
       <c r="BJ19" s="1">
-        <v>11.86357763740624</v>
+        <v>12.18194184174081</v>
       </c>
       <c r="BK19" s="1">
-        <v>16.97648235182214</v>
+        <v>16.86094418735605</v>
       </c>
       <c r="BL19" s="1">
-        <v>17.61195815676958</v>
+        <v>17.23199231226258</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.03123427604411768</v>
+        <v>0.1143974941450502</v>
       </c>
       <c r="BN19" s="1">
-        <v>1.002018016646383</v>
+        <v>0.9972218913116132</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.4558739075909284</v>
+        <v>0.4395564617028072</v>
       </c>
       <c r="BP19" s="1">
-        <v>14.24230156398558</v>
+        <v>14.15957739772703</v>
       </c>
       <c r="BQ19" s="1">
-        <v>32.79437723824687</v>
+        <v>32.53950014564445</v>
       </c>
       <c r="BR19" s="1" t="s">
         <v>124</v>
@@ -4351,160 +4344,160 @@
         <v>132</v>
       </c>
       <c r="R20" s="1">
-        <v>11.61210654145424</v>
+        <v>11.72286891592853</v>
       </c>
       <c r="S20" s="1">
-        <v>11.75486733633503</v>
+        <v>11.61260697576206</v>
       </c>
       <c r="T20" s="1">
-        <v>11.68229824500881</v>
+        <v>11.6659181050578</v>
       </c>
       <c r="U20" s="1">
-        <v>0.05074190355136331</v>
+        <v>0.2477224635471787</v>
       </c>
       <c r="V20" s="1">
-        <v>17.59519556989295</v>
+        <v>17.34737980075984</v>
       </c>
       <c r="W20" s="1">
-        <v>15.7562311777128</v>
+        <v>15.90243774933082</v>
       </c>
       <c r="X20" s="1">
-        <v>19.05866637531867</v>
+        <v>18.9273865242189</v>
       </c>
       <c r="Y20" s="1">
-        <v>18.17221154917214</v>
+        <v>17.96257274366808</v>
       </c>
       <c r="Z20" s="1">
-        <v>0.4975476009700826</v>
+        <v>0.1915189560745141</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.4989685204194029</v>
+        <v>0.1668918901631225</v>
       </c>
       <c r="AB20" s="1">
-        <v>0.4982551280584133</v>
+        <v>0.1784562031326814</v>
       </c>
       <c r="AC20" s="1">
-        <v>249.1085217435711</v>
+        <v>76.27673499465827</v>
       </c>
       <c r="AD20" s="1">
-        <v>20.58539731411294</v>
+        <v>20.61819738375189</v>
       </c>
       <c r="AE20" s="1">
-        <v>20.88549081678163</v>
+        <v>21.29206995289271</v>
       </c>
       <c r="AF20" s="1">
-        <v>22.23953314136114</v>
+        <v>21.50196241775258</v>
       </c>
       <c r="AG20" s="1">
-        <v>22.60613539522547</v>
+        <v>22.80172553007814</v>
       </c>
       <c r="AH20" s="1">
-        <v>16.47971299287383</v>
+        <v>1.7100817387716</v>
       </c>
       <c r="AI20" s="1">
-        <v>16.49832388493067</v>
+        <v>16.21501990277995</v>
       </c>
       <c r="AJ20" s="1">
-        <v>16.48822314781802</v>
+        <v>3.773199911354138</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.03327449857568789</v>
+        <v>0.1284089215719758</v>
       </c>
       <c r="AL20" s="1">
-        <v>20.58539731411294</v>
+        <v>20.61819738375189</v>
       </c>
       <c r="AM20" s="1">
-        <v>20.88549081678163</v>
+        <v>21.29206995289271</v>
       </c>
       <c r="AN20" s="1">
-        <v>22.23953314136114</v>
+        <v>21.50196241775258</v>
       </c>
       <c r="AO20" s="1">
-        <v>22.60613539522547</v>
+        <v>22.80172553007814</v>
       </c>
       <c r="AP20" s="1">
-        <v>46.78658835138295</v>
+        <v>261.0593179740674</v>
       </c>
       <c r="AQ20" s="1">
-        <v>39.80710487763618</v>
+        <v>421.7749065245382</v>
       </c>
       <c r="AR20" s="1">
-        <v>2.570744491127539</v>
+        <v>11.96333992488105</v>
       </c>
       <c r="AS20" s="1">
-        <v>2.268631266864404</v>
+        <v>2.347074537387055</v>
       </c>
       <c r="AT20" s="1">
-        <v>1.920651239394253</v>
+        <v>2.030921617301556</v>
       </c>
       <c r="AU20" s="1">
-        <v>6.224218064673184</v>
+        <v>6.26813694377587</v>
       </c>
       <c r="AV20" s="1">
-        <v>6.036363570968931</v>
+        <v>6.07771450544467</v>
       </c>
       <c r="AW20" s="1">
-        <v>12.57458119760271</v>
+        <v>12.67334879259798</v>
       </c>
       <c r="AX20" s="1">
-        <v>13.05583037922604</v>
+        <v>12.38232418787989</v>
       </c>
       <c r="AY20" s="1">
-        <v>0.02300012905565662</v>
+        <v>0.1105905405516878</v>
       </c>
       <c r="AZ20" s="1">
-        <v>15.52144144685021</v>
+        <v>15.36772158958862</v>
       </c>
       <c r="BA20" s="1">
-        <v>16.11028817953504</v>
+        <v>18.8924300310213</v>
       </c>
       <c r="BB20" s="1">
-        <v>17.73545548140883</v>
+        <v>17.40631398606826</v>
       </c>
       <c r="BC20" s="1">
-        <v>18.15913061454846</v>
+        <v>20.20064716890051</v>
       </c>
       <c r="BD20" s="1">
-        <v>15.17896203390332</v>
+        <v>15.25131286082147</v>
       </c>
       <c r="BE20" s="1">
-        <v>15.04223363837579</v>
+        <v>14.53417566074108</v>
       </c>
       <c r="BF20" s="1">
-        <v>0.03875868783270337</v>
+        <v>0.252338054794061</v>
       </c>
       <c r="BG20" s="1">
-        <v>19.04530382830304</v>
+        <v>18.45200795897928</v>
       </c>
       <c r="BH20" s="1">
-        <v>20.8565305165782</v>
+        <v>21.01918495102057</v>
       </c>
       <c r="BI20" s="1">
-        <v>21.46840301126188</v>
+        <v>21.24195437669782</v>
       </c>
       <c r="BJ20" s="1">
-        <v>22.08854366046947</v>
+        <v>22.55539232672483</v>
       </c>
       <c r="BK20" s="1">
-        <v>17.08500249097761</v>
+        <v>16.96872196764029</v>
       </c>
       <c r="BL20" s="1">
-        <v>17.56494460669949</v>
+        <v>17.19354944609549</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.04683455362687085</v>
+        <v>0.2291042790668406</v>
       </c>
       <c r="BN20" s="1">
-        <v>17.13333907692793</v>
+        <v>17.05831822185271</v>
       </c>
       <c r="BO20" s="1">
-        <v>17.53774894042678</v>
+        <v>17.17610839215833</v>
       </c>
       <c r="BP20" s="1">
-        <v>18.38572222450656</v>
+        <v>18.27681343763695</v>
       </c>
       <c r="BQ20" s="1">
-        <v>18.79028843735794</v>
+        <v>18.38049459207491</v>
       </c>
       <c r="BR20" s="1" t="s">
         <v>124</v>

--- a/txsb_top_timing_bdlmax_tran_channel_s_tsmc2ff_meas.xlsx
+++ b/txsb_top_timing_bdlmax_tran_channel_s_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="144">
   <si>
     <t>Process</t>
   </si>
@@ -295,133 +295,133 @@
     <t>6.00000e00</t>
   </si>
   <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>tsmc2ff (1)</t>
+  </si>
+  <si>
+    <t>mosulvt_ss</t>
+  </si>
+  <si>
+    <t>moselvt_ss</t>
+  </si>
+  <si>
+    <t>moshselvt_ss</t>
+  </si>
+  <si>
+    <t>moslvt_ss</t>
+  </si>
+  <si>
+    <t>nmoscap_s</t>
+  </si>
+  <si>
+    <t>bip_s</t>
+  </si>
+  <si>
+    <t>dio_s</t>
+  </si>
+  <si>
+    <t>res_h</t>
+  </si>
+  <si>
+    <t>cap_h</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>0.825</t>
+  </si>
+  <si>
+    <t>1.80000e01</t>
+  </si>
+  <si>
+    <t>1.60000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (2)</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>1.50000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (3)</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>2.30000e01</t>
+  </si>
+  <si>
+    <t>2.00000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (4)</t>
+  </si>
+  <si>
+    <t>1.90000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (5)</t>
+  </si>
+  <si>
+    <t>mosulvt_ff</t>
+  </si>
+  <si>
+    <t>moselvt_ff</t>
+  </si>
+  <si>
+    <t>moshselvt_ff</t>
+  </si>
+  <si>
+    <t>moslvt_ff</t>
+  </si>
+  <si>
+    <t>nmoscap_f</t>
+  </si>
+  <si>
+    <t>bip_f</t>
+  </si>
+  <si>
+    <t>dio_f</t>
+  </si>
+  <si>
+    <t>res_l</t>
+  </si>
+  <si>
+    <t>cap_l</t>
+  </si>
+  <si>
+    <t>rcbest_ccbest_t</t>
+  </si>
+  <si>
+    <t>3.00000e00</t>
+  </si>
+  <si>
+    <t>tsmc2ff (6)</t>
+  </si>
+  <si>
+    <t>1.00000e00</t>
+  </si>
+  <si>
+    <t>tsmc2ff (7)</t>
+  </si>
+  <si>
+    <t>tsmc2ff (8)</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>tsmc2ff (1)</t>
-  </si>
-  <si>
-    <t>mosulvt_ss</t>
-  </si>
-  <si>
-    <t>moselvt_ss</t>
-  </si>
-  <si>
-    <t>moshselvt_ss</t>
-  </si>
-  <si>
-    <t>moslvt_ss</t>
-  </si>
-  <si>
-    <t>nmoscap_s</t>
-  </si>
-  <si>
-    <t>bip_s</t>
-  </si>
-  <si>
-    <t>dio_s</t>
-  </si>
-  <si>
-    <t>res_h</t>
-  </si>
-  <si>
-    <t>cap_h</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>0.788</t>
-  </si>
-  <si>
-    <t>0.825</t>
-  </si>
-  <si>
-    <t>1.80000e01</t>
-  </si>
-  <si>
-    <t>1.60000e01</t>
-  </si>
-  <si>
-    <t>tsmc2ff (2)</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>1.50000e01</t>
-  </si>
-  <si>
-    <t>tsmc2ff (3)</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>2.30000e01</t>
-  </si>
-  <si>
-    <t>2.00000e01</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>tsmc2ff (4)</t>
-  </si>
-  <si>
-    <t>1.90000e01</t>
-  </si>
-  <si>
-    <t>tsmc2ff (5)</t>
-  </si>
-  <si>
-    <t>mosulvt_ff</t>
-  </si>
-  <si>
-    <t>moselvt_ff</t>
-  </si>
-  <si>
-    <t>moshselvt_ff</t>
-  </si>
-  <si>
-    <t>moslvt_ff</t>
-  </si>
-  <si>
-    <t>nmoscap_f</t>
-  </si>
-  <si>
-    <t>bip_f</t>
-  </si>
-  <si>
-    <t>dio_f</t>
-  </si>
-  <si>
-    <t>res_l</t>
-  </si>
-  <si>
-    <t>cap_l</t>
-  </si>
-  <si>
-    <t>rcbest_ccbest_t</t>
-  </si>
-  <si>
-    <t>3.00000e00</t>
-  </si>
-  <si>
-    <t>tsmc2ff (6)</t>
-  </si>
-  <si>
-    <t>1.00000e00</t>
-  </si>
-  <si>
-    <t>tsmc2ff (7)</t>
-  </si>
-  <si>
-    <t>tsmc2ff (8)</t>
-  </si>
-  <si>
-    <t>Min</t>
   </si>
   <si>
     <t>Max</t>
@@ -470,20 +470,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000 "/>
+      <color rgb="FFFFFFFF "/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF "/>
+      <color rgb="FF000000 "/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,7 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
+        <fgColor rgb="FF0094D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,7 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0094D1"/>
+        <fgColor rgb="FFFFE8B8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6FFF5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,12 +533,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1124,181 +1138,181 @@
       <c r="S2" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
+      <c r="T2">
+        <v>246.414</v>
+      </c>
+      <c r="U2">
+        <v>245.115</v>
+      </c>
+      <c r="V2">
+        <v>245.765</v>
+      </c>
+      <c r="W2" s="2">
+        <v>-50.1445</v>
+      </c>
+      <c r="X2" s="3">
+        <v>152.373</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>165.903</v>
+      </c>
+      <c r="Z2">
+        <v>2.95328</v>
+      </c>
+      <c r="AA2">
+        <v>2.71244</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>385.798</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>372.562</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>379.18</v>
+      </c>
+      <c r="AE2">
+        <v>51.2815</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>19.4364</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>18.901</v>
+      </c>
+      <c r="AH2">
+        <v>30.8699</v>
+      </c>
+      <c r="AI2">
+        <v>31.7444</v>
+      </c>
+      <c r="AJ2">
+        <v>-614.158</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>373.121</v>
+      </c>
+      <c r="AL2">
+        <v>-120.519</v>
+      </c>
+      <c r="AM2">
+        <v>48.7139</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>19.4693</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>18.3481</v>
+      </c>
+      <c r="AP2">
+        <v>30.8178</v>
+      </c>
+      <c r="AQ2">
+        <v>32.7009</v>
+      </c>
+      <c r="AR2" s="4">
+        <v>334.184</v>
+      </c>
+      <c r="AS2">
+        <v>333.183</v>
+      </c>
+      <c r="AT2">
+        <v>51.127</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>247.866</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>247.722</v>
+      </c>
+      <c r="AW2">
+        <v>1.8155</v>
+      </c>
+      <c r="AX2">
+        <v>1.81656</v>
+      </c>
+      <c r="AY2">
+        <v>56.9438</v>
+      </c>
+      <c r="AZ2">
+        <v>56.5825</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>-50.0387</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>4.65464</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>4.612410000000001</v>
+      </c>
+      <c r="BD2">
+        <v>96.6777</v>
+      </c>
+      <c r="BE2">
+        <v>97.563</v>
+      </c>
+      <c r="BF2">
+        <v>67.6908</v>
+      </c>
+      <c r="BG2">
+        <v>66.94240000000001</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>-50.0737</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>9.57029</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>7.08326</v>
+      </c>
+      <c r="BK2">
+        <v>47.0205</v>
+      </c>
+      <c r="BL2">
+        <v>63.5301</v>
+      </c>
+      <c r="BM2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ2" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1360,181 +1374,181 @@
       <c r="S3" t="s">
         <v>108</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BQ3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BR3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BS3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BT3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BU3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BW3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BX3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ3" s="2" t="s">
+      <c r="T3">
+        <v>264.051</v>
+      </c>
+      <c r="U3">
+        <v>260.322</v>
+      </c>
+      <c r="V3">
+        <v>262.187</v>
+      </c>
+      <c r="W3" s="2">
+        <v>-50.3661</v>
+      </c>
+      <c r="X3" s="2">
+        <v>-1920.1</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>2124.11</v>
+      </c>
+      <c r="Z3">
+        <v>-0.257799</v>
+      </c>
+      <c r="AA3">
+        <v>0.233039</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>400.08</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>374.508</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>387.294</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>52.7402</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>22.7174</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>21.4273</v>
+      </c>
+      <c r="AH3">
+        <v>27.7497</v>
+      </c>
+      <c r="AI3">
+        <v>29.4205</v>
+      </c>
+      <c r="AJ3">
+        <v>-598.475</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>374.878</v>
+      </c>
+      <c r="AL3">
+        <v>-111.799</v>
+      </c>
+      <c r="AM3" s="6">
+        <v>47.3617</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>22.3317</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>21.5434</v>
+      </c>
+      <c r="AP3">
+        <v>28.2289</v>
+      </c>
+      <c r="AQ3">
+        <v>29.2619</v>
+      </c>
+      <c r="AR3" s="4">
+        <v>349.895</v>
+      </c>
+      <c r="AS3">
+        <v>347.806</v>
+      </c>
+      <c r="AT3">
+        <v>51.1807</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>242.983</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>245.936</v>
+      </c>
+      <c r="AW3">
+        <v>2.03718</v>
+      </c>
+      <c r="AX3">
+        <v>2.01272</v>
+      </c>
+      <c r="AY3">
+        <v>64.29519999999999</v>
+      </c>
+      <c r="AZ3">
+        <v>63.2801</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>-50.0843</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>5.22297</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>6.595160000000001</v>
+      </c>
+      <c r="BD3">
+        <v>90.52330000000001</v>
+      </c>
+      <c r="BE3">
+        <v>71.68899999999999</v>
+      </c>
+      <c r="BF3">
+        <v>77.0716</v>
+      </c>
+      <c r="BG3">
+        <v>75.97670000000001</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>-50.0832</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>11.3262</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>8.611330000000001</v>
+      </c>
+      <c r="BK3">
+        <v>41.7438</v>
+      </c>
+      <c r="BL3">
+        <v>54.9044</v>
+      </c>
+      <c r="BM3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ3" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1596,181 +1610,181 @@
       <c r="S4" t="s">
         <v>111</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BQ4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BR4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BS4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BT4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BU4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BW4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BX4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ4" s="2" t="s">
+      <c r="T4">
+        <v>256.188</v>
+      </c>
+      <c r="U4">
+        <v>254.69</v>
+      </c>
+      <c r="V4">
+        <v>255.439</v>
+      </c>
+      <c r="W4" s="2">
+        <v>-50.079</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1573.92</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>-957.59</v>
+      </c>
+      <c r="Z4">
+        <v>0.314502</v>
+      </c>
+      <c r="AA4">
+        <v>-0.516923</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>399.879</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>386.246</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>393.062</v>
+      </c>
+      <c r="AE4">
+        <v>50.9981</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>21.7035</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>20.5553</v>
+      </c>
+      <c r="AH4">
+        <v>29.046</v>
+      </c>
+      <c r="AI4">
+        <v>30.6685</v>
+      </c>
+      <c r="AJ4">
+        <v>-601.228</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>386.52</v>
+      </c>
+      <c r="AL4">
+        <v>-107.354</v>
+      </c>
+      <c r="AM4">
+        <v>48.6579</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>21.097</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>20.911</v>
+      </c>
+      <c r="AP4">
+        <v>29.881</v>
+      </c>
+      <c r="AQ4">
+        <v>30.1468</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>343.319</v>
+      </c>
+      <c r="AS4">
+        <v>340.093</v>
+      </c>
+      <c r="AT4">
+        <v>51.1249</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>245.921</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>244.486</v>
+      </c>
+      <c r="AW4">
+        <v>2.01284</v>
+      </c>
+      <c r="AX4">
+        <v>2.02466</v>
+      </c>
+      <c r="AY4">
+        <v>59.1767</v>
+      </c>
+      <c r="AZ4">
+        <v>59.1427</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>-50.0047</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>4.406680000000001</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>4.26883</v>
+      </c>
+      <c r="BD4">
+        <v>107.292</v>
+      </c>
+      <c r="BE4">
+        <v>110.756</v>
+      </c>
+      <c r="BF4">
+        <v>71.5625</v>
+      </c>
+      <c r="BG4">
+        <v>70.88560000000001</v>
+      </c>
+      <c r="BH4" s="2">
+        <v>-50.0716</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>10.3769</v>
+      </c>
+      <c r="BJ4" s="2">
+        <v>7.56256</v>
+      </c>
+      <c r="BK4">
+        <v>45.5626</v>
+      </c>
+      <c r="BL4">
+        <v>62.5185</v>
+      </c>
+      <c r="BM4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ4" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1833,186 +1847,186 @@
         <v>115</v>
       </c>
       <c r="T5">
-        <v>292.734</v>
+        <v>289.986</v>
       </c>
       <c r="U5">
-        <v>289.018</v>
+        <v>287.231</v>
       </c>
       <c r="V5">
-        <v>290.876</v>
-      </c>
-      <c r="W5" s="3">
-        <v>66.5839</v>
+        <v>288.609</v>
+      </c>
+      <c r="W5" s="2">
+        <v>-50.2617</v>
       </c>
       <c r="X5" s="3">
-        <v>199.444</v>
+        <v>189.339</v>
       </c>
       <c r="Y5" s="3">
-        <v>182.348</v>
+        <v>161.484</v>
       </c>
       <c r="Z5">
-        <v>2.03064</v>
+        <v>2.13902</v>
       </c>
       <c r="AA5">
-        <v>2.22103</v>
+        <v>2.50798</v>
       </c>
       <c r="AB5" s="3">
-        <v>456.384</v>
+        <v>453.354</v>
       </c>
       <c r="AC5" s="3">
-        <v>437.516</v>
+        <v>430.604</v>
       </c>
       <c r="AD5" s="3">
-        <v>446.95</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>66.0146</v>
-      </c>
-      <c r="AF5" s="4">
-        <v>27.3935</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>26.3248</v>
+        <v>441.979</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>52.3953</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>27.0235</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>26.4325</v>
       </c>
       <c r="AH5">
-        <v>19.7127</v>
+        <v>19.9826</v>
       </c>
       <c r="AI5">
-        <v>20.513</v>
-      </c>
-      <c r="AJ5" s="3">
-        <v>457.613</v>
+        <v>20.4294</v>
+      </c>
+      <c r="AJ5">
+        <v>-547.066</v>
       </c>
       <c r="AK5" s="3">
-        <v>436.753</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>447.183</v>
-      </c>
-      <c r="AM5" s="4">
-        <v>24.5343</v>
-      </c>
-      <c r="AN5" s="4">
-        <v>27.1476</v>
-      </c>
-      <c r="AO5" s="4">
-        <v>25.9761</v>
+        <v>430.78</v>
+      </c>
+      <c r="AL5">
+        <v>-58.1428</v>
+      </c>
+      <c r="AM5" s="6">
+        <v>47.6</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>27.1301</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>26.3437</v>
       </c>
       <c r="AP5">
-        <v>19.8912</v>
+        <v>19.9041</v>
       </c>
       <c r="AQ5">
-        <v>20.7884</v>
+        <v>20.4982</v>
       </c>
       <c r="AR5" s="3">
-        <v>380.488</v>
+        <v>377.613</v>
       </c>
       <c r="AS5" s="3">
-        <v>377.126</v>
-      </c>
-      <c r="AT5" s="3">
-        <v>66.5282</v>
+        <v>373.38</v>
+      </c>
+      <c r="AT5">
+        <v>51.3066</v>
       </c>
       <c r="AU5" s="3">
-        <v>250.967</v>
+        <v>250.815</v>
       </c>
       <c r="AV5" s="3">
-        <v>246.652</v>
+        <v>246.708</v>
       </c>
       <c r="AW5">
-        <v>1.61376</v>
+        <v>1.61474</v>
       </c>
       <c r="AX5">
-        <v>1.64199</v>
+        <v>1.64161</v>
       </c>
       <c r="AY5">
-        <v>70.62950000000001</v>
+        <v>70.45460000000001</v>
       </c>
       <c r="AZ5">
-        <v>71.1216</v>
-      </c>
-      <c r="BA5" s="3">
-        <v>66.6889</v>
-      </c>
-      <c r="BB5" s="4">
-        <v>6.699260000000001</v>
-      </c>
-      <c r="BC5" s="4">
-        <v>6.67455</v>
+        <v>70.63409999999999</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>-49.9839</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>6.70781</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>6.73355</v>
       </c>
       <c r="BD5">
-        <v>60.4544</v>
+        <v>60.3774</v>
       </c>
       <c r="BE5">
-        <v>60.6782</v>
+        <v>60.1466</v>
       </c>
       <c r="BF5">
-        <v>86.12860000000001</v>
+        <v>86.1919</v>
       </c>
       <c r="BG5">
-        <v>86.1221</v>
-      </c>
-      <c r="BH5" s="3">
-        <v>66.6696</v>
-      </c>
-      <c r="BI5" s="4">
-        <v>13.1326</v>
-      </c>
-      <c r="BJ5" s="4">
-        <v>10.4059</v>
+        <v>85.8485</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>-50.0361</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>13.251</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>10.0198</v>
       </c>
       <c r="BK5">
-        <v>30.8394</v>
+        <v>30.5637</v>
       </c>
       <c r="BL5">
-        <v>38.9201</v>
-      </c>
-      <c r="BM5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BN5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BO5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BP5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BQ5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BR5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BT5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BU5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BV5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BW5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BX5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BY5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BZ5" s="2" t="s">
-        <v>116</v>
+        <v>40.4199</v>
+      </c>
+      <c r="BM5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ5" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:78">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
         <v>95</v>
@@ -2066,216 +2080,216 @@
         <v>114</v>
       </c>
       <c r="S6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T6">
-        <v>295.347</v>
+        <v>292.441</v>
       </c>
       <c r="U6">
-        <v>293.624</v>
+        <v>289.5770000000001</v>
       </c>
       <c r="V6">
-        <v>294.485</v>
-      </c>
-      <c r="W6" s="3">
-        <v>66.6173</v>
+        <v>291.009</v>
+      </c>
+      <c r="W6" s="2">
+        <v>-50.3046</v>
       </c>
       <c r="X6" s="3">
-        <v>194.55</v>
+        <v>191.45</v>
       </c>
       <c r="Y6" s="3">
-        <v>172.877</v>
+        <v>166.74</v>
       </c>
       <c r="Z6">
-        <v>2.08173</v>
+        <v>2.11544</v>
       </c>
       <c r="AA6">
-        <v>2.3427</v>
+        <v>2.42894</v>
       </c>
       <c r="AB6" s="3">
-        <v>462.298</v>
+        <v>462.722</v>
       </c>
       <c r="AC6" s="3">
-        <v>454.127</v>
+        <v>449.422</v>
       </c>
       <c r="AD6" s="3">
-        <v>458.213</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>66.28830000000001</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>26.8291</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>24.6523</v>
+        <v>456.0720000000001</v>
+      </c>
+      <c r="AE6">
+        <v>51.2981</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>26.3341</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>24.7831</v>
       </c>
       <c r="AH6">
-        <v>20.1274</v>
+        <v>20.5058</v>
       </c>
       <c r="AI6">
-        <v>21.9047</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>463.248</v>
+        <v>21.789</v>
+      </c>
+      <c r="AJ6">
+        <v>-537.654</v>
       </c>
       <c r="AK6" s="3">
-        <v>452.147</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>457.698</v>
-      </c>
-      <c r="AM6" s="4">
-        <v>24.7372</v>
-      </c>
-      <c r="AN6" s="4">
-        <v>27.0493</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>24.9081</v>
+        <v>449.871</v>
+      </c>
+      <c r="AL6">
+        <v>-43.8915</v>
+      </c>
+      <c r="AM6">
+        <v>48.5912</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>27.1706</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>26.3236</v>
       </c>
       <c r="AP6">
-        <v>19.9635</v>
+        <v>19.8744</v>
       </c>
       <c r="AQ6">
-        <v>21.6797</v>
+        <v>20.5139</v>
       </c>
       <c r="AR6" s="3">
-        <v>382.6</v>
+        <v>380.106</v>
       </c>
       <c r="AS6" s="3">
-        <v>379.801</v>
-      </c>
-      <c r="AT6" s="3">
-        <v>66.5397</v>
+        <v>376.358</v>
+      </c>
+      <c r="AT6">
+        <v>51.124</v>
       </c>
       <c r="AU6" s="3">
-        <v>249.637</v>
+        <v>248.819</v>
       </c>
       <c r="AV6" s="3">
-        <v>246.873</v>
+        <v>245.341</v>
       </c>
       <c r="AW6">
-        <v>1.62236</v>
+        <v>1.62769</v>
       </c>
       <c r="AX6">
-        <v>1.64052</v>
+        <v>1.65076</v>
       </c>
       <c r="AY6">
-        <v>69.30749999999999</v>
+        <v>69.1622</v>
       </c>
       <c r="AZ6">
-        <v>69.5248</v>
-      </c>
-      <c r="BA6" s="3">
-        <v>66.6908</v>
-      </c>
-      <c r="BB6" s="4">
-        <v>6.27938</v>
-      </c>
-      <c r="BC6" s="4">
-        <v>6.12542</v>
+        <v>68.85939999999999</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>-50.0288</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>6.23503</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>4.712630000000001</v>
       </c>
       <c r="BD6">
-        <v>64.49679999999999</v>
+        <v>64.9555</v>
       </c>
       <c r="BE6">
-        <v>66.11790000000001</v>
+        <v>85.9392</v>
       </c>
       <c r="BF6">
-        <v>85.6922</v>
+        <v>85.3224</v>
       </c>
       <c r="BG6">
-        <v>85.25320000000001</v>
-      </c>
-      <c r="BH6" s="3">
-        <v>66.6721</v>
-      </c>
-      <c r="BI6" s="4">
-        <v>12.8903</v>
-      </c>
-      <c r="BJ6" s="4">
-        <v>9.241949999999999</v>
+        <v>84.0471</v>
+      </c>
+      <c r="BH6" s="2">
+        <v>-50.1311</v>
+      </c>
+      <c r="BI6" s="2">
+        <v>12.6271</v>
+      </c>
+      <c r="BJ6" s="2">
+        <v>9.469510000000001</v>
       </c>
       <c r="BK6">
-        <v>31.4189</v>
+        <v>32.0739</v>
       </c>
       <c r="BL6">
-        <v>43.8219</v>
-      </c>
-      <c r="BM6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BN6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BO6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BP6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BQ6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BR6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BT6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BU6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BV6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BW6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BX6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BY6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BZ6" s="2" t="s">
-        <v>116</v>
+        <v>42.7689</v>
+      </c>
+      <c r="BM6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ6" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:78">
       <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
         <v>119</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>120</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>121</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>122</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>123</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>124</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>125</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>126</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>127</v>
-      </c>
-      <c r="J7" t="s">
-        <v>128</v>
       </c>
       <c r="K7" t="s">
         <v>104</v>
@@ -2296,222 +2310,222 @@
         <v>106</v>
       </c>
       <c r="Q7" t="s">
+        <v>128</v>
+      </c>
+      <c r="R7" t="s">
         <v>129</v>
       </c>
-      <c r="R7" t="s">
-        <v>130</v>
-      </c>
       <c r="S7" t="s">
-        <v>130</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BQ7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BR7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BS7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BT7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BU7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BW7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BX7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T7">
+        <v>235.682</v>
+      </c>
+      <c r="U7">
+        <v>230.38</v>
+      </c>
+      <c r="V7">
+        <v>233.031</v>
+      </c>
+      <c r="W7" s="2">
+        <v>-50.5253</v>
+      </c>
+      <c r="X7" s="3">
+        <v>98.12729999999999</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>113.787</v>
+      </c>
+      <c r="Z7">
+        <v>5.04447</v>
+      </c>
+      <c r="AA7">
+        <v>4.35024</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>369.163</v>
+      </c>
+      <c r="AC7">
+        <v>260.27</v>
+      </c>
+      <c r="AD7">
+        <v>314.717</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>60.8387</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>16.5114</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>16.5914</v>
+      </c>
+      <c r="AH7">
+        <v>38.1797</v>
+      </c>
+      <c r="AI7">
+        <v>37.9956</v>
+      </c>
+      <c r="AJ7">
+        <v>-630.977</v>
+      </c>
+      <c r="AK7">
+        <v>261.604</v>
+      </c>
+      <c r="AL7">
+        <v>-184.687</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>39.1387</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>16.1607</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>16.0039</v>
+      </c>
+      <c r="AP7">
+        <v>39.0083</v>
+      </c>
+      <c r="AQ7">
+        <v>39.3904</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>323.303</v>
+      </c>
+      <c r="AS7">
+        <v>317.271</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>51.5791</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>242.946</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>245.689</v>
+      </c>
+      <c r="AW7">
+        <v>2.03749</v>
+      </c>
+      <c r="AX7">
+        <v>2.01474</v>
+      </c>
+      <c r="AY7">
+        <v>56.1142</v>
+      </c>
+      <c r="AZ7">
+        <v>55.1318</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>-50.0989</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>6.48291</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>6.10493</v>
+      </c>
+      <c r="BD7">
+        <v>72.9302</v>
+      </c>
+      <c r="BE7">
+        <v>77.4456</v>
+      </c>
+      <c r="BF7">
+        <v>65.12280000000001</v>
+      </c>
+      <c r="BG7">
+        <v>63.96640000000001</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>-50.1152</v>
+      </c>
+      <c r="BI7" s="2">
+        <v>8.890080000000001</v>
+      </c>
+      <c r="BJ7" s="2">
+        <v>6.6154</v>
+      </c>
+      <c r="BK7">
+        <v>53.1829</v>
+      </c>
+      <c r="BL7">
+        <v>71.4695</v>
+      </c>
+      <c r="BM7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ7" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:78">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
         <v>120</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>121</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>122</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>123</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>124</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>125</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>126</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>127</v>
-      </c>
-      <c r="J8" t="s">
-        <v>128</v>
       </c>
       <c r="K8" t="s">
         <v>110</v>
@@ -2532,222 +2546,222 @@
         <v>106</v>
       </c>
       <c r="Q8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S8" t="s">
-        <v>132</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BQ8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BR8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BS8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BT8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BU8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BW8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BX8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T8">
+        <v>222.378</v>
+      </c>
+      <c r="U8">
+        <v>219.969</v>
+      </c>
+      <c r="V8">
+        <v>221.174</v>
+      </c>
+      <c r="W8" s="2">
+        <v>-50.2312</v>
+      </c>
+      <c r="X8">
+        <v>38.3678</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>113.244</v>
+      </c>
+      <c r="Z8">
+        <v>12.9014</v>
+      </c>
+      <c r="AA8">
+        <v>4.3711</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>350.992</v>
+      </c>
+      <c r="AC8">
+        <v>331.271</v>
+      </c>
+      <c r="AD8">
+        <v>341.132</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>51.7587</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>14.4371</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>13.8456</v>
+      </c>
+      <c r="AH8">
+        <v>43.6653</v>
+      </c>
+      <c r="AI8">
+        <v>45.5308</v>
+      </c>
+      <c r="AJ8">
+        <v>-649.202</v>
+      </c>
+      <c r="AK8">
+        <v>331.414</v>
+      </c>
+      <c r="AL8">
+        <v>-158.894</v>
+      </c>
+      <c r="AM8" s="6">
+        <v>48.1646</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>14.338</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>13.8729</v>
+      </c>
+      <c r="AP8">
+        <v>43.9672</v>
+      </c>
+      <c r="AQ8">
+        <v>45.441</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>309.513</v>
+      </c>
+      <c r="AS8">
+        <v>308.167</v>
+      </c>
+      <c r="AT8">
+        <v>51.0386</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>245.438</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>243.025</v>
+      </c>
+      <c r="AW8">
+        <v>2.01681</v>
+      </c>
+      <c r="AX8">
+        <v>2.03683</v>
+      </c>
+      <c r="AY8">
+        <v>48.2753</v>
+      </c>
+      <c r="AZ8">
+        <v>48.2517</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>-50.002</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>4.729</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>4.68598</v>
+      </c>
+      <c r="BD8">
+        <v>99.979</v>
+      </c>
+      <c r="BE8">
+        <v>100.897</v>
+      </c>
+      <c r="BF8">
+        <v>56.5755</v>
+      </c>
+      <c r="BG8">
+        <v>56.2359</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>-50.0325</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>7.83269</v>
+      </c>
+      <c r="BJ8" s="2">
+        <v>5.620590000000001</v>
+      </c>
+      <c r="BK8">
+        <v>60.3624</v>
+      </c>
+      <c r="BL8">
+        <v>84.11920000000001</v>
+      </c>
+      <c r="BM8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ8" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:78">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
         <v>120</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>121</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>122</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>123</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>124</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>125</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>126</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>127</v>
-      </c>
-      <c r="J9" t="s">
-        <v>128</v>
       </c>
       <c r="K9" t="s">
         <v>104</v>
@@ -2768,7 +2782,7 @@
         <v>113</v>
       </c>
       <c r="Q9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R9" t="s">
         <v>92</v>
@@ -2776,214 +2790,214 @@
       <c r="S9" t="s">
         <v>92</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BQ9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BR9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BS9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BT9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BU9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BW9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BX9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ9" s="2" t="s">
+      <c r="T9">
+        <v>244.031</v>
+      </c>
+      <c r="U9">
+        <v>240.824</v>
+      </c>
+      <c r="V9">
+        <v>242.427</v>
+      </c>
+      <c r="W9" s="2">
+        <v>-50.3018</v>
+      </c>
+      <c r="X9" s="3">
+        <v>612.9870000000001</v>
+      </c>
+      <c r="Y9">
+        <v>41.4341</v>
+      </c>
+      <c r="Z9">
+        <v>0.6607</v>
+      </c>
+      <c r="AA9">
+        <v>9.774559999999999</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>384.695</v>
+      </c>
+      <c r="AC9">
+        <v>330.815</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>357.7550000000001</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>54.6383</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>18.6654</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>18.2264</v>
+      </c>
+      <c r="AH9">
+        <v>28.9306</v>
+      </c>
+      <c r="AI9">
+        <v>29.6274</v>
+      </c>
+      <c r="AJ9">
+        <v>-615.298</v>
+      </c>
+      <c r="AK9">
+        <v>333.733</v>
+      </c>
+      <c r="AL9">
+        <v>-140.783</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>44.7194</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>18.6642</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>17.4353</v>
+      </c>
+      <c r="AP9">
+        <v>28.9324</v>
+      </c>
+      <c r="AQ9">
+        <v>30.9717</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>331.507</v>
+      </c>
+      <c r="AS9">
+        <v>327.738</v>
+      </c>
+      <c r="AT9">
+        <v>51.4665</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>247.968</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>247.331</v>
+      </c>
+      <c r="AW9">
+        <v>1.63327</v>
+      </c>
+      <c r="AX9">
+        <v>1.63748</v>
+      </c>
+      <c r="AY9">
+        <v>58.47470000000001</v>
+      </c>
+      <c r="AZ9">
+        <v>57.932</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>-50.0466</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>6.145770000000001</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>6.19936</v>
+      </c>
+      <c r="BD9">
+        <v>65.899</v>
+      </c>
+      <c r="BE9">
+        <v>65.3293</v>
+      </c>
+      <c r="BF9">
+        <v>68.32130000000001</v>
+      </c>
+      <c r="BG9">
+        <v>67.8818</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>-50.0286</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>9.38917</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>7.25888</v>
+      </c>
+      <c r="BK9">
+        <v>43.1348</v>
+      </c>
+      <c r="BL9">
+        <v>55.7937</v>
+      </c>
+      <c r="BM9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ9" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:78">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
         <v>120</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>121</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>122</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>123</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>124</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>125</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>126</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>127</v>
-      </c>
-      <c r="J10" t="s">
-        <v>128</v>
       </c>
       <c r="K10" t="s">
         <v>110</v>
@@ -3004,189 +3018,189 @@
         <v>113</v>
       </c>
       <c r="Q10" t="s">
+        <v>128</v>
+      </c>
+      <c r="R10" t="s">
         <v>129</v>
       </c>
-      <c r="R10" t="s">
-        <v>130</v>
-      </c>
       <c r="S10" t="s">
-        <v>130</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BQ10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BR10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BS10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BT10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BU10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BW10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BX10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T10">
+        <v>236.263</v>
+      </c>
+      <c r="U10">
+        <v>233.443</v>
+      </c>
+      <c r="V10">
+        <v>234.853</v>
+      </c>
+      <c r="W10" s="2">
+        <v>-50.2589</v>
+      </c>
+      <c r="X10" s="3">
+        <v>192.434</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>159.997</v>
+      </c>
+      <c r="Z10">
+        <v>2.10461</v>
+      </c>
+      <c r="AA10">
+        <v>2.53129</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>373.521</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>359.05</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>366.285</v>
+      </c>
+      <c r="AE10">
+        <v>51.4526</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>16.2832</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>15.5037</v>
+      </c>
+      <c r="AH10">
+        <v>33.163</v>
+      </c>
+      <c r="AI10">
+        <v>34.8305</v>
+      </c>
+      <c r="AJ10">
+        <v>-625.7330000000001</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>359.983</v>
+      </c>
+      <c r="AL10">
+        <v>-132.875</v>
+      </c>
+      <c r="AM10">
+        <v>48.5578</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>15.6368</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>16.1709</v>
+      </c>
+      <c r="AP10">
+        <v>34.534</v>
+      </c>
+      <c r="AQ10">
+        <v>33.3934</v>
+      </c>
+      <c r="AR10" s="4">
+        <v>325.21</v>
+      </c>
+      <c r="AS10">
+        <v>320.885</v>
+      </c>
+      <c r="AT10">
+        <v>51.3461</v>
+      </c>
+      <c r="AU10" s="3">
+        <v>248.899</v>
+      </c>
+      <c r="AV10" s="3">
+        <v>247.193</v>
+      </c>
+      <c r="AW10">
+        <v>1.62716</v>
+      </c>
+      <c r="AX10">
+        <v>1.6384</v>
+      </c>
+      <c r="AY10">
+        <v>52.8252</v>
+      </c>
+      <c r="AZ10">
+        <v>52.0316</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>-50.0798</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>4.74493</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>4.59153</v>
+      </c>
+      <c r="BD10">
+        <v>85.35420000000001</v>
+      </c>
+      <c r="BE10">
+        <v>88.206</v>
+      </c>
+      <c r="BF10">
+        <v>62.61000000000001</v>
+      </c>
+      <c r="BG10">
+        <v>61.2276</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>-50.1375</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>8.52055</v>
+      </c>
+      <c r="BJ10" s="2">
+        <v>6.53636</v>
+      </c>
+      <c r="BK10">
+        <v>47.5321</v>
+      </c>
+      <c r="BL10">
+        <v>61.9611</v>
+      </c>
+      <c r="BM10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ10" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3428,184 +3442,184 @@
     </row>
     <row r="12" spans="1:78" s="1" customFormat="1">
       <c r="S12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T12" s="1">
-        <v>292.734</v>
+        <v>222.378</v>
       </c>
       <c r="U12" s="1">
-        <v>289.018</v>
+        <v>219.969</v>
       </c>
       <c r="V12" s="1">
-        <v>290.876</v>
-      </c>
-      <c r="W12" s="3">
-        <v>66.5839</v>
-      </c>
-      <c r="X12" s="3">
-        <v>194.55</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>172.877</v>
+        <v>221.174</v>
+      </c>
+      <c r="W12" s="2">
+        <v>-50.5253</v>
+      </c>
+      <c r="X12" s="2">
+        <v>-1920.1</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>-957.59</v>
       </c>
       <c r="Z12" s="1">
-        <v>2.03064</v>
+        <v>-0.257799</v>
       </c>
       <c r="AA12" s="1">
-        <v>2.22103</v>
+        <v>-0.516923</v>
       </c>
       <c r="AB12" s="3">
-        <v>456.384</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>437.516</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>446.95</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>66.0146</v>
-      </c>
-      <c r="AF12" s="4">
-        <v>26.8291</v>
-      </c>
-      <c r="AG12" s="4">
-        <v>24.6523</v>
+        <v>350.992</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>260.27</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>314.717</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>50.9981</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>14.4371</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>13.8456</v>
       </c>
       <c r="AH12" s="1">
-        <v>19.7127</v>
+        <v>19.9826</v>
       </c>
       <c r="AI12" s="1">
-        <v>20.513</v>
-      </c>
-      <c r="AJ12" s="3">
-        <v>457.613</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>436.753</v>
-      </c>
-      <c r="AL12" s="3">
-        <v>447.183</v>
-      </c>
-      <c r="AM12" s="4">
-        <v>24.5343</v>
-      </c>
-      <c r="AN12" s="4">
-        <v>27.0493</v>
-      </c>
-      <c r="AO12" s="4">
-        <v>24.9081</v>
+        <v>20.4294</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>-649.202</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>261.604</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>-184.687</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>39.1387</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>14.338</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>13.8729</v>
       </c>
       <c r="AP12" s="1">
-        <v>19.8912</v>
+        <v>19.8744</v>
       </c>
       <c r="AQ12" s="1">
-        <v>20.7884</v>
-      </c>
-      <c r="AR12" s="3">
-        <v>380.488</v>
-      </c>
-      <c r="AS12" s="3">
-        <v>377.126</v>
-      </c>
-      <c r="AT12" s="3">
-        <v>66.5282</v>
+        <v>20.4982</v>
+      </c>
+      <c r="AR12" s="4">
+        <v>309.513</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>308.167</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>51.0386</v>
       </c>
       <c r="AU12" s="3">
-        <v>249.637</v>
+        <v>242.946</v>
       </c>
       <c r="AV12" s="3">
-        <v>246.652</v>
+        <v>243.025</v>
       </c>
       <c r="AW12" s="1">
-        <v>1.61376</v>
+        <v>1.61474</v>
       </c>
       <c r="AX12" s="1">
-        <v>1.64052</v>
+        <v>1.63748</v>
       </c>
       <c r="AY12" s="1">
-        <v>69.30749999999999</v>
+        <v>48.2753</v>
       </c>
       <c r="AZ12" s="1">
-        <v>69.5248</v>
-      </c>
-      <c r="BA12" s="3">
-        <v>66.6889</v>
-      </c>
-      <c r="BB12" s="4">
-        <v>6.27938</v>
-      </c>
-      <c r="BC12" s="4">
-        <v>6.12542</v>
+        <v>48.2517</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>-50.0989</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>4.406680000000001</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>4.26883</v>
       </c>
       <c r="BD12" s="1">
-        <v>60.4544</v>
+        <v>60.3774</v>
       </c>
       <c r="BE12" s="1">
-        <v>60.6782</v>
+        <v>60.1466</v>
       </c>
       <c r="BF12" s="1">
-        <v>85.6922</v>
+        <v>56.5755</v>
       </c>
       <c r="BG12" s="1">
-        <v>85.25320000000001</v>
-      </c>
-      <c r="BH12" s="3">
-        <v>66.6696</v>
-      </c>
-      <c r="BI12" s="4">
-        <v>12.8903</v>
-      </c>
-      <c r="BJ12" s="4">
-        <v>9.241949999999999</v>
+        <v>56.2359</v>
+      </c>
+      <c r="BH12" s="2">
+        <v>-50.1375</v>
+      </c>
+      <c r="BI12" s="2">
+        <v>7.83269</v>
+      </c>
+      <c r="BJ12" s="2">
+        <v>5.620590000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>30.8394</v>
+        <v>30.5637</v>
       </c>
       <c r="BL12" s="1">
-        <v>38.9201</v>
+        <v>40.4199</v>
       </c>
       <c r="BM12" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BO12" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BP12" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BQ12" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BR12" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BS12" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BT12" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BV12" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BW12" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BY12" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BZ12" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:78" s="1" customFormat="1">
@@ -3613,181 +3627,181 @@
         <v>136</v>
       </c>
       <c r="T13" s="1">
-        <v>295.347</v>
+        <v>292.441</v>
       </c>
       <c r="U13" s="1">
-        <v>293.624</v>
+        <v>289.5770000000001</v>
       </c>
       <c r="V13" s="1">
-        <v>294.485</v>
-      </c>
-      <c r="W13" s="3">
-        <v>66.6173</v>
+        <v>291.009</v>
+      </c>
+      <c r="W13" s="2">
+        <v>-50.079</v>
       </c>
       <c r="X13" s="3">
-        <v>199.444</v>
+        <v>1573.92</v>
       </c>
       <c r="Y13" s="3">
-        <v>182.348</v>
+        <v>2124.11</v>
       </c>
       <c r="Z13" s="1">
-        <v>2.08173</v>
+        <v>12.9014</v>
       </c>
       <c r="AA13" s="1">
-        <v>2.3427</v>
+        <v>9.774559999999999</v>
       </c>
       <c r="AB13" s="3">
-        <v>462.298</v>
+        <v>462.722</v>
       </c>
       <c r="AC13" s="3">
-        <v>454.127</v>
+        <v>449.422</v>
       </c>
       <c r="AD13" s="3">
-        <v>458.213</v>
+        <v>456.0720000000001</v>
       </c>
       <c r="AE13" s="3">
-        <v>66.28830000000001</v>
-      </c>
-      <c r="AF13" s="4">
-        <v>27.3935</v>
-      </c>
-      <c r="AG13" s="4">
-        <v>26.3248</v>
+        <v>60.8387</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>27.0235</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>26.4325</v>
       </c>
       <c r="AH13" s="1">
-        <v>20.1274</v>
+        <v>43.6653</v>
       </c>
       <c r="AI13" s="1">
-        <v>21.9047</v>
-      </c>
-      <c r="AJ13" s="3">
-        <v>463.248</v>
+        <v>45.5308</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>-537.654</v>
       </c>
       <c r="AK13" s="3">
-        <v>452.147</v>
-      </c>
-      <c r="AL13" s="3">
-        <v>457.698</v>
-      </c>
-      <c r="AM13" s="4">
-        <v>24.7372</v>
-      </c>
-      <c r="AN13" s="4">
-        <v>27.1476</v>
-      </c>
-      <c r="AO13" s="4">
-        <v>25.9761</v>
+        <v>449.871</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>-43.8915</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>48.7139</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>27.1706</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>26.3437</v>
       </c>
       <c r="AP13" s="1">
-        <v>19.9635</v>
+        <v>43.9672</v>
       </c>
       <c r="AQ13" s="1">
-        <v>21.6797</v>
+        <v>45.441</v>
       </c>
       <c r="AR13" s="3">
-        <v>382.6</v>
+        <v>380.106</v>
       </c>
       <c r="AS13" s="3">
-        <v>379.801</v>
-      </c>
-      <c r="AT13" s="3">
-        <v>66.5397</v>
+        <v>376.358</v>
+      </c>
+      <c r="AT13" s="4">
+        <v>51.5791</v>
       </c>
       <c r="AU13" s="3">
-        <v>250.967</v>
+        <v>250.815</v>
       </c>
       <c r="AV13" s="3">
-        <v>246.873</v>
+        <v>247.722</v>
       </c>
       <c r="AW13" s="1">
-        <v>1.62236</v>
+        <v>2.03749</v>
       </c>
       <c r="AX13" s="1">
-        <v>1.64199</v>
+        <v>2.03683</v>
       </c>
       <c r="AY13" s="1">
-        <v>70.62950000000001</v>
+        <v>70.45460000000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>71.1216</v>
-      </c>
-      <c r="BA13" s="3">
-        <v>66.6908</v>
-      </c>
-      <c r="BB13" s="4">
-        <v>6.699260000000001</v>
-      </c>
-      <c r="BC13" s="4">
-        <v>6.67455</v>
+        <v>70.63409999999999</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>-49.9839</v>
+      </c>
+      <c r="BB13" s="2">
+        <v>6.70781</v>
+      </c>
+      <c r="BC13" s="2">
+        <v>6.73355</v>
       </c>
       <c r="BD13" s="1">
-        <v>64.49679999999999</v>
+        <v>107.292</v>
       </c>
       <c r="BE13" s="1">
-        <v>66.11790000000001</v>
+        <v>110.756</v>
       </c>
       <c r="BF13" s="1">
-        <v>86.12860000000001</v>
+        <v>86.1919</v>
       </c>
       <c r="BG13" s="1">
-        <v>86.1221</v>
-      </c>
-      <c r="BH13" s="3">
-        <v>66.6721</v>
-      </c>
-      <c r="BI13" s="4">
-        <v>13.1326</v>
-      </c>
-      <c r="BJ13" s="4">
-        <v>10.4059</v>
+        <v>85.8485</v>
+      </c>
+      <c r="BH13" s="2">
+        <v>-50.0286</v>
+      </c>
+      <c r="BI13" s="2">
+        <v>13.251</v>
+      </c>
+      <c r="BJ13" s="2">
+        <v>10.0198</v>
       </c>
       <c r="BK13" s="1">
-        <v>31.4189</v>
+        <v>60.3624</v>
       </c>
       <c r="BL13" s="1">
-        <v>43.8219</v>
+        <v>84.11920000000001</v>
       </c>
       <c r="BM13" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BN13" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BO13" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BP13" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BQ13" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BR13" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BS13" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BV13" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BY13" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BZ13" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:78" s="1" customFormat="1">
@@ -4079,181 +4093,181 @@
         <v>141</v>
       </c>
       <c r="T18" s="1">
-        <v>294.0405</v>
+        <v>254.1593333333334</v>
       </c>
       <c r="U18" s="1">
-        <v>291.321</v>
+        <v>251.2834444444445</v>
       </c>
       <c r="V18" s="1">
-        <v>292.6805000000001</v>
+        <v>252.7215555555555</v>
       </c>
       <c r="W18" s="1">
-        <v>66.6006</v>
+        <v>-50.27478888888889</v>
       </c>
       <c r="X18" s="1">
-        <v>196.997</v>
+        <v>125.4331222222222</v>
       </c>
       <c r="Y18" s="1">
-        <v>177.6125</v>
+        <v>232.1232333333333</v>
       </c>
       <c r="Z18" s="1">
-        <v>2.056185</v>
+        <v>3.108402555555555</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.281865</v>
+        <v>3.154740666666667</v>
       </c>
       <c r="AB18" s="1">
-        <v>459.341</v>
+        <v>397.8004444444445</v>
       </c>
       <c r="AC18" s="1">
-        <v>445.8215</v>
+        <v>366.0831111111112</v>
       </c>
       <c r="AD18" s="1">
-        <v>452.5815</v>
+        <v>381.9417777777778</v>
       </c>
       <c r="AE18" s="1">
-        <v>66.15145000000001</v>
+        <v>53.04461111111111</v>
       </c>
       <c r="AF18" s="1">
-        <v>27.1113</v>
+        <v>20.34577777777778</v>
       </c>
       <c r="AG18" s="1">
-        <v>25.48855</v>
+        <v>19.58514444444445</v>
       </c>
       <c r="AH18" s="1">
-        <v>19.92005</v>
+        <v>30.23251111111111</v>
       </c>
       <c r="AI18" s="1">
-        <v>21.20885</v>
+        <v>31.33734444444445</v>
       </c>
       <c r="AJ18" s="1">
-        <v>460.4305000000001</v>
+        <v>-602.199</v>
       </c>
       <c r="AK18" s="1">
-        <v>444.45</v>
+        <v>366.8782222222223</v>
       </c>
       <c r="AL18" s="1">
-        <v>452.4405</v>
+        <v>-117.6605888888889</v>
       </c>
       <c r="AM18" s="1">
-        <v>24.63575</v>
+        <v>46.83391111111111</v>
       </c>
       <c r="AN18" s="1">
-        <v>27.09845</v>
+        <v>20.22204444444444</v>
       </c>
       <c r="AO18" s="1">
-        <v>25.4421</v>
+        <v>19.66142222222222</v>
       </c>
       <c r="AP18" s="1">
-        <v>19.92735</v>
+        <v>30.57201111111111</v>
       </c>
       <c r="AQ18" s="1">
-        <v>21.23405</v>
+        <v>31.36868888888889</v>
       </c>
       <c r="AR18" s="1">
-        <v>381.544</v>
+        <v>341.6277777777778</v>
       </c>
       <c r="AS18" s="1">
-        <v>378.4635</v>
+        <v>338.3201111111111</v>
       </c>
       <c r="AT18" s="1">
-        <v>66.53395</v>
+        <v>51.25483333333333</v>
       </c>
       <c r="AU18" s="1">
-        <v>250.302</v>
+        <v>246.8505555555556</v>
       </c>
       <c r="AV18" s="1">
-        <v>246.7625</v>
+        <v>245.9367777777778</v>
       </c>
       <c r="AW18" s="1">
-        <v>1.61806</v>
+        <v>1.824742222222222</v>
       </c>
       <c r="AX18" s="1">
-        <v>1.641255</v>
+        <v>1.830417777777778</v>
       </c>
       <c r="AY18" s="1">
-        <v>69.96850000000001</v>
+        <v>59.52465555555555</v>
       </c>
       <c r="AZ18" s="1">
-        <v>70.3232</v>
+        <v>59.09398888888889</v>
       </c>
       <c r="BA18" s="1">
-        <v>66.68985000000001</v>
+        <v>-50.04085555555556</v>
       </c>
       <c r="BB18" s="1">
-        <v>6.48932</v>
+        <v>5.481082222222223</v>
       </c>
       <c r="BC18" s="1">
-        <v>6.399985</v>
+        <v>5.389375555555556</v>
       </c>
       <c r="BD18" s="1">
-        <v>62.4756</v>
+        <v>82.66536666666667</v>
       </c>
       <c r="BE18" s="1">
-        <v>63.39805</v>
+        <v>84.21907777777778</v>
       </c>
       <c r="BF18" s="1">
-        <v>85.91040000000001</v>
+        <v>71.1632</v>
       </c>
       <c r="BG18" s="1">
-        <v>85.68765</v>
+        <v>70.33466666666668</v>
       </c>
       <c r="BH18" s="1">
-        <v>66.67085</v>
+        <v>-50.07883333333334</v>
       </c>
       <c r="BI18" s="1">
-        <v>13.01145</v>
+        <v>10.19822</v>
       </c>
       <c r="BJ18" s="1">
-        <v>9.823924999999999</v>
+        <v>7.641965555555554</v>
       </c>
       <c r="BK18" s="1">
-        <v>31.12915</v>
+        <v>44.57518888888889</v>
       </c>
       <c r="BL18" s="1">
-        <v>41.371</v>
+        <v>59.7205888888889</v>
       </c>
       <c r="BM18" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BN18" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BO18" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BP18" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BQ18" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BR18" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BS18" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BT18" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BU18" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BV18" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BW18" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BZ18" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="19:78" s="1" customFormat="1">
@@ -4261,181 +4275,181 @@
         <v>142</v>
       </c>
       <c r="T19" s="1">
-        <v>1.306499999999971</v>
+        <v>22.81645038124905</v>
       </c>
       <c r="U19" s="1">
-        <v>2.303000000000026</v>
+        <v>22.93760332879475</v>
       </c>
       <c r="V19" s="1">
-        <v>1.80449999999999</v>
+        <v>22.87026033525786</v>
       </c>
       <c r="W19" s="1">
-        <v>0.01670000000000016</v>
+        <v>0.120343992551394</v>
       </c>
       <c r="X19" s="1">
-        <v>2.447000000000003</v>
+        <v>852.5785604208367</v>
       </c>
       <c r="Y19" s="1">
-        <v>4.735500000000002</v>
+        <v>751.1755058975322</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.02554499999999993</v>
+        <v>3.767358886265995</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.06083499999999997</v>
+        <v>2.794391565281867</v>
       </c>
       <c r="AB19" s="1">
-        <v>2.956999999999994</v>
+        <v>35.31911528749493</v>
       </c>
       <c r="AC19" s="1">
-        <v>8.305499999999995</v>
+        <v>53.05072438806811</v>
       </c>
       <c r="AD19" s="1">
-        <v>5.631500000000017</v>
+        <v>42.52376402221803</v>
       </c>
       <c r="AE19" s="1">
-        <v>0.1368500000000026</v>
+        <v>2.950274436742923</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.2821999999999996</v>
+        <v>4.185823699047317</v>
       </c>
       <c r="AG19" s="1">
-        <v>0.8362500000000015</v>
+        <v>3.931596566030738</v>
       </c>
       <c r="AH19" s="1">
-        <v>0.2073499999999999</v>
+        <v>7.161070507254941</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.6958499999999983</v>
+        <v>7.26753868439211</v>
       </c>
       <c r="AJ19" s="1">
-        <v>2.817500000000024</v>
+        <v>35.16061821918885</v>
       </c>
       <c r="AK19" s="1">
-        <v>7.697000000000003</v>
+        <v>52.64823441964766</v>
       </c>
       <c r="AL19" s="1">
-        <v>5.257500000000022</v>
+        <v>42.28456293307272</v>
       </c>
       <c r="AM19" s="1">
-        <v>0.1014499999999998</v>
+        <v>2.967317687536243</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.04915000000000092</v>
+        <v>4.42661543020326</v>
       </c>
       <c r="AO19" s="1">
-        <v>0.5340000000000007</v>
+        <v>4.214912324586434</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.03614999999999924</v>
+        <v>7.477811810868566</v>
       </c>
       <c r="AQ19" s="1">
-        <v>0.4456500000000005</v>
+        <v>7.530199740960756</v>
       </c>
       <c r="AR19" s="1">
-        <v>1.056000000000012</v>
+        <v>22.70892342855447</v>
       </c>
       <c r="AS19" s="1">
-        <v>1.337500000000006</v>
+        <v>22.51871147115188</v>
       </c>
       <c r="AT19" s="1">
-        <v>0.005749999999999034</v>
+        <v>0.1711253731430062</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.664999999999992</v>
+        <v>2.563210968518933</v>
       </c>
       <c r="AV19" s="1">
-        <v>0.110500000000016</v>
+        <v>1.426078677724943</v>
       </c>
       <c r="AW19" s="1">
-        <v>0.004299999999999971</v>
+        <v>0.1889675187713944</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.0007350000000000412</v>
+        <v>0.1794305725701156</v>
       </c>
       <c r="AY19" s="1">
-        <v>0.6610000000000085</v>
+        <v>6.880328239603934</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.7984000000000009</v>
+        <v>6.967006516502451</v>
       </c>
       <c r="BA19" s="1">
-        <v>0.0009499999999960096</v>
+        <v>0.03803089712066311</v>
       </c>
       <c r="BB19" s="1">
-        <v>0.2099400000000005</v>
+        <v>0.8518139856248974</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.2745649999999999</v>
+        <v>0.9355580169920116</v>
       </c>
       <c r="BD19" s="1">
-        <v>2.021199999999997</v>
+        <v>16.18584001067325</v>
       </c>
       <c r="BE19" s="1">
-        <v>2.719850000000005</v>
+        <v>16.05015299821696</v>
       </c>
       <c r="BF19" s="1">
-        <v>0.2182000000000031</v>
+        <v>9.45158429071256</v>
       </c>
       <c r="BG19" s="1">
-        <v>0.4344499999999982</v>
+        <v>9.431852966529016</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.001249999999998863</v>
+        <v>0.03956732658815212</v>
       </c>
       <c r="BI19" s="1">
-        <v>0.1211499999999992</v>
+        <v>1.75415653242995</v>
       </c>
       <c r="BJ19" s="1">
-        <v>0.5819749999999999</v>
+        <v>1.364675544329625</v>
       </c>
       <c r="BK19" s="1">
-        <v>0.2897499999999997</v>
+        <v>8.830012606313442</v>
       </c>
       <c r="BL19" s="1">
-        <v>2.450900000000001</v>
+        <v>12.73308109483539</v>
       </c>
       <c r="BM19" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BN19" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BO19" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BP19" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BQ19" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BR19" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BS19" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BT19" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BU19" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BV19" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BW19" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BY19" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BZ19" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="19:78" s="1" customFormat="1">
@@ -4443,181 +4457,181 @@
         <v>143</v>
       </c>
       <c r="T20" s="1">
-        <v>0.4443265468532299</v>
+        <v>8.977223099387411</v>
       </c>
       <c r="U20" s="1">
-        <v>0.7905368991593553</v>
+        <v>9.128179287539954</v>
       </c>
       <c r="V20" s="1">
-        <v>0.6165426121658224</v>
+        <v>9.049588304797497</v>
       </c>
       <c r="W20" s="1">
-        <v>0.02507484917553319</v>
+        <v>0.2393724473261606</v>
       </c>
       <c r="X20" s="1">
-        <v>1.242150895698921</v>
+        <v>679.7076763427566</v>
       </c>
       <c r="Y20" s="1">
-        <v>2.666197480470125</v>
+        <v>323.6106507351765</v>
       </c>
       <c r="Z20" s="1">
-        <v>1.242349302227179</v>
+        <v>121.199195372321</v>
       </c>
       <c r="AA20" s="1">
-        <v>2.666020995983548</v>
+        <v>88.57753649318035</v>
       </c>
       <c r="AB20" s="1">
-        <v>0.6437483264067422</v>
+        <v>8.87860126371163</v>
       </c>
       <c r="AC20" s="1">
-        <v>1.862965334780847</v>
+        <v>14.49144272923492</v>
       </c>
       <c r="AD20" s="1">
-        <v>1.244306274118588</v>
+        <v>11.13357231294014</v>
       </c>
       <c r="AE20" s="1">
-        <v>0.2068737722302422</v>
+        <v>5.561874005566867</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.040894387211235</v>
+        <v>20.57342680513885</v>
       </c>
       <c r="AG20" s="1">
-        <v>3.280884946377888</v>
+        <v>20.07438125964897</v>
       </c>
       <c r="AH20" s="1">
-        <v>1.040911041889955</v>
+        <v>23.6866546775967</v>
       </c>
       <c r="AI20" s="1">
-        <v>3.280941682363723</v>
+        <v>23.19130358118304</v>
       </c>
       <c r="AJ20" s="1">
-        <v>0.6119273158489769</v>
+        <v>5.838704185690919</v>
       </c>
       <c r="AK20" s="1">
-        <v>1.731803352458095</v>
+        <v>14.3503296818087</v>
       </c>
       <c r="AL20" s="1">
-        <v>1.162031250518029</v>
+        <v>35.9377454527306</v>
       </c>
       <c r="AM20" s="1">
-        <v>0.4117999249058779</v>
+        <v>6.33583148863316</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.1813756875393276</v>
+        <v>21.89004896297404</v>
       </c>
       <c r="AO20" s="1">
-        <v>2.098883346893537</v>
+        <v>21.43747424244087</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.1814089680765342</v>
+        <v>24.45966601180131</v>
       </c>
       <c r="AQ20" s="1">
-        <v>2.098751768974833</v>
+        <v>24.00546534677779</v>
       </c>
       <c r="AR20" s="1">
-        <v>0.2767701759168043</v>
+        <v>6.647270774136578</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.3534026398846932</v>
+        <v>6.656036910485727</v>
       </c>
       <c r="AT20" s="1">
-        <v>0.008642204468544305</v>
+        <v>0.3338716800230344</v>
       </c>
       <c r="AU20" s="1">
-        <v>0.2656790596958842</v>
+        <v>1.038365485040224</v>
       </c>
       <c r="AV20" s="1">
-        <v>0.04477989970113613</v>
+        <v>0.5798558030281714</v>
       </c>
       <c r="AW20" s="1">
-        <v>0.2657503430033479</v>
+        <v>10.35584733394641</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.04478280340349557</v>
+        <v>9.802711421867505</v>
       </c>
       <c r="AY20" s="1">
-        <v>0.9447108341610988</v>
+        <v>11.55878715363986</v>
       </c>
       <c r="AZ20" s="1">
-        <v>1.13532945030943</v>
+        <v>11.78970424488034</v>
       </c>
       <c r="BA20" s="1">
-        <v>0.00142450462850945</v>
+        <v>0.07599969404687947</v>
       </c>
       <c r="BB20" s="1">
-        <v>3.235161773498617</v>
+        <v>15.54098170925709</v>
       </c>
       <c r="BC20" s="1">
-        <v>4.290088179894171</v>
+        <v>17.35930271230784</v>
       </c>
       <c r="BD20" s="1">
-        <v>3.235183015449226</v>
+        <v>19.57995308475406</v>
       </c>
       <c r="BE20" s="1">
-        <v>4.29011617865219</v>
+        <v>19.05762141039733</v>
       </c>
       <c r="BF20" s="1">
-        <v>0.2539855477334561</v>
+        <v>13.281561664895</v>
       </c>
       <c r="BG20" s="1">
-        <v>0.507015888520689</v>
+        <v>13.40996327064276</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.001874882351130761</v>
+        <v>0.07901008061586655</v>
       </c>
       <c r="BI20" s="1">
-        <v>0.9311029900587499</v>
+        <v>17.20061473894415</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.924057848568673</v>
+        <v>17.85765107692135</v>
       </c>
       <c r="BK20" s="1">
-        <v>0.9307995881673599</v>
+        <v>19.80925448980985</v>
       </c>
       <c r="BL20" s="1">
-        <v>5.924198109787052</v>
+        <v>21.32109098677089</v>
       </c>
       <c r="BM20" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BN20" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BO20" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BP20" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BQ20" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BR20" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BS20" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BT20" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BU20" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BV20" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BW20" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BY20" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="BZ20" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="19:78" s="1" customFormat="1"/>

--- a/txsb_top_timing_bdlmax_tran_channel_s_tsmc2ff_meas.xlsx
+++ b/txsb_top_timing_bdlmax_tran_channel_s_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="135">
   <si>
     <t>Process</t>
   </si>
@@ -64,15 +64,15 @@
     <t>vccaon</t>
   </si>
   <si>
+    <t>pcal</t>
+  </si>
+  <si>
+    <t>ncal</t>
+  </si>
+  <si>
     <t>rcxt_corner</t>
   </si>
   <si>
-    <t>pcal_50ohms</t>
-  </si>
-  <si>
-    <t>ncal_50ohms</t>
-  </si>
-  <si>
     <t>rise_tpd_fe (ps)</t>
   </si>
   <si>
@@ -286,15 +286,12 @@
     <t>0.750</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>typical</t>
   </si>
   <si>
-    <t>8.00000e00</t>
-  </si>
-  <si>
-    <t>6.00000e00</t>
-  </si>
-  <si>
     <t>error</t>
   </si>
   <si>
@@ -337,39 +334,21 @@
     <t>0.825</t>
   </si>
   <si>
-    <t>1.80000e01</t>
-  </si>
-  <si>
-    <t>1.60000e01</t>
-  </si>
-  <si>
     <t>tsmc2ff (2)</t>
   </si>
   <si>
     <t>-20</t>
   </si>
   <si>
-    <t>1.50000e01</t>
-  </si>
-  <si>
     <t>tsmc2ff (3)</t>
   </si>
   <si>
     <t>0.675</t>
   </si>
   <si>
-    <t>2.30000e01</t>
-  </si>
-  <si>
-    <t>2.00000e01</t>
-  </si>
-  <si>
     <t>tsmc2ff (4)</t>
   </si>
   <si>
-    <t>1.90000e01</t>
-  </si>
-  <si>
     <t>tsmc2ff (5)</t>
   </si>
   <si>
@@ -403,13 +382,7 @@
     <t>rcbest_ccbest_t</t>
   </si>
   <si>
-    <t>3.00000e00</t>
-  </si>
-  <si>
     <t>tsmc2ff (6)</t>
-  </si>
-  <si>
-    <t>1.00000e00</t>
   </si>
   <si>
     <t>tsmc2ff (7)</t>
@@ -498,13 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9133"/>
+        <fgColor rgb="FFFFE8B8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE8B8"/>
+        <fgColor rgb="FFFF9133"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,8 +510,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -1133,2075 +1106,2075 @@
         <v>90</v>
       </c>
       <c r="R2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" t="s">
         <v>91</v>
       </c>
-      <c r="S2" t="s">
-        <v>92</v>
-      </c>
       <c r="T2">
-        <v>246.414</v>
+        <v>248.309</v>
       </c>
       <c r="U2">
-        <v>245.115</v>
+        <v>245.786</v>
       </c>
       <c r="V2">
-        <v>245.765</v>
+        <v>247.048</v>
       </c>
       <c r="W2" s="2">
-        <v>-50.1445</v>
-      </c>
-      <c r="X2" s="3">
-        <v>152.373</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>165.903</v>
+        <v>-50.2809</v>
+      </c>
+      <c r="X2" s="2">
+        <v>27.2116</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>25.1812</v>
       </c>
       <c r="Z2">
-        <v>2.95328</v>
+        <v>16.537</v>
       </c>
       <c r="AA2">
-        <v>2.71244</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>385.798</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>372.562</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>379.18</v>
-      </c>
-      <c r="AE2">
-        <v>51.2815</v>
+        <v>17.8705</v>
+      </c>
+      <c r="AB2">
+        <v>215.013</v>
+      </c>
+      <c r="AC2">
+        <v>196.676</v>
+      </c>
+      <c r="AD2">
+        <v>205.845</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>51.887</v>
       </c>
       <c r="AF2" s="2">
-        <v>19.4364</v>
+        <v>18.0472</v>
       </c>
       <c r="AG2" s="2">
-        <v>18.901</v>
+        <v>19.0761</v>
       </c>
       <c r="AH2">
-        <v>30.8699</v>
+        <v>33.2461</v>
       </c>
       <c r="AI2">
-        <v>31.7444</v>
+        <v>31.453</v>
       </c>
       <c r="AJ2">
-        <v>-614.158</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>373.121</v>
+        <v>213.632</v>
+      </c>
+      <c r="AK2">
+        <v>196.096</v>
       </c>
       <c r="AL2">
-        <v>-120.519</v>
-      </c>
-      <c r="AM2">
-        <v>48.7139</v>
+        <v>204.864</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>51.7013</v>
       </c>
       <c r="AN2" s="2">
-        <v>19.4693</v>
+        <v>18.4369</v>
       </c>
       <c r="AO2" s="2">
-        <v>18.3481</v>
+        <v>18.7268</v>
       </c>
       <c r="AP2">
-        <v>30.8178</v>
+        <v>32.5435</v>
       </c>
       <c r="AQ2">
-        <v>32.7009</v>
-      </c>
-      <c r="AR2" s="4">
-        <v>334.184</v>
+        <v>32.0396</v>
+      </c>
+      <c r="AR2">
+        <v>-740.692</v>
       </c>
       <c r="AS2">
-        <v>333.183</v>
-      </c>
-      <c r="AT2">
-        <v>51.127</v>
-      </c>
-      <c r="AU2" s="3">
-        <v>247.866</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>247.722</v>
+        <v>-844.467</v>
+      </c>
+      <c r="AT2" s="4">
+        <v>63.1507</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>238.475</v>
+      </c>
+      <c r="AV2" s="4">
+        <v>236.784</v>
       </c>
       <c r="AW2">
-        <v>1.8155</v>
+        <v>1.88699</v>
       </c>
       <c r="AX2">
-        <v>1.81656</v>
+        <v>1.90047</v>
       </c>
       <c r="AY2">
-        <v>56.9438</v>
+        <v>58.6853</v>
       </c>
       <c r="AZ2">
-        <v>56.5825</v>
+        <v>59.10270000000001</v>
       </c>
       <c r="BA2" s="2">
-        <v>-50.0387</v>
+        <v>-49.9607</v>
       </c>
       <c r="BB2" s="2">
-        <v>4.65464</v>
+        <v>4.85821</v>
       </c>
       <c r="BC2" s="2">
-        <v>4.612410000000001</v>
+        <v>4.59843</v>
       </c>
       <c r="BD2">
-        <v>96.6777</v>
+        <v>92.6267</v>
       </c>
       <c r="BE2">
-        <v>97.563</v>
+        <v>97.8595</v>
       </c>
       <c r="BF2">
-        <v>67.6908</v>
+        <v>68.8738</v>
       </c>
       <c r="BG2">
-        <v>66.94240000000001</v>
+        <v>69.0813</v>
       </c>
       <c r="BH2" s="2">
-        <v>-50.0737</v>
+        <v>-49.9775</v>
       </c>
       <c r="BI2" s="2">
-        <v>9.57029</v>
+        <v>9.016729999999999</v>
       </c>
       <c r="BJ2" s="2">
-        <v>7.08326</v>
+        <v>7.03567</v>
       </c>
       <c r="BK2">
-        <v>47.0205</v>
+        <v>49.9072</v>
       </c>
       <c r="BL2">
-        <v>63.5301</v>
+        <v>63.9598</v>
       </c>
       <c r="BM2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:78">
       <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
         <v>94</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>95</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>96</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>97</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>98</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>99</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>100</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>101</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>102</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>103</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" t="s">
         <v>104</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>104</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" t="s">
         <v>105</v>
-      </c>
-      <c r="N3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O3" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" t="s">
-        <v>106</v>
       </c>
       <c r="Q3" t="s">
         <v>90</v>
       </c>
       <c r="R3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="S3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="T3">
-        <v>264.051</v>
+        <v>262.66</v>
       </c>
       <c r="U3">
-        <v>260.322</v>
+        <v>259.124</v>
       </c>
       <c r="V3">
-        <v>262.187</v>
+        <v>260.892</v>
       </c>
       <c r="W3" s="2">
-        <v>-50.3661</v>
+        <v>-50.3289</v>
       </c>
       <c r="X3" s="2">
-        <v>-1920.1</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>2124.11</v>
+        <v>29.5233</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>27.931</v>
       </c>
       <c r="Z3">
-        <v>-0.257799</v>
+        <v>16.7664</v>
       </c>
       <c r="AA3">
-        <v>0.233039</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>400.08</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>374.508</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>387.294</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>52.7402</v>
+        <v>17.7222</v>
+      </c>
+      <c r="AB3">
+        <v>241.226</v>
+      </c>
+      <c r="AC3">
+        <v>213.355</v>
+      </c>
+      <c r="AD3">
+        <v>227.291</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>52.7609</v>
       </c>
       <c r="AF3" s="2">
-        <v>22.7174</v>
+        <v>21.2824</v>
       </c>
       <c r="AG3" s="2">
-        <v>21.4273</v>
+        <v>20.6636</v>
       </c>
       <c r="AH3">
-        <v>27.7497</v>
+        <v>29.6208</v>
       </c>
       <c r="AI3">
-        <v>29.4205</v>
+        <v>30.5077</v>
       </c>
       <c r="AJ3">
-        <v>-598.475</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>374.878</v>
+        <v>245.518</v>
+      </c>
+      <c r="AK3">
+        <v>214.431</v>
       </c>
       <c r="AL3">
-        <v>-111.799</v>
-      </c>
-      <c r="AM3" s="6">
-        <v>47.3617</v>
+        <v>229.974</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>52.792</v>
       </c>
       <c r="AN3" s="2">
-        <v>22.3317</v>
+        <v>-981.627</v>
       </c>
       <c r="AO3" s="2">
-        <v>21.5434</v>
+        <v>21.0199</v>
       </c>
       <c r="AP3">
-        <v>28.2289</v>
+        <v>-0.642199</v>
       </c>
       <c r="AQ3">
-        <v>29.2619</v>
-      </c>
-      <c r="AR3" s="4">
-        <v>349.895</v>
+        <v>29.9907</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>336.849</v>
       </c>
       <c r="AS3">
-        <v>347.806</v>
-      </c>
-      <c r="AT3">
-        <v>51.1807</v>
-      </c>
-      <c r="AU3" s="3">
-        <v>242.983</v>
-      </c>
-      <c r="AV3" s="3">
-        <v>245.936</v>
+        <v>320.037</v>
+      </c>
+      <c r="AT3" s="4">
+        <v>57.3426</v>
+      </c>
+      <c r="AU3" s="4">
+        <v>241.809</v>
+      </c>
+      <c r="AV3" s="4">
+        <v>239.44</v>
       </c>
       <c r="AW3">
-        <v>2.03718</v>
+        <v>2.04707</v>
       </c>
       <c r="AX3">
-        <v>2.01272</v>
+        <v>2.06732</v>
       </c>
       <c r="AY3">
-        <v>64.29519999999999</v>
+        <v>64.0479</v>
       </c>
       <c r="AZ3">
-        <v>63.2801</v>
+        <v>64.7876</v>
       </c>
       <c r="BA3" s="2">
-        <v>-50.0843</v>
+        <v>-49.9292</v>
       </c>
       <c r="BB3" s="2">
-        <v>5.22297</v>
+        <v>5.106210000000001</v>
       </c>
       <c r="BC3" s="2">
-        <v>6.595160000000001</v>
+        <v>6.39407</v>
       </c>
       <c r="BD3">
-        <v>90.52330000000001</v>
+        <v>92.5932</v>
       </c>
       <c r="BE3">
-        <v>71.68899999999999</v>
+        <v>73.9435</v>
       </c>
       <c r="BF3">
-        <v>77.0716</v>
+        <v>75.733</v>
       </c>
       <c r="BG3">
-        <v>75.97670000000001</v>
+        <v>76.4038</v>
       </c>
       <c r="BH3" s="2">
-        <v>-50.0832</v>
+        <v>-49.94</v>
       </c>
       <c r="BI3" s="2">
-        <v>11.3262</v>
+        <v>10.1639</v>
       </c>
       <c r="BJ3" s="2">
-        <v>8.611330000000001</v>
+        <v>8.02787</v>
       </c>
       <c r="BK3">
-        <v>41.7438</v>
+        <v>46.5178</v>
       </c>
       <c r="BL3">
-        <v>54.9044</v>
+        <v>58.8948</v>
       </c>
       <c r="BM3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:78">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>97</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>98</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>99</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>100</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>101</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>102</v>
       </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" t="s">
         <v>105</v>
-      </c>
-      <c r="N4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O4" t="s">
-        <v>105</v>
-      </c>
-      <c r="P4" t="s">
-        <v>106</v>
       </c>
       <c r="Q4" t="s">
         <v>90</v>
       </c>
       <c r="R4" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="S4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="T4">
-        <v>256.188</v>
+        <v>258.271</v>
       </c>
       <c r="U4">
-        <v>254.69</v>
+        <v>253.421</v>
       </c>
       <c r="V4">
-        <v>255.439</v>
+        <v>255.846</v>
       </c>
       <c r="W4" s="2">
-        <v>-50.079</v>
-      </c>
-      <c r="X4" s="3">
-        <v>1573.92</v>
+        <v>-50.5256</v>
+      </c>
+      <c r="X4" s="2">
+        <v>27.6866</v>
       </c>
       <c r="Y4" s="2">
-        <v>-957.59</v>
+        <v>24.9341</v>
       </c>
       <c r="Z4">
-        <v>0.314502</v>
+        <v>17.8787</v>
       </c>
       <c r="AA4">
-        <v>-0.516923</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>399.879</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>386.246</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>393.062</v>
-      </c>
-      <c r="AE4">
-        <v>50.9981</v>
+        <v>19.8523</v>
+      </c>
+      <c r="AB4">
+        <v>232.124</v>
+      </c>
+      <c r="AC4">
+        <v>210.43</v>
+      </c>
+      <c r="AD4">
+        <v>221.277</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>52.3642</v>
       </c>
       <c r="AF4" s="2">
-        <v>21.7035</v>
+        <v>20.2559</v>
       </c>
       <c r="AG4" s="2">
-        <v>20.5553</v>
+        <v>20.3374</v>
       </c>
       <c r="AH4">
-        <v>29.046</v>
+        <v>31.1219</v>
       </c>
       <c r="AI4">
-        <v>30.6685</v>
+        <v>30.9971</v>
       </c>
       <c r="AJ4">
-        <v>-601.228</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>386.52</v>
+        <v>232.987</v>
+      </c>
+      <c r="AK4">
+        <v>210.485</v>
       </c>
       <c r="AL4">
-        <v>-107.354</v>
-      </c>
-      <c r="AM4">
-        <v>48.6579</v>
+        <v>221.736</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>52.2283</v>
       </c>
       <c r="AN4" s="2">
-        <v>21.097</v>
+        <v>20.4459</v>
       </c>
       <c r="AO4" s="2">
-        <v>20.911</v>
+        <v>20.44</v>
       </c>
       <c r="AP4">
-        <v>29.881</v>
+        <v>30.8326</v>
       </c>
       <c r="AQ4">
-        <v>30.1468</v>
-      </c>
-      <c r="AR4" s="4">
-        <v>343.319</v>
+        <v>30.8414</v>
+      </c>
+      <c r="AR4">
+        <v>288.034</v>
       </c>
       <c r="AS4">
-        <v>340.093</v>
-      </c>
-      <c r="AT4">
-        <v>51.1249</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>245.921</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>244.486</v>
+        <v>163.292</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>63.3028</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>238.877</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>235.807</v>
       </c>
       <c r="AW4">
-        <v>2.01284</v>
+        <v>2.07219</v>
       </c>
       <c r="AX4">
-        <v>2.02466</v>
+        <v>2.09918</v>
       </c>
       <c r="AY4">
-        <v>59.1767</v>
+        <v>61.14469999999999</v>
       </c>
       <c r="AZ4">
-        <v>59.1427</v>
+        <v>60.4778</v>
       </c>
       <c r="BA4" s="2">
-        <v>-50.0047</v>
+        <v>-50.0904</v>
       </c>
       <c r="BB4" s="2">
-        <v>4.406680000000001</v>
+        <v>4.30551</v>
       </c>
       <c r="BC4" s="2">
-        <v>4.26883</v>
+        <v>4.26839</v>
       </c>
       <c r="BD4">
-        <v>107.292</v>
+        <v>109.813</v>
       </c>
       <c r="BE4">
-        <v>110.756</v>
+        <v>110.768</v>
       </c>
       <c r="BF4">
-        <v>71.5625</v>
+        <v>72.5549</v>
       </c>
       <c r="BG4">
-        <v>70.88560000000001</v>
+        <v>71.77500000000001</v>
       </c>
       <c r="BH4" s="2">
-        <v>-50.0716</v>
+        <v>-50.1122</v>
       </c>
       <c r="BI4" s="2">
-        <v>10.3769</v>
+        <v>9.483360000000001</v>
       </c>
       <c r="BJ4" s="2">
-        <v>7.56256</v>
+        <v>7.41165</v>
       </c>
       <c r="BK4">
-        <v>45.5626</v>
+        <v>49.8557</v>
       </c>
       <c r="BL4">
-        <v>62.5185</v>
+        <v>63.7915</v>
       </c>
       <c r="BM4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:78">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
         <v>95</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>96</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>97</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>98</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>99</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>100</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>101</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>102</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>103</v>
       </c>
-      <c r="K5" t="s">
-        <v>104</v>
-      </c>
       <c r="L5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q5" t="s">
         <v>90</v>
       </c>
       <c r="R5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="S5" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="T5">
-        <v>289.986</v>
+        <v>290.456</v>
       </c>
       <c r="U5">
-        <v>287.231</v>
+        <v>288.395</v>
       </c>
       <c r="V5">
-        <v>288.609</v>
+        <v>289.425</v>
       </c>
       <c r="W5" s="2">
-        <v>-50.2617</v>
-      </c>
-      <c r="X5" s="3">
-        <v>189.339</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>161.484</v>
+        <v>-50.1565</v>
+      </c>
+      <c r="X5" s="2">
+        <v>-1947.82</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>2038.99</v>
       </c>
       <c r="Z5">
-        <v>2.13902</v>
+        <v>-0.207924</v>
       </c>
       <c r="AA5">
-        <v>2.50798</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>453.354</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>430.604</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>441.979</v>
+        <v>0.198627</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>448.647</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>389.793</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>419.22</v>
       </c>
       <c r="AE5" s="4">
-        <v>52.3953</v>
+        <v>55.3026</v>
       </c>
       <c r="AF5" s="2">
-        <v>27.0235</v>
+        <v>25.0616</v>
       </c>
       <c r="AG5" s="2">
-        <v>26.4325</v>
+        <v>25.3047</v>
       </c>
       <c r="AH5">
-        <v>19.9826</v>
+        <v>21.5469</v>
       </c>
       <c r="AI5">
-        <v>20.4294</v>
+        <v>21.3399</v>
       </c>
       <c r="AJ5">
-        <v>-547.066</v>
-      </c>
-      <c r="AK5" s="3">
-        <v>430.78</v>
+        <v>-555.5170000000001</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>385.954</v>
       </c>
       <c r="AL5">
-        <v>-58.1428</v>
-      </c>
-      <c r="AM5" s="6">
-        <v>47.6</v>
+        <v>-84.7816</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>44.2183</v>
       </c>
       <c r="AN5" s="2">
-        <v>27.1301</v>
+        <v>26.1585</v>
       </c>
       <c r="AO5" s="2">
-        <v>26.3437</v>
+        <v>25.6697</v>
       </c>
       <c r="AP5">
-        <v>19.9041</v>
+        <v>20.6434</v>
       </c>
       <c r="AQ5">
-        <v>20.4982</v>
-      </c>
-      <c r="AR5" s="3">
-        <v>377.613</v>
-      </c>
-      <c r="AS5" s="3">
-        <v>373.38</v>
+        <v>21.0365</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>376.029</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>373.039</v>
       </c>
       <c r="AT5">
-        <v>51.3066</v>
-      </c>
-      <c r="AU5" s="3">
-        <v>250.815</v>
-      </c>
-      <c r="AV5" s="3">
-        <v>246.708</v>
+        <v>51.481</v>
+      </c>
+      <c r="AU5" s="4">
+        <v>252.008</v>
+      </c>
+      <c r="AV5" s="4">
+        <v>249.516</v>
       </c>
       <c r="AW5">
-        <v>1.61474</v>
+        <v>1.60709</v>
       </c>
       <c r="AX5">
-        <v>1.64161</v>
+        <v>1.62314</v>
       </c>
       <c r="AY5">
-        <v>70.45460000000001</v>
+        <v>71.3925</v>
       </c>
       <c r="AZ5">
-        <v>70.63409999999999</v>
+        <v>72.3347</v>
       </c>
       <c r="BA5" s="2">
-        <v>-49.9839</v>
+        <v>-49.9051</v>
       </c>
       <c r="BB5" s="2">
-        <v>6.70781</v>
+        <v>6.514</v>
       </c>
       <c r="BC5" s="2">
-        <v>6.73355</v>
+        <v>6.545710000000001</v>
       </c>
       <c r="BD5">
-        <v>60.3774</v>
+        <v>62.1738</v>
       </c>
       <c r="BE5">
-        <v>60.1466</v>
+        <v>61.8726</v>
       </c>
       <c r="BF5">
-        <v>86.1919</v>
+        <v>86.29349999999999</v>
       </c>
       <c r="BG5">
-        <v>85.8485</v>
+        <v>86.51389999999999</v>
       </c>
       <c r="BH5" s="2">
-        <v>-50.0361</v>
+        <v>-49.9809</v>
       </c>
       <c r="BI5" s="2">
-        <v>13.251</v>
+        <v>12.1275</v>
       </c>
       <c r="BJ5" s="2">
-        <v>10.0198</v>
+        <v>9.594640000000002</v>
       </c>
       <c r="BK5">
-        <v>30.5637</v>
+        <v>33.3951</v>
       </c>
       <c r="BL5">
-        <v>40.4199</v>
+        <v>42.2111</v>
       </c>
       <c r="BM5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:78">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
         <v>95</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>96</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>97</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>98</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>99</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>100</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>101</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>102</v>
       </c>
-      <c r="J6" t="s">
-        <v>103</v>
-      </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q6" t="s">
         <v>90</v>
       </c>
       <c r="R6" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="S6" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="T6">
-        <v>292.441</v>
+        <v>294.8800000000001</v>
       </c>
       <c r="U6">
-        <v>289.5770000000001</v>
+        <v>293.461</v>
       </c>
       <c r="V6">
-        <v>291.009</v>
+        <v>294.17</v>
       </c>
       <c r="W6" s="2">
-        <v>-50.3046</v>
-      </c>
-      <c r="X6" s="3">
-        <v>191.45</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>166.74</v>
+        <v>-50.05</v>
+      </c>
+      <c r="X6" s="2">
+        <v>-873.883</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>1037.05</v>
       </c>
       <c r="Z6">
-        <v>2.11544</v>
+        <v>-0.463449</v>
       </c>
       <c r="AA6">
-        <v>2.42894</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>462.722</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>449.422</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>456.0720000000001</v>
-      </c>
-      <c r="AE6">
-        <v>51.2981</v>
+        <v>0.390529</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>458.549</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>438.053</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>448.301</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>52.1683</v>
       </c>
       <c r="AF6" s="2">
-        <v>26.3341</v>
+        <v>24.921</v>
       </c>
       <c r="AG6" s="2">
-        <v>24.7831</v>
+        <v>24.1644</v>
       </c>
       <c r="AH6">
-        <v>20.5058</v>
+        <v>21.6685</v>
       </c>
       <c r="AI6">
-        <v>21.789</v>
+        <v>22.3469</v>
       </c>
       <c r="AJ6">
-        <v>-537.654</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>449.871</v>
+        <v>-540.0160000000001</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>437.648</v>
       </c>
       <c r="AL6">
-        <v>-43.8915</v>
-      </c>
-      <c r="AM6">
-        <v>48.5912</v>
+        <v>-51.1839</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>47.8791</v>
       </c>
       <c r="AN6" s="2">
-        <v>27.1706</v>
+        <v>25.5825</v>
       </c>
       <c r="AO6" s="2">
-        <v>26.3236</v>
+        <v>23.6236</v>
       </c>
       <c r="AP6">
-        <v>19.8744</v>
+        <v>21.1082</v>
       </c>
       <c r="AQ6">
-        <v>20.5139</v>
-      </c>
-      <c r="AR6" s="3">
-        <v>380.106</v>
-      </c>
-      <c r="AS6" s="3">
-        <v>376.358</v>
-      </c>
-      <c r="AT6">
-        <v>51.124</v>
-      </c>
-      <c r="AU6" s="3">
-        <v>248.819</v>
-      </c>
-      <c r="AV6" s="3">
-        <v>245.341</v>
+        <v>22.8585</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>381.494</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>375.283</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>51.5078</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>251.361</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>245.334</v>
       </c>
       <c r="AW6">
-        <v>1.62769</v>
+        <v>1.61123</v>
       </c>
       <c r="AX6">
-        <v>1.65076</v>
+        <v>1.65081</v>
       </c>
       <c r="AY6">
-        <v>69.1622</v>
+        <v>71.26469999999999</v>
       </c>
       <c r="AZ6">
-        <v>68.85939999999999</v>
+        <v>71.717</v>
       </c>
       <c r="BA6" s="2">
-        <v>-50.0288</v>
+        <v>-49.9503</v>
       </c>
       <c r="BB6" s="2">
-        <v>6.23503</v>
+        <v>6.26511</v>
       </c>
       <c r="BC6" s="2">
-        <v>4.712630000000001</v>
+        <v>6.126200000000001</v>
       </c>
       <c r="BD6">
-        <v>64.9555</v>
+        <v>64.6437</v>
       </c>
       <c r="BE6">
-        <v>85.9392</v>
+        <v>66.1095</v>
       </c>
       <c r="BF6">
-        <v>85.3224</v>
+        <v>86.9205</v>
       </c>
       <c r="BG6">
-        <v>84.0471</v>
+        <v>86.5043</v>
       </c>
       <c r="BH6" s="2">
-        <v>-50.1311</v>
+        <v>-50.0665</v>
       </c>
       <c r="BI6" s="2">
-        <v>12.6271</v>
+        <v>11.8382</v>
       </c>
       <c r="BJ6" s="2">
-        <v>9.469510000000001</v>
+        <v>8.99001</v>
       </c>
       <c r="BK6">
-        <v>32.0739</v>
+        <v>34.2113</v>
       </c>
       <c r="BL6">
-        <v>42.7689</v>
+        <v>45.05</v>
       </c>
       <c r="BM6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:78">
       <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" t="s">
         <v>118</v>
       </c>
-      <c r="B7" t="s">
+      <c r="I7" t="s">
         <v>119</v>
       </c>
-      <c r="C7" t="s">
+      <c r="J7" t="s">
         <v>120</v>
       </c>
-      <c r="D7" t="s">
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R7" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" t="s">
         <v>121</v>
       </c>
-      <c r="E7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M7" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" t="s">
-        <v>105</v>
-      </c>
-      <c r="O7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>128</v>
-      </c>
-      <c r="R7" t="s">
-        <v>129</v>
-      </c>
-      <c r="S7" t="s">
-        <v>129</v>
-      </c>
       <c r="T7">
-        <v>235.682</v>
+        <v>234.486</v>
       </c>
       <c r="U7">
-        <v>230.38</v>
+        <v>227.128</v>
       </c>
       <c r="V7">
-        <v>233.031</v>
+        <v>230.807</v>
       </c>
       <c r="W7" s="2">
-        <v>-50.5253</v>
-      </c>
-      <c r="X7" s="3">
-        <v>98.12729999999999</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>113.787</v>
+        <v>-50.6727</v>
+      </c>
+      <c r="X7" s="2">
+        <v>22.8236</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>22.1043</v>
       </c>
       <c r="Z7">
-        <v>5.04447</v>
+        <v>21.6881</v>
       </c>
       <c r="AA7">
-        <v>4.35024</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>369.163</v>
+        <v>22.3938</v>
+      </c>
+      <c r="AB7">
+        <v>183.802</v>
       </c>
       <c r="AC7">
-        <v>260.27</v>
+        <v>162.391</v>
       </c>
       <c r="AD7">
-        <v>314.717</v>
+        <v>173.096</v>
       </c>
       <c r="AE7" s="3">
-        <v>60.8387</v>
+        <v>52.1903</v>
       </c>
       <c r="AF7" s="2">
-        <v>16.5114</v>
+        <v>15.4513</v>
       </c>
       <c r="AG7" s="2">
-        <v>16.5914</v>
+        <v>15.3066</v>
       </c>
       <c r="AH7">
-        <v>38.1797</v>
+        <v>40.799</v>
       </c>
       <c r="AI7">
-        <v>37.9956</v>
+        <v>41.185</v>
       </c>
       <c r="AJ7">
-        <v>-630.977</v>
+        <v>183.808</v>
       </c>
       <c r="AK7">
-        <v>261.604</v>
+        <v>162.113</v>
       </c>
       <c r="AL7">
-        <v>-184.687</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>39.1387</v>
+        <v>172.96</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>52.0488</v>
       </c>
       <c r="AN7" s="2">
-        <v>16.1607</v>
+        <v>15.6073</v>
       </c>
       <c r="AO7" s="2">
-        <v>16.0039</v>
+        <v>15.8406</v>
       </c>
       <c r="AP7">
-        <v>39.0083</v>
+        <v>40.3915</v>
       </c>
       <c r="AQ7">
-        <v>39.3904</v>
-      </c>
-      <c r="AR7" s="4">
-        <v>323.303</v>
+        <v>39.7965</v>
+      </c>
+      <c r="AR7">
+        <v>136.509</v>
       </c>
       <c r="AS7">
-        <v>317.271</v>
-      </c>
-      <c r="AT7" s="4">
-        <v>51.5791</v>
-      </c>
-      <c r="AU7" s="3">
-        <v>242.946</v>
-      </c>
-      <c r="AV7" s="3">
-        <v>245.689</v>
+        <v>127.375</v>
+      </c>
+      <c r="AT7">
+        <v>50.8023</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>233.76</v>
+      </c>
+      <c r="AV7" s="4">
+        <v>232.261</v>
       </c>
       <c r="AW7">
-        <v>2.03749</v>
+        <v>2.11756</v>
       </c>
       <c r="AX7">
-        <v>2.01474</v>
+        <v>2.13122</v>
       </c>
       <c r="AY7">
-        <v>56.1142</v>
+        <v>56.2289</v>
       </c>
       <c r="AZ7">
-        <v>55.1318</v>
+        <v>55.3181</v>
       </c>
       <c r="BA7" s="2">
-        <v>-50.0989</v>
+        <v>-50.0937</v>
       </c>
       <c r="BB7" s="2">
-        <v>6.48291</v>
+        <v>6.80114</v>
       </c>
       <c r="BC7" s="2">
-        <v>6.10493</v>
+        <v>6.111160000000001</v>
       </c>
       <c r="BD7">
-        <v>72.9302</v>
+        <v>69.51779999999999</v>
       </c>
       <c r="BE7">
-        <v>77.4456</v>
+        <v>77.36669999999999</v>
       </c>
       <c r="BF7">
-        <v>65.12280000000001</v>
+        <v>65.0637</v>
       </c>
       <c r="BG7">
-        <v>63.96640000000001</v>
+        <v>63.68259999999999</v>
       </c>
       <c r="BH7" s="2">
-        <v>-50.1152</v>
+        <v>-50.1407</v>
       </c>
       <c r="BI7" s="2">
-        <v>8.890080000000001</v>
+        <v>8.17581</v>
       </c>
       <c r="BJ7" s="2">
-        <v>6.6154</v>
+        <v>6.53604</v>
       </c>
       <c r="BK7">
-        <v>53.1829</v>
+        <v>57.8291</v>
       </c>
       <c r="BL7">
-        <v>71.4695</v>
+        <v>72.3374</v>
       </c>
       <c r="BM7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:78">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" t="s">
         <v>119</v>
       </c>
-      <c r="C8" t="s">
+      <c r="J8" t="s">
         <v>120</v>
       </c>
-      <c r="D8" t="s">
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>90</v>
+      </c>
+      <c r="R8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" t="s">
         <v>121</v>
       </c>
-      <c r="E8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J8" t="s">
-        <v>127</v>
-      </c>
-      <c r="K8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" t="s">
-        <v>110</v>
-      </c>
-      <c r="M8" t="s">
-        <v>105</v>
-      </c>
-      <c r="N8" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8" t="s">
-        <v>105</v>
-      </c>
-      <c r="P8" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>128</v>
-      </c>
-      <c r="R8" t="s">
-        <v>131</v>
-      </c>
-      <c r="S8" t="s">
-        <v>131</v>
-      </c>
       <c r="T8">
-        <v>222.378</v>
+        <v>221.342</v>
       </c>
       <c r="U8">
-        <v>219.969</v>
+        <v>217.63</v>
       </c>
       <c r="V8">
-        <v>221.174</v>
+        <v>219.486</v>
       </c>
       <c r="W8" s="2">
-        <v>-50.2312</v>
-      </c>
-      <c r="X8">
-        <v>38.3678</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>113.244</v>
+        <v>-50.2824</v>
+      </c>
+      <c r="X8" s="2">
+        <v>19.8066</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>19.2602</v>
       </c>
       <c r="Z8">
-        <v>12.9014</v>
+        <v>24.9917</v>
       </c>
       <c r="AA8">
-        <v>4.3711</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>350.992</v>
+        <v>25.7007</v>
+      </c>
+      <c r="AB8">
+        <v>165.089</v>
       </c>
       <c r="AC8">
-        <v>331.271</v>
+        <v>150.954</v>
       </c>
       <c r="AD8">
-        <v>341.132</v>
-      </c>
-      <c r="AE8" s="4">
-        <v>51.7587</v>
+        <v>158.022</v>
+      </c>
+      <c r="AE8">
+        <v>51.3313</v>
       </c>
       <c r="AF8" s="2">
-        <v>14.4371</v>
+        <v>14.4645</v>
       </c>
       <c r="AG8" s="2">
-        <v>13.8456</v>
+        <v>14.0405</v>
       </c>
       <c r="AH8">
-        <v>43.6653</v>
+        <v>43.5824</v>
       </c>
       <c r="AI8">
-        <v>45.5308</v>
+        <v>44.8986</v>
       </c>
       <c r="AJ8">
-        <v>-649.202</v>
+        <v>164.223</v>
       </c>
       <c r="AK8">
-        <v>331.414</v>
+        <v>151.132</v>
       </c>
       <c r="AL8">
-        <v>-158.894</v>
-      </c>
-      <c r="AM8" s="6">
-        <v>48.1646</v>
+        <v>157.677</v>
+      </c>
+      <c r="AM8">
+        <v>51.4173</v>
       </c>
       <c r="AN8" s="2">
-        <v>14.338</v>
+        <v>14.3013</v>
       </c>
       <c r="AO8" s="2">
-        <v>13.8729</v>
+        <v>13.9016</v>
       </c>
       <c r="AP8">
-        <v>43.9672</v>
+        <v>44.0799</v>
       </c>
       <c r="AQ8">
-        <v>45.441</v>
-      </c>
-      <c r="AR8" s="4">
-        <v>309.513</v>
+        <v>45.3474</v>
+      </c>
+      <c r="AR8">
+        <v>119.973</v>
       </c>
       <c r="AS8">
-        <v>308.167</v>
+        <v>115.682</v>
       </c>
       <c r="AT8">
-        <v>51.0386</v>
-      </c>
-      <c r="AU8" s="3">
-        <v>245.438</v>
-      </c>
-      <c r="AV8" s="3">
-        <v>243.025</v>
+        <v>50.3543</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>230.198</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>228.629</v>
       </c>
       <c r="AW8">
-        <v>2.01681</v>
+        <v>2.15032</v>
       </c>
       <c r="AX8">
-        <v>2.03683</v>
+        <v>2.16508</v>
       </c>
       <c r="AY8">
-        <v>48.2753</v>
+        <v>49.78740000000001</v>
       </c>
       <c r="AZ8">
-        <v>48.2517</v>
+        <v>50.0593</v>
       </c>
       <c r="BA8" s="2">
-        <v>-50.002</v>
+        <v>-49.9717</v>
       </c>
       <c r="BB8" s="2">
-        <v>4.729</v>
+        <v>4.56683</v>
       </c>
       <c r="BC8" s="2">
-        <v>4.68598</v>
+        <v>4.536379999999999</v>
       </c>
       <c r="BD8">
-        <v>99.979</v>
+        <v>103.529</v>
       </c>
       <c r="BE8">
-        <v>100.897</v>
+        <v>104.224</v>
       </c>
       <c r="BF8">
-        <v>56.5755</v>
+        <v>57.6383</v>
       </c>
       <c r="BG8">
-        <v>56.2359</v>
+        <v>57.6273</v>
       </c>
       <c r="BH8" s="2">
-        <v>-50.0325</v>
+        <v>-49.999</v>
       </c>
       <c r="BI8" s="2">
-        <v>7.83269</v>
+        <v>7.264460000000001</v>
       </c>
       <c r="BJ8" s="2">
-        <v>5.620590000000001</v>
+        <v>5.70584</v>
       </c>
       <c r="BK8">
-        <v>60.3624</v>
+        <v>65.084</v>
       </c>
       <c r="BL8">
-        <v>84.11920000000001</v>
+        <v>82.8625</v>
       </c>
       <c r="BM8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:78">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" t="s">
         <v>119</v>
       </c>
-      <c r="C9" t="s">
+      <c r="J9" t="s">
         <v>120</v>
       </c>
-      <c r="D9" t="s">
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>90</v>
+      </c>
+      <c r="R9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" t="s">
         <v>121</v>
       </c>
-      <c r="E9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J9" t="s">
-        <v>127</v>
-      </c>
-      <c r="K9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" t="s">
-        <v>113</v>
-      </c>
-      <c r="N9" t="s">
-        <v>113</v>
-      </c>
-      <c r="O9" t="s">
-        <v>113</v>
-      </c>
-      <c r="P9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>128</v>
-      </c>
-      <c r="R9" t="s">
-        <v>92</v>
-      </c>
-      <c r="S9" t="s">
-        <v>92</v>
-      </c>
       <c r="T9">
-        <v>244.031</v>
+        <v>243.647</v>
       </c>
       <c r="U9">
-        <v>240.824</v>
+        <v>240.507</v>
       </c>
       <c r="V9">
-        <v>242.427</v>
+        <v>242.077</v>
       </c>
       <c r="W9" s="2">
-        <v>-50.3018</v>
-      </c>
-      <c r="X9" s="3">
-        <v>612.9870000000001</v>
-      </c>
-      <c r="Y9">
-        <v>41.4341</v>
+        <v>-50.3078</v>
+      </c>
+      <c r="X9" s="2">
+        <v>26.3408</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>25.6148</v>
       </c>
       <c r="Z9">
-        <v>0.6607</v>
+        <v>15.3754</v>
       </c>
       <c r="AA9">
-        <v>9.774559999999999</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>384.695</v>
+        <v>15.8112</v>
+      </c>
+      <c r="AB9">
+        <v>206.673</v>
       </c>
       <c r="AC9">
-        <v>330.815</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>357.7550000000001</v>
+        <v>184.133</v>
+      </c>
+      <c r="AD9">
+        <v>195.403</v>
       </c>
       <c r="AE9" s="3">
-        <v>54.6383</v>
+        <v>52.3291</v>
       </c>
       <c r="AF9" s="2">
-        <v>18.6654</v>
+        <v>18.2536</v>
       </c>
       <c r="AG9" s="2">
-        <v>18.2264</v>
+        <v>17.9686</v>
       </c>
       <c r="AH9">
-        <v>28.9306</v>
+        <v>29.5832</v>
       </c>
       <c r="AI9">
-        <v>29.6274</v>
+        <v>30.0524</v>
       </c>
       <c r="AJ9">
-        <v>-615.298</v>
+        <v>206.997</v>
       </c>
       <c r="AK9">
-        <v>333.733</v>
+        <v>184.112</v>
       </c>
       <c r="AL9">
-        <v>-140.783</v>
-      </c>
-      <c r="AM9" s="2">
-        <v>44.7194</v>
+        <v>195.554</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>52.2269</v>
       </c>
       <c r="AN9" s="2">
-        <v>18.6642</v>
+        <v>18.4489</v>
       </c>
       <c r="AO9" s="2">
-        <v>17.4353</v>
+        <v>17.6532</v>
       </c>
       <c r="AP9">
-        <v>28.9324</v>
+        <v>29.27</v>
       </c>
       <c r="AQ9">
-        <v>30.9717</v>
-      </c>
-      <c r="AR9" s="4">
-        <v>331.507</v>
+        <v>30.5894</v>
+      </c>
+      <c r="AR9">
+        <v>-837.859</v>
       </c>
       <c r="AS9">
-        <v>327.738</v>
-      </c>
-      <c r="AT9">
-        <v>51.4665</v>
-      </c>
-      <c r="AU9" s="3">
-        <v>247.968</v>
-      </c>
-      <c r="AV9" s="3">
-        <v>247.331</v>
+        <v>-852.332</v>
+      </c>
+      <c r="AT9" s="4">
+        <v>623.3819999999999</v>
+      </c>
+      <c r="AU9" s="4">
+        <v>238.034</v>
+      </c>
+      <c r="AV9" s="4">
+        <v>236.561</v>
       </c>
       <c r="AW9">
-        <v>1.63327</v>
+        <v>1.70144</v>
       </c>
       <c r="AX9">
-        <v>1.63748</v>
+        <v>1.71203</v>
       </c>
       <c r="AY9">
-        <v>58.47470000000001</v>
+        <v>58.0772</v>
       </c>
       <c r="AZ9">
-        <v>57.932</v>
+        <v>58.48090000000001</v>
       </c>
       <c r="BA9" s="2">
-        <v>-50.0466</v>
+        <v>-49.957</v>
       </c>
       <c r="BB9" s="2">
-        <v>6.145770000000001</v>
+        <v>7.0499</v>
       </c>
       <c r="BC9" s="2">
-        <v>6.19936</v>
+        <v>6.79016</v>
       </c>
       <c r="BD9">
-        <v>65.899</v>
+        <v>57.4477</v>
       </c>
       <c r="BE9">
-        <v>65.3293</v>
+        <v>59.6451</v>
       </c>
       <c r="BF9">
-        <v>68.32130000000001</v>
+        <v>67.8058</v>
       </c>
       <c r="BG9">
-        <v>67.8818</v>
+        <v>67.946</v>
       </c>
       <c r="BH9" s="2">
-        <v>-50.0286</v>
+        <v>-49.9818</v>
       </c>
       <c r="BI9" s="2">
-        <v>9.38917</v>
+        <v>8.936029999999999</v>
       </c>
       <c r="BJ9" s="2">
-        <v>7.25888</v>
+        <v>7.29192</v>
       </c>
       <c r="BK9">
-        <v>43.1348</v>
+        <v>45.3221</v>
       </c>
       <c r="BL9">
-        <v>55.7937</v>
+        <v>55.5409</v>
       </c>
       <c r="BM9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:78">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" t="s">
         <v>119</v>
       </c>
-      <c r="C10" t="s">
+      <c r="J10" t="s">
         <v>120</v>
       </c>
-      <c r="D10" t="s">
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10" t="s">
+        <v>90</v>
+      </c>
+      <c r="S10" t="s">
         <v>121</v>
       </c>
-      <c r="E10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" t="s">
-        <v>127</v>
-      </c>
-      <c r="K10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" t="s">
-        <v>113</v>
-      </c>
-      <c r="N10" t="s">
-        <v>113</v>
-      </c>
-      <c r="O10" t="s">
-        <v>113</v>
-      </c>
-      <c r="P10" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>128</v>
-      </c>
-      <c r="R10" t="s">
-        <v>129</v>
-      </c>
-      <c r="S10" t="s">
-        <v>129</v>
-      </c>
       <c r="T10">
-        <v>236.263</v>
+        <v>235.791</v>
       </c>
       <c r="U10">
-        <v>233.443</v>
+        <v>233.71</v>
       </c>
       <c r="V10">
-        <v>234.853</v>
+        <v>234.75</v>
       </c>
       <c r="W10" s="2">
-        <v>-50.2589</v>
-      </c>
-      <c r="X10" s="3">
-        <v>192.434</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>159.997</v>
+        <v>-50.1294</v>
+      </c>
+      <c r="X10" s="2">
+        <v>24.3574</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>23.607</v>
       </c>
       <c r="Z10">
-        <v>2.10461</v>
+        <v>16.6274</v>
       </c>
       <c r="AA10">
-        <v>2.53129</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>373.521</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>359.05</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>366.285</v>
+        <v>17.156</v>
+      </c>
+      <c r="AB10">
+        <v>192.154</v>
+      </c>
+      <c r="AC10">
+        <v>178.99</v>
+      </c>
+      <c r="AD10">
+        <v>185.572</v>
       </c>
       <c r="AE10">
-        <v>51.4526</v>
+        <v>51.2411</v>
       </c>
       <c r="AF10" s="2">
-        <v>16.2832</v>
+        <v>16.8702</v>
       </c>
       <c r="AG10" s="2">
-        <v>15.5037</v>
+        <v>16.0074</v>
       </c>
       <c r="AH10">
-        <v>33.163</v>
+        <v>32.009</v>
       </c>
       <c r="AI10">
-        <v>34.8305</v>
+        <v>33.7344</v>
       </c>
       <c r="AJ10">
-        <v>-625.7330000000001</v>
-      </c>
-      <c r="AK10" s="3">
-        <v>359.983</v>
+        <v>192.552</v>
+      </c>
+      <c r="AK10">
+        <v>178.348</v>
       </c>
       <c r="AL10">
-        <v>-132.875</v>
+        <v>185.45</v>
       </c>
       <c r="AM10">
-        <v>48.5578</v>
+        <v>51.426</v>
       </c>
       <c r="AN10" s="2">
-        <v>15.6368</v>
+        <v>16.3794</v>
       </c>
       <c r="AO10" s="2">
-        <v>16.1709</v>
+        <v>15.8563</v>
       </c>
       <c r="AP10">
-        <v>34.534</v>
+        <v>32.9682</v>
       </c>
       <c r="AQ10">
-        <v>33.3934</v>
-      </c>
-      <c r="AR10" s="4">
-        <v>325.21</v>
+        <v>34.0559</v>
+      </c>
+      <c r="AR10">
+        <v>140.679</v>
       </c>
       <c r="AS10">
-        <v>320.885</v>
+        <v>136.593</v>
       </c>
       <c r="AT10">
-        <v>51.3461</v>
-      </c>
-      <c r="AU10" s="3">
-        <v>248.899</v>
-      </c>
-      <c r="AV10" s="3">
-        <v>247.193</v>
+        <v>50.1903</v>
+      </c>
+      <c r="AU10" s="4">
+        <v>235.029</v>
+      </c>
+      <c r="AV10" s="4">
+        <v>233.306</v>
       </c>
       <c r="AW10">
-        <v>1.62716</v>
+        <v>1.7232</v>
       </c>
       <c r="AX10">
-        <v>1.6384</v>
+        <v>1.73592</v>
       </c>
       <c r="AY10">
-        <v>52.8252</v>
+        <v>54.4909</v>
       </c>
       <c r="AZ10">
-        <v>52.0316</v>
+        <v>54.4139</v>
       </c>
       <c r="BA10" s="2">
-        <v>-50.0798</v>
+        <v>-50.0083</v>
       </c>
       <c r="BB10" s="2">
-        <v>4.74493</v>
+        <v>4.60801</v>
       </c>
       <c r="BC10" s="2">
-        <v>4.59153</v>
+        <v>4.49824</v>
       </c>
       <c r="BD10">
-        <v>85.35420000000001</v>
+        <v>87.8904</v>
       </c>
       <c r="BE10">
-        <v>88.206</v>
+        <v>90.0352</v>
       </c>
       <c r="BF10">
-        <v>62.61000000000001</v>
+        <v>63.7468</v>
       </c>
       <c r="BG10">
-        <v>61.2276</v>
+        <v>63.5069</v>
       </c>
       <c r="BH10" s="2">
-        <v>-50.1375</v>
+        <v>-50.0287</v>
       </c>
       <c r="BI10" s="2">
-        <v>8.52055</v>
+        <v>8.198840000000001</v>
       </c>
       <c r="BJ10" s="2">
-        <v>6.53636</v>
+        <v>6.58094</v>
       </c>
       <c r="BK10">
-        <v>47.5321</v>
+        <v>49.3972</v>
       </c>
       <c r="BL10">
-        <v>61.9611</v>
+        <v>61.5413</v>
       </c>
       <c r="BM10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:78" s="1" customFormat="1">
@@ -3442,371 +3415,371 @@
     </row>
     <row r="12" spans="1:78" s="1" customFormat="1">
       <c r="S12" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="T12" s="1">
-        <v>222.378</v>
+        <v>221.342</v>
       </c>
       <c r="U12" s="1">
-        <v>219.969</v>
+        <v>217.63</v>
       </c>
       <c r="V12" s="1">
-        <v>221.174</v>
+        <v>219.486</v>
       </c>
       <c r="W12" s="2">
-        <v>-50.5253</v>
+        <v>-50.6727</v>
       </c>
       <c r="X12" s="2">
-        <v>-1920.1</v>
+        <v>-1947.82</v>
       </c>
       <c r="Y12" s="2">
-        <v>-957.59</v>
+        <v>19.2602</v>
       </c>
       <c r="Z12" s="1">
-        <v>-0.257799</v>
+        <v>-0.463449</v>
       </c>
       <c r="AA12" s="1">
-        <v>-0.516923</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>350.992</v>
+        <v>0.198627</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>165.089</v>
       </c>
       <c r="AC12" s="1">
-        <v>260.27</v>
+        <v>150.954</v>
       </c>
       <c r="AD12" s="1">
-        <v>314.717</v>
+        <v>158.022</v>
       </c>
       <c r="AE12" s="1">
-        <v>50.9981</v>
+        <v>51.2411</v>
       </c>
       <c r="AF12" s="2">
-        <v>14.4371</v>
+        <v>14.4645</v>
       </c>
       <c r="AG12" s="2">
-        <v>13.8456</v>
+        <v>14.0405</v>
       </c>
       <c r="AH12" s="1">
-        <v>19.9826</v>
+        <v>21.5469</v>
       </c>
       <c r="AI12" s="1">
-        <v>20.4294</v>
+        <v>21.3399</v>
       </c>
       <c r="AJ12" s="1">
-        <v>-649.202</v>
+        <v>-555.5170000000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>261.604</v>
+        <v>151.132</v>
       </c>
       <c r="AL12" s="1">
-        <v>-184.687</v>
+        <v>-84.7816</v>
       </c>
       <c r="AM12" s="2">
-        <v>39.1387</v>
+        <v>44.2183</v>
       </c>
       <c r="AN12" s="2">
-        <v>14.338</v>
+        <v>-981.627</v>
       </c>
       <c r="AO12" s="2">
-        <v>13.8729</v>
+        <v>13.9016</v>
       </c>
       <c r="AP12" s="1">
-        <v>19.8744</v>
+        <v>-0.642199</v>
       </c>
       <c r="AQ12" s="1">
-        <v>20.4982</v>
-      </c>
-      <c r="AR12" s="4">
-        <v>309.513</v>
+        <v>21.0365</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>-837.859</v>
       </c>
       <c r="AS12" s="1">
-        <v>308.167</v>
+        <v>-852.332</v>
       </c>
       <c r="AT12" s="1">
-        <v>51.0386</v>
-      </c>
-      <c r="AU12" s="3">
-        <v>242.946</v>
-      </c>
-      <c r="AV12" s="3">
-        <v>243.025</v>
+        <v>50.1903</v>
+      </c>
+      <c r="AU12" s="4">
+        <v>230.198</v>
+      </c>
+      <c r="AV12" s="4">
+        <v>228.629</v>
       </c>
       <c r="AW12" s="1">
-        <v>1.61474</v>
+        <v>1.60709</v>
       </c>
       <c r="AX12" s="1">
-        <v>1.63748</v>
+        <v>1.62314</v>
       </c>
       <c r="AY12" s="1">
-        <v>48.2753</v>
+        <v>49.78740000000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>48.2517</v>
+        <v>50.0593</v>
       </c>
       <c r="BA12" s="2">
-        <v>-50.0989</v>
+        <v>-50.0937</v>
       </c>
       <c r="BB12" s="2">
-        <v>4.406680000000001</v>
+        <v>4.30551</v>
       </c>
       <c r="BC12" s="2">
-        <v>4.26883</v>
+        <v>4.26839</v>
       </c>
       <c r="BD12" s="1">
-        <v>60.3774</v>
+        <v>57.4477</v>
       </c>
       <c r="BE12" s="1">
-        <v>60.1466</v>
+        <v>59.6451</v>
       </c>
       <c r="BF12" s="1">
-        <v>56.5755</v>
+        <v>57.6383</v>
       </c>
       <c r="BG12" s="1">
-        <v>56.2359</v>
+        <v>57.6273</v>
       </c>
       <c r="BH12" s="2">
-        <v>-50.1375</v>
+        <v>-50.1407</v>
       </c>
       <c r="BI12" s="2">
-        <v>7.83269</v>
+        <v>7.264460000000001</v>
       </c>
       <c r="BJ12" s="2">
-        <v>5.620590000000001</v>
+        <v>5.70584</v>
       </c>
       <c r="BK12" s="1">
-        <v>30.5637</v>
+        <v>33.3951</v>
       </c>
       <c r="BL12" s="1">
-        <v>40.4199</v>
+        <v>42.2111</v>
       </c>
       <c r="BM12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BO12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BP12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BQ12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BR12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BS12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BT12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BV12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BW12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BY12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BZ12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:78" s="1" customFormat="1">
       <c r="S13" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="T13" s="1">
-        <v>292.441</v>
+        <v>294.8800000000001</v>
       </c>
       <c r="U13" s="1">
-        <v>289.5770000000001</v>
+        <v>293.461</v>
       </c>
       <c r="V13" s="1">
-        <v>291.009</v>
+        <v>294.17</v>
       </c>
       <c r="W13" s="2">
-        <v>-50.079</v>
-      </c>
-      <c r="X13" s="3">
-        <v>1573.92</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>2124.11</v>
+        <v>-50.05</v>
+      </c>
+      <c r="X13" s="2">
+        <v>29.5233</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>2038.99</v>
       </c>
       <c r="Z13" s="1">
-        <v>12.9014</v>
+        <v>24.9917</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.774559999999999</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>462.722</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>449.422</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>456.0720000000001</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>60.8387</v>
+        <v>25.7007</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>458.549</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>438.053</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>448.301</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>55.3026</v>
       </c>
       <c r="AF13" s="2">
-        <v>27.0235</v>
+        <v>25.0616</v>
       </c>
       <c r="AG13" s="2">
-        <v>26.4325</v>
+        <v>25.3047</v>
       </c>
       <c r="AH13" s="1">
-        <v>43.6653</v>
+        <v>43.5824</v>
       </c>
       <c r="AI13" s="1">
-        <v>45.5308</v>
+        <v>44.8986</v>
       </c>
       <c r="AJ13" s="1">
-        <v>-537.654</v>
-      </c>
-      <c r="AK13" s="3">
-        <v>449.871</v>
+        <v>245.518</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>437.648</v>
       </c>
       <c r="AL13" s="1">
-        <v>-43.8915</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>48.7139</v>
+        <v>229.974</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>52.792</v>
       </c>
       <c r="AN13" s="2">
-        <v>27.1706</v>
+        <v>26.1585</v>
       </c>
       <c r="AO13" s="2">
-        <v>26.3437</v>
+        <v>25.6697</v>
       </c>
       <c r="AP13" s="1">
-        <v>43.9672</v>
+        <v>44.0799</v>
       </c>
       <c r="AQ13" s="1">
-        <v>45.441</v>
-      </c>
-      <c r="AR13" s="3">
-        <v>380.106</v>
-      </c>
-      <c r="AS13" s="3">
-        <v>376.358</v>
+        <v>45.3474</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>381.494</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>375.283</v>
       </c>
       <c r="AT13" s="4">
-        <v>51.5791</v>
-      </c>
-      <c r="AU13" s="3">
-        <v>250.815</v>
-      </c>
-      <c r="AV13" s="3">
-        <v>247.722</v>
+        <v>623.3819999999999</v>
+      </c>
+      <c r="AU13" s="4">
+        <v>252.008</v>
+      </c>
+      <c r="AV13" s="4">
+        <v>249.516</v>
       </c>
       <c r="AW13" s="1">
-        <v>2.03749</v>
+        <v>2.15032</v>
       </c>
       <c r="AX13" s="1">
-        <v>2.03683</v>
+        <v>2.16508</v>
       </c>
       <c r="AY13" s="1">
-        <v>70.45460000000001</v>
+        <v>71.3925</v>
       </c>
       <c r="AZ13" s="1">
-        <v>70.63409999999999</v>
+        <v>72.3347</v>
       </c>
       <c r="BA13" s="2">
-        <v>-49.9839</v>
+        <v>-49.9051</v>
       </c>
       <c r="BB13" s="2">
-        <v>6.70781</v>
+        <v>7.0499</v>
       </c>
       <c r="BC13" s="2">
-        <v>6.73355</v>
+        <v>6.79016</v>
       </c>
       <c r="BD13" s="1">
-        <v>107.292</v>
+        <v>109.813</v>
       </c>
       <c r="BE13" s="1">
-        <v>110.756</v>
+        <v>110.768</v>
       </c>
       <c r="BF13" s="1">
-        <v>86.1919</v>
+        <v>86.9205</v>
       </c>
       <c r="BG13" s="1">
-        <v>85.8485</v>
+        <v>86.51389999999999</v>
       </c>
       <c r="BH13" s="2">
-        <v>-50.0286</v>
+        <v>-49.94</v>
       </c>
       <c r="BI13" s="2">
-        <v>13.251</v>
+        <v>12.1275</v>
       </c>
       <c r="BJ13" s="2">
-        <v>10.0198</v>
+        <v>9.594640000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>60.3624</v>
+        <v>65.084</v>
       </c>
       <c r="BL13" s="1">
-        <v>84.11920000000001</v>
+        <v>82.8625</v>
       </c>
       <c r="BM13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BN13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BO13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BP13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BQ13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BR13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BS13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BV13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BY13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BZ13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:78" s="1" customFormat="1">
       <c r="S14" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="T14" s="1">
         <v>350</v>
@@ -3940,7 +3913,7 @@
     </row>
     <row r="15" spans="1:78" s="1" customFormat="1">
       <c r="S15" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="W15" s="1">
         <v>47</v>
@@ -4017,7 +3990,7 @@
     </row>
     <row r="16" spans="1:78" s="1" customFormat="1">
       <c r="S16" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="W16" s="1">
         <v>51.5</v>
@@ -4061,7 +4034,7 @@
     </row>
     <row r="17" spans="19:78" s="1" customFormat="1">
       <c r="S17" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="W17" s="1">
         <v>48.5</v>
@@ -4090,548 +4063,548 @@
     </row>
     <row r="18" spans="19:78" s="1" customFormat="1">
       <c r="S18" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="T18" s="1">
-        <v>254.1593333333334</v>
+        <v>254.426888888889</v>
       </c>
       <c r="U18" s="1">
-        <v>251.2834444444445</v>
+        <v>251.018</v>
       </c>
       <c r="V18" s="1">
-        <v>252.7215555555555</v>
+        <v>252.7223333333334</v>
       </c>
       <c r="W18" s="1">
-        <v>-50.27478888888889</v>
+        <v>-50.3038</v>
       </c>
       <c r="X18" s="1">
-        <v>125.4331222222222</v>
+        <v>-293.7725666666667</v>
       </c>
       <c r="Y18" s="1">
-        <v>232.1232333333333</v>
+        <v>360.5191777777778</v>
       </c>
       <c r="Z18" s="1">
-        <v>3.108402555555555</v>
+        <v>14.35481411111111</v>
       </c>
       <c r="AA18" s="1">
-        <v>3.154740666666667</v>
+        <v>15.23287288888889</v>
       </c>
       <c r="AB18" s="1">
-        <v>397.8004444444445</v>
+        <v>260.3641111111111</v>
       </c>
       <c r="AC18" s="1">
-        <v>366.0831111111112</v>
+        <v>236.0861111111111</v>
       </c>
       <c r="AD18" s="1">
-        <v>381.9417777777778</v>
+        <v>248.2252222222222</v>
       </c>
       <c r="AE18" s="1">
-        <v>53.04461111111111</v>
+        <v>52.39719999999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>20.34577777777778</v>
+        <v>19.40085555555556</v>
       </c>
       <c r="AG18" s="1">
-        <v>19.58514444444445</v>
+        <v>19.2077</v>
       </c>
       <c r="AH18" s="1">
-        <v>30.23251111111111</v>
+        <v>31.4642</v>
       </c>
       <c r="AI18" s="1">
-        <v>31.33734444444445</v>
+        <v>31.835</v>
       </c>
       <c r="AJ18" s="1">
-        <v>-602.199</v>
+        <v>38.24266666666665</v>
       </c>
       <c r="AK18" s="1">
-        <v>366.8782222222223</v>
+        <v>235.591</v>
       </c>
       <c r="AL18" s="1">
-        <v>-117.6605888888889</v>
+        <v>136.9166111111111</v>
       </c>
       <c r="AM18" s="1">
-        <v>46.83391111111111</v>
+        <v>50.65977777777778</v>
       </c>
       <c r="AN18" s="1">
-        <v>20.22204444444444</v>
+        <v>-91.80736666666665</v>
       </c>
       <c r="AO18" s="1">
-        <v>19.66142222222222</v>
+        <v>19.19241111111111</v>
       </c>
       <c r="AP18" s="1">
-        <v>30.57201111111111</v>
+        <v>27.91056677777778</v>
       </c>
       <c r="AQ18" s="1">
-        <v>31.36868888888889</v>
+        <v>31.83954444444445</v>
       </c>
       <c r="AR18" s="1">
-        <v>341.6277777777778</v>
+        <v>22.33511111111111</v>
       </c>
       <c r="AS18" s="1">
-        <v>338.3201111111111</v>
+        <v>-9.49977777777778</v>
       </c>
       <c r="AT18" s="1">
-        <v>51.25483333333333</v>
+        <v>117.9459777777778</v>
       </c>
       <c r="AU18" s="1">
-        <v>246.8505555555556</v>
+        <v>239.9501111111111</v>
       </c>
       <c r="AV18" s="1">
-        <v>245.9367777777778</v>
+        <v>237.5153333333334</v>
       </c>
       <c r="AW18" s="1">
-        <v>1.824742222222222</v>
+        <v>1.879676666666667</v>
       </c>
       <c r="AX18" s="1">
-        <v>1.830417777777778</v>
+        <v>1.898352222222222</v>
       </c>
       <c r="AY18" s="1">
-        <v>59.52465555555555</v>
+        <v>60.56883333333334</v>
       </c>
       <c r="AZ18" s="1">
-        <v>59.09398888888889</v>
+        <v>60.74355555555556</v>
       </c>
       <c r="BA18" s="1">
-        <v>-50.04085555555556</v>
+        <v>-49.98515555555556</v>
       </c>
       <c r="BB18" s="1">
-        <v>5.481082222222223</v>
+        <v>5.563880000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>5.389375555555556</v>
+        <v>5.540971111111111</v>
       </c>
       <c r="BD18" s="1">
-        <v>82.66536666666667</v>
+        <v>82.24836666666664</v>
       </c>
       <c r="BE18" s="1">
-        <v>84.21907777777778</v>
+        <v>82.42489999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>71.1632</v>
+        <v>71.62558888888888</v>
       </c>
       <c r="BG18" s="1">
-        <v>70.33466666666668</v>
+        <v>71.4490111111111</v>
       </c>
       <c r="BH18" s="1">
-        <v>-50.07883333333334</v>
+        <v>-50.02525555555556</v>
       </c>
       <c r="BI18" s="1">
-        <v>10.19822</v>
+        <v>9.467203333333336</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.641965555555554</v>
+        <v>7.463842222222222</v>
       </c>
       <c r="BK18" s="1">
-        <v>44.57518888888889</v>
+        <v>47.94661111111111</v>
       </c>
       <c r="BL18" s="1">
-        <v>59.7205888888889</v>
+        <v>60.6877</v>
       </c>
       <c r="BM18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BN18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BO18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BP18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BQ18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BR18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BS18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BT18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BU18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BV18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BW18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BZ18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="19:78" s="1" customFormat="1">
       <c r="S19" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="T19" s="1">
-        <v>22.81645038124905</v>
+        <v>23.59447251862392</v>
       </c>
       <c r="U19" s="1">
-        <v>22.93760332879475</v>
+        <v>24.47865845089465</v>
       </c>
       <c r="V19" s="1">
-        <v>22.87026033525786</v>
+        <v>24.02535048651735</v>
       </c>
       <c r="W19" s="1">
-        <v>0.120343992551394</v>
+        <v>0.1836173315470095</v>
       </c>
       <c r="X19" s="1">
-        <v>852.5785604208367</v>
+        <v>648.5481516255828</v>
       </c>
       <c r="Y19" s="1">
-        <v>751.1755058975322</v>
+        <v>672.2512039936109</v>
       </c>
       <c r="Z19" s="1">
-        <v>3.767358886265995</v>
+        <v>8.351822036434026</v>
       </c>
       <c r="AA19" s="1">
-        <v>2.794391565281867</v>
+        <v>8.470234263410997</v>
       </c>
       <c r="AB19" s="1">
-        <v>35.31911528749493</v>
+        <v>105.6317761581286</v>
       </c>
       <c r="AC19" s="1">
-        <v>53.05072438806811</v>
+        <v>97.62858507225164</v>
       </c>
       <c r="AD19" s="1">
-        <v>42.52376402221803</v>
+        <v>101.5035287857059</v>
       </c>
       <c r="AE19" s="1">
-        <v>2.950274436742923</v>
+        <v>1.125836495924499</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.185823699047317</v>
+        <v>3.594853177688319</v>
       </c>
       <c r="AG19" s="1">
-        <v>3.931596566030738</v>
+        <v>3.633964705081459</v>
       </c>
       <c r="AH19" s="1">
-        <v>7.161070507254941</v>
+        <v>6.982702983165695</v>
       </c>
       <c r="AI19" s="1">
-        <v>7.26753868439211</v>
+        <v>7.208377991383824</v>
       </c>
       <c r="AJ19" s="1">
-        <v>35.16061821918885</v>
+        <v>314.1006864020234</v>
       </c>
       <c r="AK19" s="1">
-        <v>52.64823441964766</v>
+        <v>96.91529092402752</v>
       </c>
       <c r="AL19" s="1">
-        <v>42.28456293307272</v>
+        <v>111.8166683794946</v>
       </c>
       <c r="AM19" s="1">
-        <v>2.967317687536243</v>
+        <v>2.642860364906754</v>
       </c>
       <c r="AN19" s="1">
-        <v>4.42661543020326</v>
+        <v>314.622822006863</v>
       </c>
       <c r="AO19" s="1">
-        <v>4.214912324586434</v>
+        <v>3.642798402768108</v>
       </c>
       <c r="AP19" s="1">
-        <v>7.477811810868566</v>
+        <v>12.42307634183019</v>
       </c>
       <c r="AQ19" s="1">
-        <v>7.530199740960756</v>
+        <v>7.102971720986632</v>
       </c>
       <c r="AR19" s="1">
-        <v>22.70892342855447</v>
+        <v>445.0128277470573</v>
       </c>
       <c r="AS19" s="1">
-        <v>22.51871147115188</v>
+        <v>459.000107474395</v>
       </c>
       <c r="AT19" s="1">
-        <v>0.1711253731430062</v>
+        <v>178.7692821864712</v>
       </c>
       <c r="AU19" s="1">
-        <v>2.563210968518933</v>
+        <v>7.02134856379607</v>
       </c>
       <c r="AV19" s="1">
-        <v>1.426078677724943</v>
+        <v>6.123808909131268</v>
       </c>
       <c r="AW19" s="1">
-        <v>0.1889675187713944</v>
+        <v>0.210183002484343</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.1794305725701156</v>
+        <v>0.2087999087259154</v>
       </c>
       <c r="AY19" s="1">
-        <v>6.880328239603934</v>
+        <v>6.877987312999184</v>
       </c>
       <c r="AZ19" s="1">
-        <v>6.967006516502451</v>
+        <v>7.169855688321629</v>
       </c>
       <c r="BA19" s="1">
-        <v>0.03803089712066311</v>
+        <v>0.06299968449852439</v>
       </c>
       <c r="BB19" s="1">
-        <v>0.8518139856248974</v>
+        <v>1.018290641189112</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.9355580169920116</v>
+        <v>0.9758014911792535</v>
       </c>
       <c r="BD19" s="1">
-        <v>16.18584001067325</v>
+        <v>18.10244058297113</v>
       </c>
       <c r="BE19" s="1">
-        <v>16.05015299821696</v>
+        <v>17.88762376418089</v>
       </c>
       <c r="BF19" s="1">
-        <v>9.45158429071256</v>
+        <v>9.367541164923868</v>
       </c>
       <c r="BG19" s="1">
-        <v>9.431852966529016</v>
+        <v>9.49022838789041</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.03956732658815212</v>
+        <v>0.06385224456354371</v>
       </c>
       <c r="BI19" s="1">
-        <v>1.75415653242995</v>
+        <v>1.556279132510903</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.364675544329625</v>
+        <v>1.161136054385989</v>
       </c>
       <c r="BK19" s="1">
-        <v>8.830012606313442</v>
+        <v>9.488479731693873</v>
       </c>
       <c r="BL19" s="1">
-        <v>12.73308109483539</v>
+        <v>11.85154729907543</v>
       </c>
       <c r="BM19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BN19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BO19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BP19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BQ19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BR19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BS19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BT19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BU19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BV19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BW19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BY19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BZ19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="19:78" s="1" customFormat="1">
       <c r="S20" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="T20" s="1">
-        <v>8.977223099387411</v>
+        <v>9.273576634004232</v>
       </c>
       <c r="U20" s="1">
-        <v>9.128179287539954</v>
+        <v>9.751754237104368</v>
       </c>
       <c r="V20" s="1">
-        <v>9.049588304797497</v>
+        <v>9.506619446579982</v>
       </c>
       <c r="W20" s="1">
-        <v>0.2393724473261606</v>
+        <v>0.3650168208902897</v>
       </c>
       <c r="X20" s="1">
-        <v>679.7076763427566</v>
+        <v>220.765389697353</v>
       </c>
       <c r="Y20" s="1">
-        <v>323.6106507351765</v>
+        <v>186.4675294494273</v>
       </c>
       <c r="Z20" s="1">
-        <v>121.199195372321</v>
+        <v>58.18133186391757</v>
       </c>
       <c r="AA20" s="1">
-        <v>88.57753649318035</v>
+        <v>55.60496910329586</v>
       </c>
       <c r="AB20" s="1">
-        <v>8.87860126371163</v>
+        <v>40.57078977104104</v>
       </c>
       <c r="AC20" s="1">
-        <v>14.49144272923492</v>
+        <v>41.35295575532773</v>
       </c>
       <c r="AD20" s="1">
-        <v>11.13357231294014</v>
+        <v>40.8917062806919</v>
       </c>
       <c r="AE20" s="1">
-        <v>5.561874005566867</v>
+        <v>2.148657744926253</v>
       </c>
       <c r="AF20" s="1">
-        <v>20.57342680513885</v>
+        <v>18.5293538596493</v>
       </c>
       <c r="AG20" s="1">
-        <v>20.07438125964897</v>
+        <v>18.91931207318658</v>
       </c>
       <c r="AH20" s="1">
-        <v>23.6866546775967</v>
+        <v>22.1925330476087</v>
       </c>
       <c r="AI20" s="1">
-        <v>23.19130358118304</v>
+        <v>22.64293385074233</v>
       </c>
       <c r="AJ20" s="1">
-        <v>5.838704185690919</v>
+        <v>821.3357325204577</v>
       </c>
       <c r="AK20" s="1">
-        <v>14.3503296818087</v>
+        <v>41.13709391446511</v>
       </c>
       <c r="AL20" s="1">
-        <v>35.9377454527306</v>
+        <v>81.66771545985222</v>
       </c>
       <c r="AM20" s="1">
-        <v>6.33583148863316</v>
+        <v>5.216881085621464</v>
       </c>
       <c r="AN20" s="1">
-        <v>21.89004896297404</v>
+        <v>342.6988851005744</v>
       </c>
       <c r="AO20" s="1">
-        <v>21.43747424244087</v>
+        <v>18.98041044285037</v>
       </c>
       <c r="AP20" s="1">
-        <v>24.45966601180131</v>
+        <v>44.51029762577721</v>
       </c>
       <c r="AQ20" s="1">
-        <v>24.00546534677779</v>
+        <v>22.30864745373579</v>
       </c>
       <c r="AR20" s="1">
-        <v>6.647270774136578</v>
+        <v>1992.436149223701</v>
       </c>
       <c r="AS20" s="1">
-        <v>6.656036910485727</v>
+        <v>4831.693100738677</v>
       </c>
       <c r="AT20" s="1">
-        <v>0.3338716800230344</v>
+        <v>151.5687822125573</v>
       </c>
       <c r="AU20" s="1">
-        <v>1.038365485040224</v>
+        <v>2.926170165657798</v>
       </c>
       <c r="AV20" s="1">
-        <v>0.5798558030281714</v>
+        <v>2.578279399139677</v>
       </c>
       <c r="AW20" s="1">
-        <v>10.35584733394641</v>
+        <v>11.18187006369941</v>
       </c>
       <c r="AX20" s="1">
-        <v>9.802711421867505</v>
+        <v>10.99900778589408</v>
       </c>
       <c r="AY20" s="1">
-        <v>11.55878715363986</v>
+        <v>11.35565427708835</v>
       </c>
       <c r="AZ20" s="1">
-        <v>11.78970424488034</v>
+        <v>11.80348371567439</v>
       </c>
       <c r="BA20" s="1">
-        <v>0.07599969404687947</v>
+        <v>0.1260367879189732</v>
       </c>
       <c r="BB20" s="1">
-        <v>15.54098170925709</v>
+        <v>18.3018081121288</v>
       </c>
       <c r="BC20" s="1">
-        <v>17.35930271230784</v>
+        <v>17.61065834150468</v>
       </c>
       <c r="BD20" s="1">
-        <v>19.57995308475406</v>
+        <v>22.00948336923951</v>
       </c>
       <c r="BE20" s="1">
-        <v>19.05762141039733</v>
+        <v>21.70172334352955</v>
       </c>
       <c r="BF20" s="1">
-        <v>13.281561664895</v>
+        <v>13.07848397512726</v>
       </c>
       <c r="BG20" s="1">
-        <v>13.40996327064276</v>
+        <v>13.2825188764783</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.07901008061586655</v>
+        <v>0.1276400167364115</v>
       </c>
       <c r="BI20" s="1">
-        <v>17.20061473894415</v>
+        <v>16.43863639255911</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17.85765107692135</v>
+        <v>15.55681403512147</v>
       </c>
       <c r="BK20" s="1">
-        <v>19.80925448980985</v>
+        <v>19.7896775430183</v>
       </c>
       <c r="BL20" s="1">
-        <v>21.32109098677089</v>
+        <v>19.52874684503686</v>
       </c>
       <c r="BM20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BN20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BO20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BP20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BQ20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BR20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BS20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BT20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BU20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BV20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BW20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BY20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BZ20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="19:78" s="1" customFormat="1"/>

--- a/txsb_top_timing_bdlmax_tran_channel_s_tsmc2ff_meas.xlsx
+++ b/txsb_top_timing_bdlmax_tran_channel_s_tsmc2ff_meas.xlsx
@@ -1112,139 +1112,139 @@
         <v>91</v>
       </c>
       <c r="T2">
-        <v>248.309</v>
+        <v>249.757</v>
       </c>
       <c r="U2">
-        <v>245.786</v>
+        <v>247.021</v>
       </c>
       <c r="V2">
-        <v>247.048</v>
+        <v>248.389</v>
       </c>
       <c r="W2" s="2">
-        <v>-50.2809</v>
+        <v>-50.3282</v>
       </c>
       <c r="X2" s="2">
-        <v>27.2116</v>
+        <v>29.1367</v>
       </c>
       <c r="Y2" s="2">
-        <v>25.1812</v>
+        <v>26.7499</v>
       </c>
       <c r="Z2">
-        <v>16.537</v>
+        <v>15.4444</v>
       </c>
       <c r="AA2">
-        <v>17.8705</v>
+        <v>16.8225</v>
       </c>
       <c r="AB2">
-        <v>215.013</v>
+        <v>213.874</v>
       </c>
       <c r="AC2">
-        <v>196.676</v>
+        <v>195.351</v>
       </c>
       <c r="AD2">
-        <v>205.845</v>
+        <v>204.613</v>
       </c>
       <c r="AE2" s="3">
-        <v>51.887</v>
+        <v>51.9246</v>
       </c>
       <c r="AF2" s="2">
-        <v>18.0472</v>
+        <v>18.4341</v>
       </c>
       <c r="AG2" s="2">
-        <v>19.0761</v>
+        <v>18.8427</v>
       </c>
       <c r="AH2">
-        <v>33.2461</v>
+        <v>32.5483</v>
       </c>
       <c r="AI2">
-        <v>31.453</v>
+        <v>31.8426</v>
       </c>
       <c r="AJ2">
-        <v>213.632</v>
+        <v>213.575</v>
       </c>
       <c r="AK2">
-        <v>196.096</v>
+        <v>194.749</v>
       </c>
       <c r="AL2">
-        <v>204.864</v>
+        <v>204.162</v>
       </c>
       <c r="AM2" s="3">
-        <v>51.7013</v>
+        <v>51.8709</v>
       </c>
       <c r="AN2" s="2">
-        <v>18.4369</v>
+        <v>18.4136</v>
       </c>
       <c r="AO2" s="2">
-        <v>18.7268</v>
+        <v>18.2541</v>
       </c>
       <c r="AP2">
-        <v>32.5435</v>
+        <v>32.5845</v>
       </c>
       <c r="AQ2">
-        <v>32.0396</v>
+        <v>32.8694</v>
       </c>
       <c r="AR2">
-        <v>-740.692</v>
+        <v>-737.596</v>
       </c>
       <c r="AS2">
-        <v>-844.467</v>
+        <v>-846.2360000000001</v>
       </c>
       <c r="AT2" s="4">
-        <v>63.1507</v>
+        <v>63.4866</v>
       </c>
       <c r="AU2" s="4">
-        <v>238.475</v>
+        <v>241.399</v>
       </c>
       <c r="AV2" s="4">
-        <v>236.784</v>
+        <v>240.32</v>
       </c>
       <c r="AW2">
-        <v>1.88699</v>
+        <v>1.86413</v>
       </c>
       <c r="AX2">
-        <v>1.90047</v>
+        <v>1.8725</v>
       </c>
       <c r="AY2">
-        <v>58.6853</v>
+        <v>58.6858</v>
       </c>
       <c r="AZ2">
-        <v>59.10270000000001</v>
+        <v>59.1037</v>
       </c>
       <c r="BA2" s="2">
-        <v>-49.9607</v>
+        <v>-49.9609</v>
       </c>
       <c r="BB2" s="2">
-        <v>4.85821</v>
+        <v>4.857990000000001</v>
       </c>
       <c r="BC2" s="2">
-        <v>4.59843</v>
+        <v>4.597980000000001</v>
       </c>
       <c r="BD2">
-        <v>92.6267</v>
+        <v>92.63079999999999</v>
       </c>
       <c r="BE2">
-        <v>97.8595</v>
+        <v>97.8691</v>
       </c>
       <c r="BF2">
-        <v>68.8738</v>
+        <v>68.8742</v>
       </c>
       <c r="BG2">
-        <v>69.0813</v>
+        <v>69.0822</v>
       </c>
       <c r="BH2" s="2">
-        <v>-49.9775</v>
+        <v>-49.9777</v>
       </c>
       <c r="BI2" s="2">
-        <v>9.016729999999999</v>
+        <v>9.016679999999999</v>
       </c>
       <c r="BJ2" s="2">
-        <v>7.03567</v>
+        <v>7.03578</v>
       </c>
       <c r="BK2">
-        <v>49.9072</v>
+        <v>49.9075</v>
       </c>
       <c r="BL2">
-        <v>63.9598</v>
+        <v>63.9588</v>
       </c>
       <c r="BM2" s="5" t="s">
         <v>92</v>
@@ -1348,139 +1348,139 @@
         <v>91</v>
       </c>
       <c r="T3">
-        <v>262.66</v>
+        <v>264.665</v>
       </c>
       <c r="U3">
-        <v>259.124</v>
+        <v>260.325</v>
       </c>
       <c r="V3">
-        <v>260.892</v>
+        <v>262.495</v>
       </c>
       <c r="W3" s="2">
-        <v>-50.3289</v>
+        <v>-50.4426</v>
       </c>
       <c r="X3" s="2">
-        <v>29.5233</v>
+        <v>31.9061</v>
       </c>
       <c r="Y3" s="2">
-        <v>27.931</v>
+        <v>29.4722</v>
       </c>
       <c r="Z3">
-        <v>16.7664</v>
+        <v>15.5143</v>
       </c>
       <c r="AA3">
-        <v>17.7222</v>
+        <v>16.7955</v>
       </c>
       <c r="AB3">
-        <v>241.226</v>
+        <v>239.238</v>
       </c>
       <c r="AC3">
-        <v>213.355</v>
+        <v>211.586</v>
       </c>
       <c r="AD3">
-        <v>227.291</v>
+        <v>225.412</v>
       </c>
       <c r="AE3" s="3">
-        <v>52.7609</v>
+        <v>52.7439</v>
       </c>
       <c r="AF3" s="2">
-        <v>21.2824</v>
+        <v>21.2881</v>
       </c>
       <c r="AG3" s="2">
-        <v>20.6636</v>
+        <v>21.5094</v>
       </c>
       <c r="AH3">
-        <v>29.6208</v>
+        <v>29.6128</v>
       </c>
       <c r="AI3">
-        <v>30.5077</v>
+        <v>29.3081</v>
       </c>
       <c r="AJ3">
-        <v>245.518</v>
+        <v>241.09</v>
       </c>
       <c r="AK3">
-        <v>214.431</v>
+        <v>212.522</v>
       </c>
       <c r="AL3">
-        <v>229.974</v>
+        <v>226.806</v>
       </c>
       <c r="AM3" s="3">
-        <v>52.792</v>
+        <v>52.5235</v>
       </c>
       <c r="AN3" s="2">
-        <v>-981.627</v>
+        <v>-979.4100000000001</v>
       </c>
       <c r="AO3" s="2">
-        <v>21.0199</v>
+        <v>21.3756</v>
       </c>
       <c r="AP3">
-        <v>-0.642199</v>
+        <v>-0.643653</v>
       </c>
       <c r="AQ3">
-        <v>29.9907</v>
+        <v>29.4915</v>
       </c>
       <c r="AR3" s="3">
-        <v>336.849</v>
+        <v>341.812</v>
       </c>
       <c r="AS3">
-        <v>320.037</v>
-      </c>
-      <c r="AT3" s="4">
-        <v>57.3426</v>
+        <v>323.737</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>3.19226</v>
       </c>
       <c r="AU3" s="4">
-        <v>241.809</v>
+        <v>244.423</v>
       </c>
       <c r="AV3" s="4">
-        <v>239.44</v>
+        <v>242.922</v>
       </c>
       <c r="AW3">
-        <v>2.04707</v>
+        <v>2.02517</v>
       </c>
       <c r="AX3">
-        <v>2.06732</v>
+        <v>2.03769</v>
       </c>
       <c r="AY3">
-        <v>64.0479</v>
+        <v>64.0444</v>
       </c>
       <c r="AZ3">
-        <v>64.7876</v>
+        <v>64.7898</v>
       </c>
       <c r="BA3" s="2">
-        <v>-49.9292</v>
+        <v>-49.9288</v>
       </c>
       <c r="BB3" s="2">
-        <v>5.106210000000001</v>
+        <v>5.10594</v>
       </c>
       <c r="BC3" s="2">
-        <v>6.39407</v>
+        <v>6.39721</v>
       </c>
       <c r="BD3">
-        <v>92.5932</v>
+        <v>92.5981</v>
       </c>
       <c r="BE3">
-        <v>73.9435</v>
+        <v>73.9072</v>
       </c>
       <c r="BF3">
-        <v>75.733</v>
+        <v>75.71329999999999</v>
       </c>
       <c r="BG3">
-        <v>76.4038</v>
+        <v>76.4061</v>
       </c>
       <c r="BH3" s="2">
-        <v>-49.94</v>
+        <v>-49.9369</v>
       </c>
       <c r="BI3" s="2">
-        <v>10.1639</v>
+        <v>10.1603</v>
       </c>
       <c r="BJ3" s="2">
-        <v>8.02787</v>
+        <v>8.028930000000001</v>
       </c>
       <c r="BK3">
-        <v>46.5178</v>
+        <v>46.5339</v>
       </c>
       <c r="BL3">
-        <v>58.8948</v>
+        <v>58.887</v>
       </c>
       <c r="BM3" s="5" t="s">
         <v>92</v>
@@ -1584,139 +1584,139 @@
         <v>91</v>
       </c>
       <c r="T4">
-        <v>258.271</v>
+        <v>259.57</v>
       </c>
       <c r="U4">
-        <v>253.421</v>
+        <v>254.532</v>
       </c>
       <c r="V4">
-        <v>255.846</v>
+        <v>257.051</v>
       </c>
       <c r="W4" s="2">
-        <v>-50.5256</v>
+        <v>-50.5029</v>
       </c>
       <c r="X4" s="2">
-        <v>27.6866</v>
+        <v>29.4569</v>
       </c>
       <c r="Y4" s="2">
-        <v>24.9341</v>
+        <v>26.5871</v>
       </c>
       <c r="Z4">
-        <v>17.8787</v>
+        <v>16.8042</v>
       </c>
       <c r="AA4">
-        <v>19.8523</v>
+        <v>18.618</v>
       </c>
       <c r="AB4">
-        <v>232.124</v>
+        <v>232.04</v>
       </c>
       <c r="AC4">
-        <v>210.43</v>
+        <v>209.189</v>
       </c>
       <c r="AD4">
-        <v>221.277</v>
+        <v>220.615</v>
       </c>
       <c r="AE4" s="3">
-        <v>52.3642</v>
+        <v>52.3048</v>
       </c>
       <c r="AF4" s="2">
-        <v>20.2559</v>
+        <v>20.4552</v>
       </c>
       <c r="AG4" s="2">
-        <v>20.3374</v>
+        <v>19.4091</v>
       </c>
       <c r="AH4">
-        <v>31.1219</v>
+        <v>30.8186</v>
       </c>
       <c r="AI4">
-        <v>30.9971</v>
+        <v>32.4796</v>
       </c>
       <c r="AJ4">
-        <v>232.987</v>
+        <v>231.789</v>
       </c>
       <c r="AK4">
-        <v>210.485</v>
+        <v>209.174</v>
       </c>
       <c r="AL4">
-        <v>221.736</v>
+        <v>220.482</v>
       </c>
       <c r="AM4" s="3">
-        <v>52.2283</v>
+        <v>52.2474</v>
       </c>
       <c r="AN4" s="2">
-        <v>20.4459</v>
+        <v>20.444</v>
       </c>
       <c r="AO4" s="2">
-        <v>20.44</v>
+        <v>19.4722</v>
       </c>
       <c r="AP4">
-        <v>30.8326</v>
+        <v>30.8355</v>
       </c>
       <c r="AQ4">
-        <v>30.8414</v>
+        <v>32.3744</v>
       </c>
       <c r="AR4">
-        <v>288.034</v>
+        <v>293.377</v>
       </c>
       <c r="AS4">
-        <v>163.292</v>
+        <v>161.008</v>
       </c>
       <c r="AT4" s="4">
-        <v>63.3028</v>
+        <v>63.7407</v>
       </c>
       <c r="AU4" s="4">
-        <v>238.877</v>
+        <v>242.231</v>
       </c>
       <c r="AV4" s="4">
-        <v>235.807</v>
+        <v>239.046</v>
       </c>
       <c r="AW4">
-        <v>2.07219</v>
+        <v>2.04351</v>
       </c>
       <c r="AX4">
-        <v>2.09918</v>
+        <v>2.07073</v>
       </c>
       <c r="AY4">
-        <v>61.14469999999999</v>
+        <v>61.16079999999999</v>
       </c>
       <c r="AZ4">
-        <v>60.4778</v>
+        <v>60.4768</v>
       </c>
       <c r="BA4" s="2">
-        <v>-50.0904</v>
+        <v>-50.0698</v>
       </c>
       <c r="BB4" s="2">
-        <v>4.30551</v>
+        <v>4.303170000000001</v>
       </c>
       <c r="BC4" s="2">
         <v>4.26839</v>
       </c>
       <c r="BD4">
-        <v>109.813</v>
+        <v>109.873</v>
       </c>
       <c r="BE4">
         <v>110.768</v>
       </c>
       <c r="BF4">
-        <v>72.5549</v>
+        <v>72.5658</v>
       </c>
       <c r="BG4">
-        <v>71.77500000000001</v>
+        <v>71.77379999999999</v>
       </c>
       <c r="BH4" s="2">
-        <v>-50.1122</v>
+        <v>-50.0868</v>
       </c>
       <c r="BI4" s="2">
-        <v>9.483360000000001</v>
+        <v>9.50459</v>
       </c>
       <c r="BJ4" s="2">
-        <v>7.41165</v>
+        <v>7.41138</v>
       </c>
       <c r="BK4">
-        <v>49.8557</v>
+        <v>49.7444</v>
       </c>
       <c r="BL4">
-        <v>63.7915</v>
+        <v>63.7938</v>
       </c>
       <c r="BM4" s="5" t="s">
         <v>92</v>
@@ -1820,139 +1820,139 @@
         <v>91</v>
       </c>
       <c r="T5">
-        <v>290.456</v>
+        <v>291.072</v>
       </c>
       <c r="U5">
-        <v>288.395</v>
+        <v>289.556</v>
       </c>
       <c r="V5">
-        <v>289.425</v>
+        <v>290.314</v>
       </c>
       <c r="W5" s="2">
-        <v>-50.1565</v>
-      </c>
-      <c r="X5" s="2">
-        <v>-1947.82</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>2038.99</v>
+        <v>-50.1173</v>
+      </c>
+      <c r="X5" s="4">
+        <v>110.048</v>
+      </c>
+      <c r="Y5">
+        <v>46.7968</v>
       </c>
       <c r="Z5">
-        <v>-0.207924</v>
+        <v>3.6802</v>
       </c>
       <c r="AA5">
-        <v>0.198627</v>
+        <v>8.65443</v>
       </c>
       <c r="AB5" s="4">
-        <v>448.647</v>
+        <v>449.749</v>
       </c>
       <c r="AC5" s="4">
-        <v>389.793</v>
+        <v>382.496</v>
       </c>
       <c r="AD5" s="4">
-        <v>419.22</v>
+        <v>416.123</v>
       </c>
       <c r="AE5" s="4">
-        <v>55.3026</v>
+        <v>58.1967</v>
       </c>
       <c r="AF5" s="2">
-        <v>25.0616</v>
+        <v>24.5026</v>
       </c>
       <c r="AG5" s="2">
-        <v>25.3047</v>
+        <v>24.8113</v>
       </c>
       <c r="AH5">
-        <v>21.5469</v>
+        <v>22.0385</v>
       </c>
       <c r="AI5">
-        <v>21.3399</v>
+        <v>21.7643</v>
       </c>
       <c r="AJ5">
-        <v>-555.5170000000001</v>
+        <v>-550.417</v>
       </c>
       <c r="AK5" s="4">
-        <v>385.954</v>
+        <v>389.433</v>
       </c>
       <c r="AL5">
-        <v>-84.7816</v>
+        <v>-80.4924</v>
       </c>
       <c r="AM5" s="2">
-        <v>44.2183</v>
+        <v>43.3978</v>
       </c>
       <c r="AN5" s="2">
-        <v>26.1585</v>
+        <v>25.4107</v>
       </c>
       <c r="AO5" s="2">
-        <v>25.6697</v>
+        <v>25.3836</v>
       </c>
       <c r="AP5">
-        <v>20.6434</v>
+        <v>21.2509</v>
       </c>
       <c r="AQ5">
-        <v>21.0365</v>
+        <v>21.2736</v>
       </c>
       <c r="AR5" s="4">
-        <v>376.029</v>
+        <v>379.342</v>
       </c>
       <c r="AS5" s="4">
-        <v>373.039</v>
-      </c>
-      <c r="AT5">
-        <v>51.481</v>
+        <v>376.657</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>51.5325</v>
       </c>
       <c r="AU5" s="4">
-        <v>252.008</v>
+        <v>254.808</v>
       </c>
       <c r="AV5" s="4">
-        <v>249.516</v>
+        <v>252.493</v>
       </c>
       <c r="AW5">
-        <v>1.60709</v>
+        <v>1.58943</v>
       </c>
       <c r="AX5">
-        <v>1.62314</v>
+        <v>1.604</v>
       </c>
       <c r="AY5">
-        <v>71.3925</v>
+        <v>71.224</v>
       </c>
       <c r="AZ5">
-        <v>72.3347</v>
+        <v>72.3985</v>
       </c>
       <c r="BA5" s="2">
-        <v>-49.9051</v>
+        <v>-49.8831</v>
       </c>
       <c r="BB5" s="2">
-        <v>6.514</v>
+        <v>5.472840000000001</v>
       </c>
       <c r="BC5" s="2">
-        <v>6.545710000000001</v>
+        <v>6.52875</v>
       </c>
       <c r="BD5">
-        <v>62.1738</v>
+        <v>74.0018</v>
       </c>
       <c r="BE5">
-        <v>61.8726</v>
+        <v>62.0333</v>
       </c>
       <c r="BF5">
-        <v>86.29349999999999</v>
+        <v>85.55880000000001</v>
       </c>
       <c r="BG5">
-        <v>86.51389999999999</v>
+        <v>86.56740000000001</v>
       </c>
       <c r="BH5" s="2">
-        <v>-49.9809</v>
+        <v>-49.9037</v>
       </c>
       <c r="BI5" s="2">
-        <v>12.1275</v>
+        <v>11.9312</v>
       </c>
       <c r="BJ5" s="2">
-        <v>9.594640000000002</v>
+        <v>9.614520000000001</v>
       </c>
       <c r="BK5">
-        <v>33.3951</v>
+        <v>33.9445</v>
       </c>
       <c r="BL5">
-        <v>42.2111</v>
+        <v>42.1238</v>
       </c>
       <c r="BM5" s="5" t="s">
         <v>92</v>
@@ -2056,139 +2056,139 @@
         <v>91</v>
       </c>
       <c r="T6">
-        <v>294.8800000000001</v>
+        <v>296.065</v>
       </c>
       <c r="U6">
-        <v>293.461</v>
+        <v>294.669</v>
       </c>
       <c r="V6">
-        <v>294.17</v>
+        <v>295.367</v>
       </c>
       <c r="W6" s="2">
-        <v>-50.05</v>
-      </c>
-      <c r="X6" s="2">
-        <v>-873.883</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>1037.05</v>
+        <v>-50.1103</v>
+      </c>
+      <c r="X6" s="4">
+        <v>127.532</v>
+      </c>
+      <c r="Y6">
+        <v>39.174</v>
       </c>
       <c r="Z6">
-        <v>-0.463449</v>
+        <v>3.17568</v>
       </c>
       <c r="AA6">
-        <v>0.390529</v>
+        <v>10.3385</v>
       </c>
       <c r="AB6" s="4">
-        <v>458.549</v>
+        <v>463.285</v>
       </c>
       <c r="AC6" s="4">
-        <v>438.053</v>
+        <v>442.46</v>
       </c>
       <c r="AD6" s="4">
-        <v>448.301</v>
+        <v>452.873</v>
       </c>
       <c r="AE6" s="3">
-        <v>52.1683</v>
+        <v>52.0561</v>
       </c>
       <c r="AF6" s="2">
-        <v>24.921</v>
+        <v>25.0592</v>
       </c>
       <c r="AG6" s="2">
-        <v>24.1644</v>
+        <v>24.6231</v>
       </c>
       <c r="AH6">
-        <v>21.6685</v>
+        <v>21.549</v>
       </c>
       <c r="AI6">
-        <v>22.3469</v>
+        <v>21.9307</v>
       </c>
       <c r="AJ6">
-        <v>-540.0160000000001</v>
+        <v>-536.3530000000001</v>
       </c>
       <c r="AK6" s="4">
-        <v>437.648</v>
+        <v>441.452</v>
       </c>
       <c r="AL6">
-        <v>-51.1839</v>
+        <v>-47.4504</v>
       </c>
       <c r="AM6" s="6">
-        <v>47.8791</v>
+        <v>47.9342</v>
       </c>
       <c r="AN6" s="2">
-        <v>25.5825</v>
+        <v>24.8916</v>
       </c>
       <c r="AO6" s="2">
-        <v>23.6236</v>
+        <v>24.1216</v>
       </c>
       <c r="AP6">
-        <v>21.1082</v>
+        <v>21.694</v>
       </c>
       <c r="AQ6">
-        <v>22.8585</v>
+        <v>22.3866</v>
       </c>
       <c r="AR6" s="4">
-        <v>381.494</v>
+        <v>384.752</v>
       </c>
       <c r="AS6" s="4">
-        <v>375.283</v>
+        <v>379.3</v>
       </c>
       <c r="AT6" s="3">
-        <v>51.5078</v>
+        <v>51.5345</v>
       </c>
       <c r="AU6" s="4">
-        <v>251.361</v>
+        <v>254.373</v>
       </c>
       <c r="AV6" s="4">
-        <v>245.334</v>
+        <v>248.875</v>
       </c>
       <c r="AW6">
-        <v>1.61123</v>
+        <v>1.59215</v>
       </c>
       <c r="AX6">
-        <v>1.65081</v>
+        <v>1.62733</v>
       </c>
       <c r="AY6">
-        <v>71.26469999999999</v>
+        <v>71.2531</v>
       </c>
       <c r="AZ6">
-        <v>71.717</v>
+        <v>71.7209</v>
       </c>
       <c r="BA6" s="2">
-        <v>-49.9503</v>
+        <v>-49.9486</v>
       </c>
       <c r="BB6" s="2">
-        <v>6.26511</v>
+        <v>6.26274</v>
       </c>
       <c r="BC6" s="2">
-        <v>6.126200000000001</v>
+        <v>6.140280000000001</v>
       </c>
       <c r="BD6">
-        <v>64.6437</v>
+        <v>64.6681</v>
       </c>
       <c r="BE6">
-        <v>66.1095</v>
+        <v>65.9579</v>
       </c>
       <c r="BF6">
-        <v>86.9205</v>
+        <v>86.9096</v>
       </c>
       <c r="BG6">
-        <v>86.5043</v>
+        <v>86.497</v>
       </c>
       <c r="BH6" s="2">
-        <v>-50.0665</v>
+        <v>-50.0673</v>
       </c>
       <c r="BI6" s="2">
-        <v>11.8382</v>
+        <v>11.8397</v>
       </c>
       <c r="BJ6" s="2">
-        <v>8.99001</v>
+        <v>8.99128</v>
       </c>
       <c r="BK6">
-        <v>34.2113</v>
+        <v>34.207</v>
       </c>
       <c r="BL6">
-        <v>45.05</v>
+        <v>45.0436</v>
       </c>
       <c r="BM6" s="5" t="s">
         <v>92</v>
@@ -2292,139 +2292,139 @@
         <v>121</v>
       </c>
       <c r="T7">
-        <v>234.486</v>
+        <v>235.612</v>
       </c>
       <c r="U7">
-        <v>227.128</v>
+        <v>228.275</v>
       </c>
       <c r="V7">
-        <v>230.807</v>
+        <v>231.944</v>
       </c>
       <c r="W7" s="2">
-        <v>-50.6727</v>
+        <v>-50.6425</v>
       </c>
       <c r="X7" s="2">
-        <v>22.8236</v>
+        <v>24.2788</v>
       </c>
       <c r="Y7" s="2">
-        <v>22.1043</v>
+        <v>23.1322</v>
       </c>
       <c r="Z7">
-        <v>21.6881</v>
+        <v>20.3882</v>
       </c>
       <c r="AA7">
-        <v>22.3938</v>
+        <v>21.3987</v>
       </c>
       <c r="AB7">
-        <v>183.802</v>
+        <v>183.057</v>
       </c>
       <c r="AC7">
-        <v>162.391</v>
+        <v>161.965</v>
       </c>
       <c r="AD7">
-        <v>173.096</v>
+        <v>172.511</v>
       </c>
       <c r="AE7" s="3">
-        <v>52.1903</v>
+        <v>52.0091</v>
       </c>
       <c r="AF7" s="2">
-        <v>15.4513</v>
+        <v>15.6922</v>
       </c>
       <c r="AG7" s="2">
-        <v>15.3066</v>
+        <v>15.8375</v>
       </c>
       <c r="AH7">
-        <v>40.799</v>
+        <v>40.1729</v>
       </c>
       <c r="AI7">
-        <v>41.185</v>
+        <v>39.8043</v>
       </c>
       <c r="AJ7">
-        <v>183.808</v>
+        <v>183.217</v>
       </c>
       <c r="AK7">
-        <v>162.113</v>
+        <v>161.673</v>
       </c>
       <c r="AL7">
-        <v>172.96</v>
+        <v>172.445</v>
       </c>
       <c r="AM7" s="3">
-        <v>52.0488</v>
+        <v>52.1216</v>
       </c>
       <c r="AN7" s="2">
-        <v>15.6073</v>
+        <v>16.1968</v>
       </c>
       <c r="AO7" s="2">
-        <v>15.8406</v>
+        <v>16.0824</v>
       </c>
       <c r="AP7">
-        <v>40.3915</v>
+        <v>38.9213</v>
       </c>
       <c r="AQ7">
-        <v>39.7965</v>
+        <v>39.1981</v>
       </c>
       <c r="AR7">
-        <v>136.509</v>
+        <v>134.816</v>
       </c>
       <c r="AS7">
-        <v>127.375</v>
+        <v>126.433</v>
       </c>
       <c r="AT7">
-        <v>50.8023</v>
+        <v>50.6763</v>
       </c>
       <c r="AU7" s="4">
-        <v>233.76</v>
+        <v>236.641</v>
       </c>
       <c r="AV7" s="4">
-        <v>232.261</v>
+        <v>234.985</v>
       </c>
       <c r="AW7">
-        <v>2.11756</v>
+        <v>2.09178</v>
       </c>
       <c r="AX7">
-        <v>2.13122</v>
+        <v>2.10652</v>
       </c>
       <c r="AY7">
-        <v>56.2289</v>
+        <v>56.0511</v>
       </c>
       <c r="AZ7">
-        <v>55.3181</v>
+        <v>55.3211</v>
       </c>
       <c r="BA7" s="2">
-        <v>-50.0937</v>
+        <v>-50.0656</v>
       </c>
       <c r="BB7" s="2">
-        <v>6.80114</v>
+        <v>6.44259</v>
       </c>
       <c r="BC7" s="2">
-        <v>6.111160000000001</v>
+        <v>6.11389</v>
       </c>
       <c r="BD7">
-        <v>69.51779999999999</v>
+        <v>73.3866</v>
       </c>
       <c r="BE7">
-        <v>77.36669999999999</v>
+        <v>77.3321</v>
       </c>
       <c r="BF7">
-        <v>65.0637</v>
+        <v>64.705</v>
       </c>
       <c r="BG7">
-        <v>63.68259999999999</v>
+        <v>63.68660000000001</v>
       </c>
       <c r="BH7" s="2">
-        <v>-50.1407</v>
+        <v>-50.0871</v>
       </c>
       <c r="BI7" s="2">
-        <v>8.17581</v>
+        <v>8.10525</v>
       </c>
       <c r="BJ7" s="2">
-        <v>6.53604</v>
+        <v>6.54145</v>
       </c>
       <c r="BK7">
-        <v>57.8291</v>
+        <v>58.3326</v>
       </c>
       <c r="BL7">
-        <v>72.3374</v>
+        <v>72.27760000000001</v>
       </c>
       <c r="BM7" s="5" t="s">
         <v>92</v>
@@ -2528,139 +2528,139 @@
         <v>121</v>
       </c>
       <c r="T8">
-        <v>221.342</v>
+        <v>222.682</v>
       </c>
       <c r="U8">
-        <v>217.63</v>
+        <v>218.727</v>
       </c>
       <c r="V8">
-        <v>219.486</v>
+        <v>220.705</v>
       </c>
       <c r="W8" s="2">
-        <v>-50.2824</v>
+        <v>-50.3067</v>
       </c>
       <c r="X8" s="2">
-        <v>19.8066</v>
+        <v>22.1594</v>
       </c>
       <c r="Y8" s="2">
-        <v>19.2602</v>
+        <v>20.6881</v>
       </c>
       <c r="Z8">
-        <v>24.9917</v>
+        <v>22.3382</v>
       </c>
       <c r="AA8">
-        <v>25.7007</v>
+        <v>23.9268</v>
       </c>
       <c r="AB8">
-        <v>165.089</v>
+        <v>164.739</v>
       </c>
       <c r="AC8">
-        <v>150.954</v>
+        <v>150.164</v>
       </c>
       <c r="AD8">
-        <v>158.022</v>
+        <v>157.452</v>
       </c>
       <c r="AE8">
-        <v>51.3313</v>
+        <v>51.4251</v>
       </c>
       <c r="AF8" s="2">
-        <v>14.4645</v>
+        <v>14.4301</v>
       </c>
       <c r="AG8" s="2">
-        <v>14.0405</v>
+        <v>14.074</v>
       </c>
       <c r="AH8">
-        <v>43.5824</v>
+        <v>43.6864</v>
       </c>
       <c r="AI8">
-        <v>44.8986</v>
+        <v>44.7919</v>
       </c>
       <c r="AJ8">
-        <v>164.223</v>
+        <v>164.127</v>
       </c>
       <c r="AK8">
-        <v>151.132</v>
+        <v>150.849</v>
       </c>
       <c r="AL8">
-        <v>157.677</v>
+        <v>157.488</v>
       </c>
       <c r="AM8">
-        <v>51.4173</v>
+        <v>51.2952</v>
       </c>
       <c r="AN8" s="2">
-        <v>14.3013</v>
+        <v>14.3688</v>
       </c>
       <c r="AO8" s="2">
-        <v>13.9016</v>
+        <v>14.0875</v>
       </c>
       <c r="AP8">
-        <v>44.0799</v>
+        <v>43.8729</v>
       </c>
       <c r="AQ8">
-        <v>45.3474</v>
+        <v>44.7488</v>
       </c>
       <c r="AR8">
-        <v>119.973</v>
+        <v>119.476</v>
       </c>
       <c r="AS8">
-        <v>115.682</v>
+        <v>114.952</v>
       </c>
       <c r="AT8">
-        <v>50.3543</v>
+        <v>50.3885</v>
       </c>
       <c r="AU8" s="4">
-        <v>230.198</v>
+        <v>233.219</v>
       </c>
       <c r="AV8" s="4">
-        <v>228.629</v>
+        <v>231.461</v>
       </c>
       <c r="AW8">
-        <v>2.15032</v>
+        <v>2.12247</v>
       </c>
       <c r="AX8">
-        <v>2.16508</v>
+        <v>2.13859</v>
       </c>
       <c r="AY8">
-        <v>49.78740000000001</v>
+        <v>49.7926</v>
       </c>
       <c r="AZ8">
-        <v>50.0593</v>
+        <v>50.058</v>
       </c>
       <c r="BA8" s="2">
-        <v>-49.9717</v>
+        <v>-49.9713</v>
       </c>
       <c r="BB8" s="2">
-        <v>4.56683</v>
+        <v>4.567010000000001</v>
       </c>
       <c r="BC8" s="2">
-        <v>4.536379999999999</v>
+        <v>4.53511</v>
       </c>
       <c r="BD8">
-        <v>103.529</v>
+        <v>103.525</v>
       </c>
       <c r="BE8">
-        <v>104.224</v>
+        <v>104.253</v>
       </c>
       <c r="BF8">
-        <v>57.6383</v>
+        <v>57.6454</v>
       </c>
       <c r="BG8">
-        <v>57.6273</v>
+        <v>57.6287</v>
       </c>
       <c r="BH8" s="2">
-        <v>-49.999</v>
+        <v>-49.9991</v>
       </c>
       <c r="BI8" s="2">
-        <v>7.264460000000001</v>
+        <v>7.272810000000001</v>
       </c>
       <c r="BJ8" s="2">
-        <v>5.70584</v>
+        <v>5.70858</v>
       </c>
       <c r="BK8">
-        <v>65.084</v>
+        <v>65.0093</v>
       </c>
       <c r="BL8">
-        <v>82.8625</v>
+        <v>82.8227</v>
       </c>
       <c r="BM8" s="5" t="s">
         <v>92</v>
@@ -2764,139 +2764,139 @@
         <v>121</v>
       </c>
       <c r="T9">
-        <v>243.647</v>
+        <v>245.141</v>
       </c>
       <c r="U9">
-        <v>240.507</v>
+        <v>241.788</v>
       </c>
       <c r="V9">
-        <v>242.077</v>
+        <v>243.465</v>
       </c>
       <c r="W9" s="2">
-        <v>-50.3078</v>
+        <v>-50.3432</v>
       </c>
       <c r="X9" s="2">
-        <v>26.3408</v>
+        <v>28.2643</v>
       </c>
       <c r="Y9" s="2">
-        <v>25.6148</v>
+        <v>27.2861</v>
       </c>
       <c r="Z9">
-        <v>15.3754</v>
+        <v>14.329</v>
       </c>
       <c r="AA9">
-        <v>15.8112</v>
+        <v>14.8427</v>
       </c>
       <c r="AB9">
-        <v>206.673</v>
+        <v>205.677</v>
       </c>
       <c r="AC9">
-        <v>184.133</v>
+        <v>182.921</v>
       </c>
       <c r="AD9">
-        <v>195.403</v>
+        <v>194.299</v>
       </c>
       <c r="AE9" s="3">
-        <v>52.3291</v>
+        <v>52.3038</v>
       </c>
       <c r="AF9" s="2">
-        <v>18.2536</v>
+        <v>17.0915</v>
       </c>
       <c r="AG9" s="2">
-        <v>17.9686</v>
+        <v>17.3695</v>
       </c>
       <c r="AH9">
-        <v>29.5832</v>
+        <v>31.5947</v>
       </c>
       <c r="AI9">
-        <v>30.0524</v>
+        <v>31.089</v>
       </c>
       <c r="AJ9">
-        <v>206.997</v>
+        <v>206.068</v>
       </c>
       <c r="AK9">
-        <v>184.112</v>
+        <v>183.023</v>
       </c>
       <c r="AL9">
-        <v>195.554</v>
+        <v>194.545</v>
       </c>
       <c r="AM9" s="3">
-        <v>52.2269</v>
+        <v>52.1553</v>
       </c>
       <c r="AN9" s="2">
-        <v>18.4489</v>
+        <v>17.8161</v>
       </c>
       <c r="AO9" s="2">
-        <v>17.6532</v>
+        <v>17.3839</v>
       </c>
       <c r="AP9">
-        <v>29.27</v>
+        <v>30.3096</v>
       </c>
       <c r="AQ9">
-        <v>30.5894</v>
+        <v>31.0633</v>
       </c>
       <c r="AR9">
-        <v>-837.859</v>
+        <v>-773.865</v>
       </c>
       <c r="AS9">
-        <v>-852.332</v>
-      </c>
-      <c r="AT9" s="4">
-        <v>623.3819999999999</v>
+        <v>-314.456</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>1.70515</v>
       </c>
       <c r="AU9" s="4">
-        <v>238.034</v>
+        <v>241.373</v>
       </c>
       <c r="AV9" s="4">
-        <v>236.561</v>
+        <v>239.868</v>
       </c>
       <c r="AW9">
-        <v>1.70144</v>
+        <v>1.6779</v>
       </c>
       <c r="AX9">
-        <v>1.71203</v>
+        <v>1.68843</v>
       </c>
       <c r="AY9">
-        <v>58.0772</v>
+        <v>58.07660000000001</v>
       </c>
       <c r="AZ9">
-        <v>58.48090000000001</v>
+        <v>58.49460000000001</v>
       </c>
       <c r="BA9" s="2">
-        <v>-49.957</v>
+        <v>-49.9552</v>
       </c>
       <c r="BB9" s="2">
-        <v>7.0499</v>
+        <v>7.04774</v>
       </c>
       <c r="BC9" s="2">
-        <v>6.79016</v>
+        <v>6.79172</v>
       </c>
       <c r="BD9">
-        <v>57.4477</v>
+        <v>57.4652</v>
       </c>
       <c r="BE9">
-        <v>59.6451</v>
+        <v>59.6314</v>
       </c>
       <c r="BF9">
-        <v>67.8058</v>
+        <v>67.80480000000001</v>
       </c>
       <c r="BG9">
-        <v>67.946</v>
+        <v>67.9666</v>
       </c>
       <c r="BH9" s="2">
-        <v>-49.9818</v>
+        <v>-49.9793</v>
       </c>
       <c r="BI9" s="2">
-        <v>8.936029999999999</v>
+        <v>8.93614</v>
       </c>
       <c r="BJ9" s="2">
-        <v>7.29192</v>
+        <v>7.29206</v>
       </c>
       <c r="BK9">
-        <v>45.3221</v>
+        <v>45.3216</v>
       </c>
       <c r="BL9">
-        <v>55.5409</v>
+        <v>55.5399</v>
       </c>
       <c r="BM9" s="5" t="s">
         <v>92</v>
@@ -3000,100 +3000,100 @@
         <v>121</v>
       </c>
       <c r="T10">
-        <v>235.791</v>
+        <v>237.217</v>
       </c>
       <c r="U10">
-        <v>233.71</v>
+        <v>234.789</v>
       </c>
       <c r="V10">
-        <v>234.75</v>
+        <v>236.003</v>
       </c>
       <c r="W10" s="2">
-        <v>-50.1294</v>
+        <v>-50.159</v>
       </c>
       <c r="X10" s="2">
-        <v>24.3574</v>
+        <v>26.4527</v>
       </c>
       <c r="Y10" s="2">
-        <v>23.607</v>
+        <v>24.886</v>
       </c>
       <c r="Z10">
-        <v>16.6274</v>
+        <v>15.3103</v>
       </c>
       <c r="AA10">
-        <v>17.156</v>
+        <v>16.2742</v>
       </c>
       <c r="AB10">
-        <v>192.154</v>
+        <v>191.887</v>
       </c>
       <c r="AC10">
-        <v>178.99</v>
+        <v>178.247</v>
       </c>
       <c r="AD10">
-        <v>185.572</v>
-      </c>
-      <c r="AE10">
-        <v>51.2411</v>
+        <v>185.067</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>51.5826</v>
       </c>
       <c r="AF10" s="2">
-        <v>16.8702</v>
+        <v>16.2382</v>
       </c>
       <c r="AG10" s="2">
-        <v>16.0074</v>
+        <v>15.7319</v>
       </c>
       <c r="AH10">
-        <v>32.009</v>
+        <v>33.2548</v>
       </c>
       <c r="AI10">
-        <v>33.7344</v>
+        <v>34.3252</v>
       </c>
       <c r="AJ10">
-        <v>192.552</v>
+        <v>192.181</v>
       </c>
       <c r="AK10">
-        <v>178.348</v>
+        <v>177.759</v>
       </c>
       <c r="AL10">
-        <v>185.45</v>
+        <v>184.97</v>
       </c>
       <c r="AM10">
-        <v>51.426</v>
+        <v>51.3588</v>
       </c>
       <c r="AN10" s="2">
-        <v>16.3794</v>
+        <v>16.8954</v>
       </c>
       <c r="AO10" s="2">
-        <v>15.8563</v>
+        <v>16.4872</v>
       </c>
       <c r="AP10">
-        <v>32.9682</v>
+        <v>31.9614</v>
       </c>
       <c r="AQ10">
-        <v>34.0559</v>
+        <v>32.7528</v>
       </c>
       <c r="AR10">
-        <v>140.679</v>
+        <v>141.76</v>
       </c>
       <c r="AS10">
-        <v>136.593</v>
+        <v>135.288</v>
       </c>
       <c r="AT10">
-        <v>50.1903</v>
+        <v>50.4484</v>
       </c>
       <c r="AU10" s="4">
-        <v>235.029</v>
+        <v>238.212</v>
       </c>
       <c r="AV10" s="4">
-        <v>233.306</v>
+        <v>236.493</v>
       </c>
       <c r="AW10">
-        <v>1.7232</v>
+        <v>1.70016</v>
       </c>
       <c r="AX10">
-        <v>1.73592</v>
+        <v>1.71252</v>
       </c>
       <c r="AY10">
-        <v>54.4909</v>
+        <v>54.491</v>
       </c>
       <c r="AZ10">
         <v>54.4139</v>
@@ -3102,34 +3102,34 @@
         <v>-50.0083</v>
       </c>
       <c r="BB10" s="2">
-        <v>4.60801</v>
+        <v>4.60816</v>
       </c>
       <c r="BC10" s="2">
         <v>4.49824</v>
       </c>
       <c r="BD10">
-        <v>87.8904</v>
+        <v>87.88760000000001</v>
       </c>
       <c r="BE10">
         <v>90.0352</v>
       </c>
       <c r="BF10">
-        <v>63.7468</v>
+        <v>63.7463</v>
       </c>
       <c r="BG10">
         <v>63.5069</v>
       </c>
       <c r="BH10" s="2">
-        <v>-50.0287</v>
+        <v>-50.0288</v>
       </c>
       <c r="BI10" s="2">
-        <v>8.198840000000001</v>
+        <v>8.19881</v>
       </c>
       <c r="BJ10" s="2">
-        <v>6.58094</v>
+        <v>6.58095</v>
       </c>
       <c r="BK10">
-        <v>49.3972</v>
+        <v>49.3974</v>
       </c>
       <c r="BL10">
         <v>61.5413</v>
@@ -3418,139 +3418,139 @@
         <v>125</v>
       </c>
       <c r="T12" s="1">
-        <v>221.342</v>
+        <v>222.682</v>
       </c>
       <c r="U12" s="1">
-        <v>217.63</v>
+        <v>218.727</v>
       </c>
       <c r="V12" s="1">
-        <v>219.486</v>
+        <v>220.705</v>
       </c>
       <c r="W12" s="2">
-        <v>-50.6727</v>
+        <v>-50.6425</v>
       </c>
       <c r="X12" s="2">
-        <v>-1947.82</v>
+        <v>22.1594</v>
       </c>
       <c r="Y12" s="2">
-        <v>19.2602</v>
+        <v>20.6881</v>
       </c>
       <c r="Z12" s="1">
-        <v>-0.463449</v>
+        <v>3.17568</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.198627</v>
+        <v>8.65443</v>
       </c>
       <c r="AB12" s="1">
-        <v>165.089</v>
+        <v>164.739</v>
       </c>
       <c r="AC12" s="1">
-        <v>150.954</v>
+        <v>150.164</v>
       </c>
       <c r="AD12" s="1">
-        <v>158.022</v>
+        <v>157.452</v>
       </c>
       <c r="AE12" s="1">
-        <v>51.2411</v>
+        <v>51.4251</v>
       </c>
       <c r="AF12" s="2">
-        <v>14.4645</v>
+        <v>14.4301</v>
       </c>
       <c r="AG12" s="2">
-        <v>14.0405</v>
+        <v>14.074</v>
       </c>
       <c r="AH12" s="1">
-        <v>21.5469</v>
+        <v>21.549</v>
       </c>
       <c r="AI12" s="1">
-        <v>21.3399</v>
+        <v>21.7643</v>
       </c>
       <c r="AJ12" s="1">
-        <v>-555.5170000000001</v>
+        <v>-550.417</v>
       </c>
       <c r="AK12" s="1">
-        <v>151.132</v>
+        <v>150.849</v>
       </c>
       <c r="AL12" s="1">
-        <v>-84.7816</v>
+        <v>-80.4924</v>
       </c>
       <c r="AM12" s="2">
-        <v>44.2183</v>
+        <v>43.3978</v>
       </c>
       <c r="AN12" s="2">
-        <v>-981.627</v>
+        <v>-979.4100000000001</v>
       </c>
       <c r="AO12" s="2">
-        <v>13.9016</v>
+        <v>14.0875</v>
       </c>
       <c r="AP12" s="1">
-        <v>-0.642199</v>
+        <v>-0.643653</v>
       </c>
       <c r="AQ12" s="1">
-        <v>21.0365</v>
+        <v>21.2736</v>
       </c>
       <c r="AR12" s="1">
-        <v>-837.859</v>
+        <v>-773.865</v>
       </c>
       <c r="AS12" s="1">
-        <v>-852.332</v>
-      </c>
-      <c r="AT12" s="1">
-        <v>50.1903</v>
+        <v>-846.2360000000001</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>1.70515</v>
       </c>
       <c r="AU12" s="4">
-        <v>230.198</v>
+        <v>233.219</v>
       </c>
       <c r="AV12" s="4">
-        <v>228.629</v>
+        <v>231.461</v>
       </c>
       <c r="AW12" s="1">
-        <v>1.60709</v>
+        <v>1.58943</v>
       </c>
       <c r="AX12" s="1">
-        <v>1.62314</v>
+        <v>1.604</v>
       </c>
       <c r="AY12" s="1">
-        <v>49.78740000000001</v>
+        <v>49.7926</v>
       </c>
       <c r="AZ12" s="1">
-        <v>50.0593</v>
+        <v>50.058</v>
       </c>
       <c r="BA12" s="2">
-        <v>-50.0937</v>
+        <v>-50.0698</v>
       </c>
       <c r="BB12" s="2">
-        <v>4.30551</v>
+        <v>4.303170000000001</v>
       </c>
       <c r="BC12" s="2">
         <v>4.26839</v>
       </c>
       <c r="BD12" s="1">
-        <v>57.4477</v>
+        <v>57.4652</v>
       </c>
       <c r="BE12" s="1">
-        <v>59.6451</v>
+        <v>59.6314</v>
       </c>
       <c r="BF12" s="1">
-        <v>57.6383</v>
+        <v>57.6454</v>
       </c>
       <c r="BG12" s="1">
-        <v>57.6273</v>
+        <v>57.6287</v>
       </c>
       <c r="BH12" s="2">
-        <v>-50.1407</v>
+        <v>-50.0871</v>
       </c>
       <c r="BI12" s="2">
-        <v>7.264460000000001</v>
+        <v>7.272810000000001</v>
       </c>
       <c r="BJ12" s="2">
-        <v>5.70584</v>
+        <v>5.70858</v>
       </c>
       <c r="BK12" s="1">
-        <v>33.3951</v>
+        <v>33.9445</v>
       </c>
       <c r="BL12" s="1">
-        <v>42.2111</v>
+        <v>42.1238</v>
       </c>
       <c r="BM12" s="1" t="s">
         <v>126</v>
@@ -3600,139 +3600,139 @@
         <v>127</v>
       </c>
       <c r="T13" s="1">
-        <v>294.8800000000001</v>
+        <v>296.065</v>
       </c>
       <c r="U13" s="1">
-        <v>293.461</v>
+        <v>294.669</v>
       </c>
       <c r="V13" s="1">
-        <v>294.17</v>
+        <v>295.367</v>
       </c>
       <c r="W13" s="2">
-        <v>-50.05</v>
-      </c>
-      <c r="X13" s="2">
-        <v>29.5233</v>
-      </c>
-      <c r="Y13" s="4">
-        <v>2038.99</v>
+        <v>-50.1103</v>
+      </c>
+      <c r="X13" s="4">
+        <v>127.532</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>46.7968</v>
       </c>
       <c r="Z13" s="1">
-        <v>24.9917</v>
+        <v>22.3382</v>
       </c>
       <c r="AA13" s="1">
-        <v>25.7007</v>
+        <v>23.9268</v>
       </c>
       <c r="AB13" s="4">
-        <v>458.549</v>
+        <v>463.285</v>
       </c>
       <c r="AC13" s="4">
-        <v>438.053</v>
+        <v>442.46</v>
       </c>
       <c r="AD13" s="4">
-        <v>448.301</v>
+        <v>452.873</v>
       </c>
       <c r="AE13" s="4">
-        <v>55.3026</v>
+        <v>58.1967</v>
       </c>
       <c r="AF13" s="2">
-        <v>25.0616</v>
+        <v>25.0592</v>
       </c>
       <c r="AG13" s="2">
-        <v>25.3047</v>
+        <v>24.8113</v>
       </c>
       <c r="AH13" s="1">
-        <v>43.5824</v>
+        <v>43.6864</v>
       </c>
       <c r="AI13" s="1">
-        <v>44.8986</v>
+        <v>44.7919</v>
       </c>
       <c r="AJ13" s="1">
-        <v>245.518</v>
+        <v>241.09</v>
       </c>
       <c r="AK13" s="4">
-        <v>437.648</v>
+        <v>441.452</v>
       </c>
       <c r="AL13" s="1">
-        <v>229.974</v>
+        <v>226.806</v>
       </c>
       <c r="AM13" s="3">
-        <v>52.792</v>
+        <v>52.5235</v>
       </c>
       <c r="AN13" s="2">
-        <v>26.1585</v>
+        <v>25.4107</v>
       </c>
       <c r="AO13" s="2">
-        <v>25.6697</v>
+        <v>25.3836</v>
       </c>
       <c r="AP13" s="1">
-        <v>44.0799</v>
+        <v>43.8729</v>
       </c>
       <c r="AQ13" s="1">
-        <v>45.3474</v>
+        <v>44.7488</v>
       </c>
       <c r="AR13" s="4">
-        <v>381.494</v>
+        <v>384.752</v>
       </c>
       <c r="AS13" s="4">
-        <v>375.283</v>
+        <v>379.3</v>
       </c>
       <c r="AT13" s="4">
-        <v>623.3819999999999</v>
+        <v>63.7407</v>
       </c>
       <c r="AU13" s="4">
-        <v>252.008</v>
+        <v>254.808</v>
       </c>
       <c r="AV13" s="4">
-        <v>249.516</v>
+        <v>252.493</v>
       </c>
       <c r="AW13" s="1">
-        <v>2.15032</v>
+        <v>2.12247</v>
       </c>
       <c r="AX13" s="1">
-        <v>2.16508</v>
+        <v>2.13859</v>
       </c>
       <c r="AY13" s="1">
-        <v>71.3925</v>
+        <v>71.2531</v>
       </c>
       <c r="AZ13" s="1">
-        <v>72.3347</v>
+        <v>72.3985</v>
       </c>
       <c r="BA13" s="2">
-        <v>-49.9051</v>
+        <v>-49.8831</v>
       </c>
       <c r="BB13" s="2">
-        <v>7.0499</v>
+        <v>7.04774</v>
       </c>
       <c r="BC13" s="2">
-        <v>6.79016</v>
+        <v>6.79172</v>
       </c>
       <c r="BD13" s="1">
-        <v>109.813</v>
+        <v>109.873</v>
       </c>
       <c r="BE13" s="1">
         <v>110.768</v>
       </c>
       <c r="BF13" s="1">
-        <v>86.9205</v>
+        <v>86.9096</v>
       </c>
       <c r="BG13" s="1">
-        <v>86.51389999999999</v>
+        <v>86.56740000000001</v>
       </c>
       <c r="BH13" s="2">
-        <v>-49.94</v>
+        <v>-49.9037</v>
       </c>
       <c r="BI13" s="2">
-        <v>12.1275</v>
+        <v>11.9312</v>
       </c>
       <c r="BJ13" s="2">
-        <v>9.594640000000002</v>
+        <v>9.614520000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>65.084</v>
+        <v>65.0093</v>
       </c>
       <c r="BL13" s="1">
-        <v>82.8625</v>
+        <v>82.8227</v>
       </c>
       <c r="BM13" s="1" t="s">
         <v>126</v>
@@ -4066,139 +4066,139 @@
         <v>132</v>
       </c>
       <c r="T18" s="1">
-        <v>254.426888888889</v>
+        <v>255.7534444444444</v>
       </c>
       <c r="U18" s="1">
-        <v>251.018</v>
+        <v>252.1868888888889</v>
       </c>
       <c r="V18" s="1">
-        <v>252.7223333333334</v>
+        <v>253.9703333333333</v>
       </c>
       <c r="W18" s="1">
-        <v>-50.3038</v>
+        <v>-50.32807777777778</v>
       </c>
       <c r="X18" s="1">
-        <v>-293.7725666666667</v>
+        <v>47.69276666666666</v>
       </c>
       <c r="Y18" s="1">
-        <v>360.5191777777778</v>
+        <v>29.41915555555556</v>
       </c>
       <c r="Z18" s="1">
-        <v>14.35481411111111</v>
+        <v>14.10938666666667</v>
       </c>
       <c r="AA18" s="1">
-        <v>15.23287288888889</v>
+        <v>16.40792555555556</v>
       </c>
       <c r="AB18" s="1">
-        <v>260.3641111111111</v>
+        <v>260.394</v>
       </c>
       <c r="AC18" s="1">
-        <v>236.0861111111111</v>
+        <v>234.931</v>
       </c>
       <c r="AD18" s="1">
-        <v>248.2252222222222</v>
+        <v>247.6627777777777</v>
       </c>
       <c r="AE18" s="1">
-        <v>52.39719999999999</v>
+        <v>52.72741111111111</v>
       </c>
       <c r="AF18" s="1">
-        <v>19.40085555555556</v>
+        <v>19.24346666666667</v>
       </c>
       <c r="AG18" s="1">
-        <v>19.2077</v>
+        <v>19.13427777777778</v>
       </c>
       <c r="AH18" s="1">
-        <v>31.4642</v>
+        <v>31.69733333333333</v>
       </c>
       <c r="AI18" s="1">
-        <v>31.835</v>
+        <v>31.92618888888889</v>
       </c>
       <c r="AJ18" s="1">
-        <v>38.24266666666665</v>
+        <v>38.36411111111111</v>
       </c>
       <c r="AK18" s="1">
-        <v>235.591</v>
+        <v>235.626</v>
       </c>
       <c r="AL18" s="1">
-        <v>136.9166111111111</v>
+        <v>136.9950222222222</v>
       </c>
       <c r="AM18" s="1">
-        <v>50.65977777777778</v>
+        <v>50.54496666666667</v>
       </c>
       <c r="AN18" s="1">
-        <v>-91.80736666666665</v>
+        <v>-91.66366666666667</v>
       </c>
       <c r="AO18" s="1">
-        <v>19.19241111111111</v>
+        <v>19.18312222222222</v>
       </c>
       <c r="AP18" s="1">
-        <v>27.91056677777778</v>
+        <v>27.86516077777777</v>
       </c>
       <c r="AQ18" s="1">
-        <v>31.83954444444445</v>
+        <v>31.79538888888889</v>
       </c>
       <c r="AR18" s="1">
-        <v>22.33511111111111</v>
+        <v>31.54155555555557</v>
       </c>
       <c r="AS18" s="1">
-        <v>-9.49977777777778</v>
+        <v>50.74255555555554</v>
       </c>
       <c r="AT18" s="1">
-        <v>117.9459777777778</v>
+        <v>42.96721222222223</v>
       </c>
       <c r="AU18" s="1">
-        <v>239.9501111111111</v>
+        <v>242.9643333333333</v>
       </c>
       <c r="AV18" s="1">
-        <v>237.5153333333334</v>
+        <v>240.7181111111111</v>
       </c>
       <c r="AW18" s="1">
-        <v>1.879676666666667</v>
+        <v>1.8563</v>
       </c>
       <c r="AX18" s="1">
-        <v>1.898352222222222</v>
+        <v>1.873145555555556</v>
       </c>
       <c r="AY18" s="1">
-        <v>60.56883333333334</v>
+        <v>60.53104444444445</v>
       </c>
       <c r="AZ18" s="1">
-        <v>60.74355555555556</v>
+        <v>60.75303333333333</v>
       </c>
       <c r="BA18" s="1">
-        <v>-49.98515555555556</v>
+        <v>-49.97684444444445</v>
       </c>
       <c r="BB18" s="1">
-        <v>5.563880000000001</v>
+        <v>5.407575555555557</v>
       </c>
       <c r="BC18" s="1">
-        <v>5.540971111111111</v>
+        <v>5.541285555555556</v>
       </c>
       <c r="BD18" s="1">
-        <v>82.24836666666664</v>
+        <v>84.00402222222222</v>
       </c>
       <c r="BE18" s="1">
-        <v>82.42489999999999</v>
+        <v>82.42080000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>71.62558888888888</v>
+        <v>71.50257777777777</v>
       </c>
       <c r="BG18" s="1">
-        <v>71.4490111111111</v>
+        <v>71.45725555555555</v>
       </c>
       <c r="BH18" s="1">
-        <v>-50.02525555555556</v>
+        <v>-50.00741111111111</v>
       </c>
       <c r="BI18" s="1">
-        <v>9.467203333333336</v>
+        <v>9.440608888888887</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.463842222222222</v>
+        <v>7.467214444444443</v>
       </c>
       <c r="BK18" s="1">
-        <v>47.94661111111111</v>
+        <v>48.04424444444444</v>
       </c>
       <c r="BL18" s="1">
-        <v>60.6877</v>
+        <v>60.66538888888889</v>
       </c>
       <c r="BM18" s="1" t="s">
         <v>126</v>
@@ -4248,139 +4248,139 @@
         <v>133</v>
       </c>
       <c r="T19" s="1">
-        <v>23.59447251862392</v>
+        <v>23.47098235463011</v>
       </c>
       <c r="U19" s="1">
-        <v>24.47865845089465</v>
+        <v>24.49889126490986</v>
       </c>
       <c r="V19" s="1">
-        <v>24.02535048651735</v>
+        <v>23.97402924926147</v>
       </c>
       <c r="W19" s="1">
-        <v>0.1836173315470095</v>
+        <v>0.1711616894945155</v>
       </c>
       <c r="X19" s="1">
-        <v>648.5481516255828</v>
+        <v>38.32223605804975</v>
       </c>
       <c r="Y19" s="1">
-        <v>672.2512039936109</v>
+        <v>7.839673751305827</v>
       </c>
       <c r="Z19" s="1">
-        <v>8.351822036434026</v>
+        <v>6.217888401636041</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.470234263410997</v>
+        <v>4.54691899232659</v>
       </c>
       <c r="AB19" s="1">
-        <v>105.6317761581286</v>
+        <v>107.1104101642579</v>
       </c>
       <c r="AC19" s="1">
-        <v>97.62858507225164</v>
+        <v>97.77839369149447</v>
       </c>
       <c r="AD19" s="1">
-        <v>101.5035287857059</v>
+        <v>102.2642235918286</v>
       </c>
       <c r="AE19" s="1">
-        <v>1.125836495924499</v>
+        <v>1.968902153454189</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.594853177688319</v>
+        <v>3.609058311157266</v>
       </c>
       <c r="AG19" s="1">
-        <v>3.633964705081459</v>
+        <v>3.641173058470085</v>
       </c>
       <c r="AH19" s="1">
-        <v>6.982702983165695</v>
+        <v>6.832378083150193</v>
       </c>
       <c r="AI19" s="1">
-        <v>7.208377991383824</v>
+        <v>7.026843142382951</v>
       </c>
       <c r="AJ19" s="1">
-        <v>314.1006864020234</v>
+        <v>311.7612471739105</v>
       </c>
       <c r="AK19" s="1">
-        <v>96.91529092402752</v>
+        <v>98.71238749800128</v>
       </c>
       <c r="AL19" s="1">
-        <v>111.8166683794946</v>
+        <v>109.6249384608547</v>
       </c>
       <c r="AM19" s="1">
-        <v>2.642860364906754</v>
+        <v>2.843573405652356</v>
       </c>
       <c r="AN19" s="1">
-        <v>314.622822006863</v>
+        <v>313.8856617639721</v>
       </c>
       <c r="AO19" s="1">
-        <v>3.642798402768108</v>
+        <v>3.56951811026449</v>
       </c>
       <c r="AP19" s="1">
-        <v>12.42307634183019</v>
+        <v>12.14230254647758</v>
       </c>
       <c r="AQ19" s="1">
-        <v>7.102971720986632</v>
+        <v>6.912738554524529</v>
       </c>
       <c r="AR19" s="1">
-        <v>445.0128277470573</v>
+        <v>432.22252471926</v>
       </c>
       <c r="AS19" s="1">
-        <v>459.000107474395</v>
+        <v>373.5408644538287</v>
       </c>
       <c r="AT19" s="1">
-        <v>178.7692821864712</v>
+        <v>22.24715703219117</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.02134856379607</v>
+        <v>6.957162176890488</v>
       </c>
       <c r="AV19" s="1">
-        <v>6.123808909131268</v>
+        <v>6.237265612509026</v>
       </c>
       <c r="AW19" s="1">
-        <v>0.210183002484343</v>
+        <v>0.2073977253170021</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.2087999087259154</v>
+        <v>0.2065118535802142</v>
       </c>
       <c r="AY19" s="1">
-        <v>6.877987312999184</v>
+        <v>6.858388909958878</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7.169855688321629</v>
+        <v>7.181595720234388</v>
       </c>
       <c r="BA19" s="1">
-        <v>0.06299968449852439</v>
+        <v>0.05788419686679308</v>
       </c>
       <c r="BB19" s="1">
-        <v>1.018290641189112</v>
+        <v>0.9101474597144635</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.9758014911792535</v>
+        <v>0.9757259931753507</v>
       </c>
       <c r="BD19" s="1">
-        <v>18.10244058297113</v>
+        <v>16.68197732036835</v>
       </c>
       <c r="BE19" s="1">
-        <v>17.88762376418089</v>
+        <v>17.89241925943934</v>
       </c>
       <c r="BF19" s="1">
-        <v>9.367541164923868</v>
+        <v>9.266334255761885</v>
       </c>
       <c r="BG19" s="1">
-        <v>9.49022838789041</v>
+        <v>9.497060333961956</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.06385224456354371</v>
+        <v>0.06161434617295641</v>
       </c>
       <c r="BI19" s="1">
-        <v>1.556279132510903</v>
+        <v>1.525324575589984</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.161136054385989</v>
+        <v>1.164495749604486</v>
       </c>
       <c r="BK19" s="1">
-        <v>9.488479731693873</v>
+        <v>9.438824729701505</v>
       </c>
       <c r="BL19" s="1">
-        <v>11.85154729907543</v>
+        <v>11.85305739118669</v>
       </c>
       <c r="BM19" s="1" t="s">
         <v>126</v>
@@ -4430,139 +4430,139 @@
         <v>134</v>
       </c>
       <c r="T20" s="1">
-        <v>9.273576634004232</v>
+        <v>9.177191105134286</v>
       </c>
       <c r="U20" s="1">
-        <v>9.751754237104368</v>
+        <v>9.71457769785321</v>
       </c>
       <c r="V20" s="1">
-        <v>9.506619446579982</v>
+        <v>9.439696729379731</v>
       </c>
       <c r="W20" s="1">
-        <v>0.3650168208902897</v>
+        <v>0.3400918474380746</v>
       </c>
       <c r="X20" s="1">
-        <v>220.765389697353</v>
+        <v>80.35230232267875</v>
       </c>
       <c r="Y20" s="1">
-        <v>186.4675294494273</v>
+        <v>26.64819435928837</v>
       </c>
       <c r="Z20" s="1">
-        <v>58.18133186391757</v>
+        <v>44.06916153432638</v>
       </c>
       <c r="AA20" s="1">
-        <v>55.60496910329586</v>
+        <v>27.71172368457662</v>
       </c>
       <c r="AB20" s="1">
-        <v>40.57078977104104</v>
+        <v>41.13397780450313</v>
       </c>
       <c r="AC20" s="1">
-        <v>41.35295575532773</v>
+        <v>41.62004745712336</v>
       </c>
       <c r="AD20" s="1">
-        <v>40.8917062806919</v>
+        <v>41.29172114979182</v>
       </c>
       <c r="AE20" s="1">
-        <v>2.148657744926253</v>
+        <v>3.734114973528992</v>
       </c>
       <c r="AF20" s="1">
-        <v>18.5293538596493</v>
+        <v>18.7547201014921</v>
       </c>
       <c r="AG20" s="1">
-        <v>18.91931207318658</v>
+        <v>19.02958188836832</v>
       </c>
       <c r="AH20" s="1">
-        <v>22.1925330476087</v>
+        <v>21.55505641846904</v>
       </c>
       <c r="AI20" s="1">
-        <v>22.64293385074233</v>
+        <v>22.00965222262551</v>
       </c>
       <c r="AJ20" s="1">
-        <v>821.3357325204577</v>
+        <v>812.6377443516928</v>
       </c>
       <c r="AK20" s="1">
-        <v>41.13709391446511</v>
+        <v>41.89367365995318</v>
       </c>
       <c r="AL20" s="1">
-        <v>81.66771545985222</v>
+        <v>80.02111075468855</v>
       </c>
       <c r="AM20" s="1">
-        <v>5.216881085621464</v>
+        <v>5.625829025479666</v>
       </c>
       <c r="AN20" s="1">
-        <v>342.6988851005744</v>
+        <v>342.4319287874571</v>
       </c>
       <c r="AO20" s="1">
-        <v>18.98041044285037</v>
+        <v>18.60759718316067</v>
       </c>
       <c r="AP20" s="1">
-        <v>44.51029762577721</v>
+        <v>43.575210792112</v>
       </c>
       <c r="AQ20" s="1">
-        <v>22.30864745373579</v>
+        <v>21.74132412307192</v>
       </c>
       <c r="AR20" s="1">
-        <v>1992.436149223701</v>
+        <v>1370.32723055769</v>
       </c>
       <c r="AS20" s="1">
-        <v>4831.693100738677</v>
+        <v>736.1490968756137</v>
       </c>
       <c r="AT20" s="1">
-        <v>151.5687822125573</v>
+        <v>51.77705483225451</v>
       </c>
       <c r="AU20" s="1">
-        <v>2.926170165657798</v>
+        <v>2.863449989322365</v>
       </c>
       <c r="AV20" s="1">
-        <v>2.578279399139677</v>
+        <v>2.591107741631463</v>
       </c>
       <c r="AW20" s="1">
-        <v>11.18187006369941</v>
+        <v>11.17264048467393</v>
       </c>
       <c r="AX20" s="1">
-        <v>10.99900778589408</v>
+        <v>11.02486952857035</v>
       </c>
       <c r="AY20" s="1">
-        <v>11.35565427708835</v>
+        <v>11.33036605085102</v>
       </c>
       <c r="AZ20" s="1">
-        <v>11.80348371567439</v>
+        <v>11.82096650356727</v>
       </c>
       <c r="BA20" s="1">
-        <v>0.1260367879189732</v>
+        <v>0.1158220322036111</v>
       </c>
       <c r="BB20" s="1">
-        <v>18.3018081121288</v>
+        <v>16.83097074398544</v>
       </c>
       <c r="BC20" s="1">
-        <v>17.61065834150468</v>
+        <v>17.60829654766865</v>
       </c>
       <c r="BD20" s="1">
-        <v>22.00948336923951</v>
+        <v>19.85854591133535</v>
       </c>
       <c r="BE20" s="1">
-        <v>21.70172334352955</v>
+        <v>21.70862119688153</v>
       </c>
       <c r="BF20" s="1">
-        <v>13.07848397512726</v>
+        <v>12.95944082542121</v>
       </c>
       <c r="BG20" s="1">
-        <v>13.2825188764783</v>
+        <v>13.29054727910495</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.1276400167364115</v>
+        <v>0.1232104298222036</v>
       </c>
       <c r="BI20" s="1">
-        <v>16.43863639255911</v>
+        <v>16.1570571722891</v>
       </c>
       <c r="BJ20" s="1">
-        <v>15.55681403512147</v>
+        <v>15.59478113650349</v>
       </c>
       <c r="BK20" s="1">
-        <v>19.7896775430183</v>
+        <v>19.6461092038111</v>
       </c>
       <c r="BL20" s="1">
-        <v>19.52874684503686</v>
+        <v>19.53841821222979</v>
       </c>
       <c r="BM20" s="1" t="s">
         <v>126</v>
